--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,28 +468,45 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://fdsfasdfdfsa.com</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>stale element reference: stale element not found</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+          <t>https://cnn.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>True - outerHTML change
+          <t>False - outerHTML didn't change
 True - DOM change</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu"&gt;</t>
+          <t>&lt;svg class="header__menu-icon-svg" role="img" viewBox="0 0 64 63" xmlns="https://www.w3.org/2000/svg" aria-hidden="true" aria-haspopup="true" aria-expanded="false"&gt;&lt;path d="M52.75,47.84H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M52.75,28.92H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M11.25,14.16h41.5a2.08,2.08,0,1,0,0-4.16H11.25a2.08,2.08,0,1,0,0,4.16Z"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu" aria-expanded="true"&gt;</t>
+          <t>&lt;svg class="header__menu-icon-svg" role="img" viewBox="0 0 64 63" xmlns="https://www.w3.org/2000/svg" aria-hidden="true" aria-haspopup="true" aria-expanded="false"&gt;&lt;path d="M52.75,47.84H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M52.75,28.92H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M11.25,14.16h41.5a2.08,2.08,0,1,0,0-4.16H11.25a2.08,2.08,0,1,0,0,4.16Z"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -501,18 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>True - outerHTML change
-True - DOM change</t>
+          <t>True - redirect</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools"&gt;</t>
+          <t>https://cnn.com</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools" aria-expanded="true"&gt;</t>
+          <t>https://www.cnn.com/account/log-in</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -524,44 +540,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>True - outerHTML change
-True - DOM change</t>
+          <t>True - redirect</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector" aria-label="Go to an article in another language. Available in 47 languages"&gt;</t>
+          <t>https://cnn.com</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector selector-open" aria-label="Go to an article in another language. Available in 47 languages" data-uls-loaded="true" aria-expanded="false"&gt;</t>
+          <t>https://www.cnn.com/account/log-in</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>Tries: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>True - outerHTML change
-True - DOM change</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools"&gt;</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools" aria-expanded="true"&gt;</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>Tries: 1</t>
         </is>
@@ -570,22 +562,1895 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Failed - Not Interactable</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>http://cnn.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>False - outerHTML didn't change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>&lt;svg class="header__menu-icon-svg" role="img" viewBox="0 0 64 63" xmlns="https://www.w3.org/2000/svg" aria-hidden="true" aria-haspopup="true" aria-expanded="false"&gt;&lt;path d="M52.75,47.84H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M52.75,28.92H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M11.25,14.16h41.5a2.08,2.08,0,1,0,0-4.16H11.25a2.08,2.08,0,1,0,0,4.16Z"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;svg class="header__menu-icon-svg" role="img" viewBox="0 0 64 63" xmlns="https://www.w3.org/2000/svg" aria-hidden="true" aria-haspopup="true" aria-expanded="false"&gt;&lt;path d="M52.75,47.84H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M52.75,28.92H11.25a2.08,2.08,0,1,0,0,4.16h41.5a2.08,2.08,0,1,0,0-4.16Z"&gt;&lt;/path&gt;&lt;path d="M11.25,14.16h41.5a2.08,2.08,0,1,0,0-4.16H11.25a2.08,2.08,0,1,0,0,4.16Z"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://cnn.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/account/log-in</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://cnn.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/account/log-in</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu"&gt;</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools"&gt;</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector" aria-label="Go to an article in another language. Available in 47 languages"&gt;</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector selector-open" aria-label="Go to an article in another language. Available in 47 languages" data-uls-loaded="true" aria-expanded="false"&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools"&gt;</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>https://www.amazon.com/</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>&lt;button id="search" aria-label="Search Microsoft.com" class="c-glyph" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;Search_nav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;n2c3c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c3c1c7c4c1m1r1a1&amp;quot;}" data-bi-mto="true" aria-expanded="false" style="overflow-x: visible;"&gt;
+                                        &lt;span role="presentation" style="overflow-x: visible;"&gt;Search&lt;/span&gt;
+                                        &lt;span role="tooltip" class="c-uhf-tooltip c-uhf-search-tooltip" style="overflow-x: visible;"&gt;Search Microsoft.com&lt;/span&gt;
+                                    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;button id="search" aria-label="Search Microsoft.com" class="c-glyph" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;Search_nav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;n2c3c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c3c1c7c4c1m1r1a1&amp;quot;}" data-bi-mto="true" style="overflow-x: visible;"&gt;
+                                        &lt;span role="presentation" style="overflow-x: visible;"&gt;Search&lt;/span&gt;
+                                        &lt;span role="tooltip" class="c-uhf-tooltip c-uhf-search-tooltip" style="overflow-x: visible;"&gt;Search Microsoft.com&lt;/span&gt;
+                                    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c7c4c1m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="true" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c7c4c1m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/store/b/shop-all-microsoft-surface?icid=MSCOM_QL_Surface</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/store/b/xbox?icid=MSCOM_QL_Xbox</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/store/b/accessories?icid=MSCOM_QL_Accessories</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/store/b/business?icid=MSCOM_QL_Business</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/EN-US/microsoft-365/buy/compare-all-microsoft-365-products?icid=MSCOM_QL_M365</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>https://www.office.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="c-shellmenu_0" aria-expanded="false" data-m="{&amp;quot;id&amp;quot;:&amp;quot;nn2c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Products&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="c-shellmenu_0" aria-expanded="true" data-m="{&amp;quot;id&amp;quot;:&amp;quot;nn2c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Products&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="resources" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;CatNav_Resources_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn4c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:4,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Resources &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="resources" aria-expanded="true" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;CatNav_Resources_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn4c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:4,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Resources &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c9c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c9c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="true" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c9c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c9c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://weather.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1" type="button" aria-haspopup="menu" aria-expanded="false" aria-label="[object Object]"&gt;&lt;div class="LanguageSelector--menuButtonInner--3z59Z"&gt;&lt;svg set="ui" name="globe" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--globeIcon--2-KWS" theme="light" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Globe&lt;/title&gt;&lt;path d="M14.227 8.016h-.141c-.047-.023-.352.305-.352.305s-.234.094-.258.141c0 .047-.07 0-.023.07.023.07.164.023.234-.07.094-.07.258-.117.328-.164.07-.07.094-.047.234-.117.141-.047.234-.07.188-.141-.023-.023-.07-.023-.117-.023h-.117zm-1.243-.375c-.117 0-.258.047-.328.164-.047.117 0 .305-.023.398s-.047.305.07.328c.141.023.141-.188.117-.234s-.023-.281.047-.328c.047-.047.117-.164.258-.164.141-.023.258.094.234.211s.023.234.07.234.211-.094.164-.164.047-.352.047-.258.117.164.188.141-.07-.258-.164-.258c-.094-.023-.281-.023-.328 0-.023 0-.094 0-.164-.023s-.141-.023-.188-.023h-.023zm-.679-.305c-.164.07-.234.047-.234.141 0 .07.141.07.211.047a.708.708 0 01.258-.07c.047-.023.023.07.141.07s.281.047.305.023.164-.164.047-.188c-.094-.023-.234-.117-.328-.188-.023-.023-.023-.023-.047-.023-.094 0-.234.141-.398.188zM6.68 7.242c.07.047.211.047.211.117s.047.234.117.211.07-.164.023-.211-.258-.211-.305-.211-.117-.07-.164-.094h-.023c-.07 0 .07.164.117.211zM2.953 5.555c-.141.094-.211.047-.281.117s-.281.141-.211-.023.07-.188-.047-.141-.141.141-.141.211-.188.164-.188.164.164.023.234 0 .023.141-.047.188-.164.141-.281.117-.117-.117-.188-.141c-.047 0-.094.023-.188.07A11.924 11.924 0 00.045 12c0 6.563 5.344 11.93 11.93 11.906.984 0 1.945-.141 2.859-.375a.174.174 0 01-.117-.211c.047-.141-.07-.141-.141-.211-.07-.094.094-.141.07-.188s-.141-.023-.164-.117.094-.258.117-.281c0-.047-.094-.141-.117-.188 0-.047.047-.117.164-.234.094-.094.164-.234.164-.281s-.07-.164-.07-.281c0-.094.07-.141.094-.305 0-.141-.094-.117-.094-.211 0-.117.141-.07.117-.211-.023-.117.07-.211.117-.281s.07-.211.141-.305c.047-.094-.047-.305-.047-.352s.164-.094.094-.188c-.094-.07.023-.141.117-.211.07-.07-.023-.258.047-.516.047-.234.07-.656.07-.703s0-.211-.047-.305c-.07-.117-.141-.188-.234-.234s-.211-.164-.281-.188c-.07 0-.398-.117-.398-.328 0-.188-.234-.328-.258-.469s-.211-.422-.234-.563c0-.117-.305-.164-.328-.328-.047-.164.141-.258.164-.352s-.094-.305-.117-.375c0-.047.211-.258.281-.305s.141-.211.188-.211.047-.141.094-.305c.047-.141-.023-.352-.07-.375s-.094-.188-.141-.258c-.07-.047-.188-.023-.188-.023s.023.141-.094.188c-.141.047-.164-.023-.188-.047-.047-.047-.188-.047-.258-.117s-.164-.164-.258-.188c-.07-.047-.211-.07-.188-.234 0-.164-.164-.258-.234-.281-.047-.023-.164-.094-.234-.047-.047.023-.094 0-.141-.023s-.094-.047-.141-.047c-.094 0-.281-.164-.352-.234s-.117-.164-.234-.164-.141.047-.211.141c-.094.094-.211-.07-.234-.117-.047-.047-.141-.047-.281-.047-.164 0-.258-.211-.305-.234l-.516-.258c-.094-.047-.188-.258-.141-.305s-.07-.234-.07-.234-.188-.211-.258-.211-.281-.375-.398-.492-.398-.352-.445-.469-.07-.305-.188-.211c-.141.094-.023.188.117.305s.117.211.305.352.117.305.188.352c.07.07.352.234.234.328-.117.117-.234-.141-.305-.141-.047-.023-.164-.047-.164-.117.023-.07-.094-.141-.188-.258s-.141-.047-.258-.047 0-.141.047-.211c.07-.07-.07-.164-.141-.188s-.188-.328-.305-.516-.188-.281-.305-.258-.164-.141-.258-.188c-.07-.047-.211-.305-.328-.445-.141-.141-.258-.398-.234-.539s.047-.516.047-.609-.07-.328-.07-.352c0-.047-.07-.117-.117-.117-.047-.023-.211-.211-.328-.211s-.188-.141-.164-.234c.047-.094-.117-.258-.164-.258-.07 0-.164-.164-.211-.258s-.141-.094-.117-.047 0 .141.047.164c.07.023.117.234.07.281-.047.023-.188-.094-.305-.141-.141-.07-.07-.328-.07-.398s-.188-.141-.281-.141c-.07 0-.164.023-.164-.164 0-.164-.258-.258-.328-.258-.094 0-.516-.164-.656-.164s-.375-.117-.445-.07-.234-.094-.305-.094-.07.047-.234.141zm11.203 6.703c.117-.023.211.188.047.211h-.023c-.117 0-.141-.211-.023-.234zm1.782-.141c.117-.023.211.164.047.211h-.023c-.117 0-.141-.211-.023-.234zm-.774.164c-.07-.047-.117-.094-.234-.094-.07 0-.234-.023-.234-.023s.234-.211.328-.211c.094-.023.211-.047.305-.023.117.023.281.094.281.281-.023.164-.094.023-.141.023-.023 0-.141.07-.234.07h-.047zm-2.062-.773s.328-.094.398-.094.281 0 .398.094.305.211.398.188.258.141.234.188-.234.047-.305-.023c-.07-.047-.305-.164-.375-.234-.047-.07-.352-.047-.492-.047h-.164c-.07 0-.141-.023-.117-.094zm1.007-.375c.117-.023.211.117.047.141h-.023c-.117 0-.141-.117-.023-.141zm-.375-5.86c.117-.047.164.07.094.117h-.047c-.094 0-.164-.07-.047-.117zm-.515-.093c.094-.094.234 0 .188.047 0 .023-.023.023-.07.023-.07 0-.164-.047-.141-.07zm-2.578-1.711c.07-.023.305-.047.352 0 .07.047.117.234.07.258-.047 0-.023.07-.188.164-.164.07-.211-.164-.234-.211 0-.023-.07-.023-.141 0-.047 0-.094.023-.141.023-.094 0-.141-.141-.07-.188.047-.047.141-.023.211-.023h.141zm.656.094c-.023-.07.258-.188.328-.211s.141.047.234.07c.094 0 .07.141 0 .164-.07 0-.258.023-.375.047h-.047c-.094 0-.141-.047-.141-.047zm-.024-.375c.047-.117.281-.07.305.047.023.047-.047.07-.094.07-.094 0-.234-.047-.211-.094zm-.539-.211c.164-.023.234.07.234.117s-.117.188-.234.164h-.07c-.047 0-.047 0-.094-.07-.047-.094-.328-.047-.375-.047s-.094.164-.164.188-.117-.07-.07-.07c.023-.023-.047-.211.023-.258.047-.047.281-.047.469-.023h.281zm-3.468-.071c.047 0 .398-.117.586-.141s.258.07.281.117.445.07.445.07.211.117.234.141c.047.023.141 0 .188-.047s.07-.117.211-.141.141.117.234.141c.07.023.117 0 .188-.047.094-.047.141.047.141.047s-.047.164-.047.234c0 .047-.094.07-.117.117s-.305 0-.422-.023c-.094-.023-.328-.023-.398 0s-.258.023-.328 0-.07-.141-.141-.188c-.047-.047-.188.07-.258.094s-.188-.117-.164-.188c0-.07-.258-.023-.305 0s-.234.023-.352.023-.211 0-.188-.047c.023-.07.117-.07.188-.07s-.047-.117 0-.117zm4.922.399s-.258-.07-.305-.164c-.07-.094-.305-.094-.422-.141s-.281-.117-.375-.164-.047-.188-.047-.164.188.07.305.094c.234.047.211.047.305.07s.281.164.375.211c.07.047.164.117.258.117h1.102c.07 0 .422.07.398.094s-.047.094-.211.094-.469-.023-.68-.047-.398.023-.398.023l-.281-.023zm-3.61-.586c.164-.047.305-.164.422-.164s.047.188.047.234c.023.047-.117.07-.188.047-.047-.047-.234.023-.305.023s-.094-.094 0-.141zm1.195-.117c.023-.117.141-.094.258-.117.117 0 .281 0 .422.047.164.047.141.047.211.117s.094.188.023.188-.117-.023-.258-.047c-.117-.023-.094-.047-.117-.094s-.258 0-.352 0-.188-.047-.188-.117zM3.234 3.961c.188.023.469.023.516.023s.328.094.492.047.258.023.305.047.07.023.141.094.141.023.234-.047c.094-.047.07-.117.07-.117l.094-.023c.07-.023.141.023.352.047.234.023.164-.047.328-.094a.474.474 0 01.258.023c.047.023.094.047.117.023.047-.023.117-.117.164-.07s.117.164.117.164.164-.141.211-.141.211.047.305.047c.094-.023.445-.023.539.047.07.07.281.047.398.117s.211-.047.164-.07-.188-.141-.188-.141-.211-.234-.234-.281-.07-.047-.117.07-.258.117-.492.117-.07-.117-.328-.117c-.258-.023-.164-.117-.07-.117.07 0 .141-.164.164-.258s.117-.07.305-.07h.422c.094.023.141 0 .188-.023s.094-.047.188-.023c.188.023.094.047.188.117.117.07.164.047.328.117.141.07.094.07.164.07.07.023.281-.023.422-.047s.234-.023.305.047.047.164.141.234-.047-.234-.047-.352.188-.023.305-.023.258-.047.281.023c.023.047-.188.141-.07.258s.211.164.305.164.352.023.234.164-.398.141-.492.141-.258.047-.211.141c.047.07.258.047.398.047s.609.047.727 0 .094-.188-.047-.234-.023-.117.117-.094c.07.023.117 0 .164 0s.094-.023.07 0c-.023.047.023.141.023.234 0 .117.047.164.141.141s.117-.047.211-.047c.094-.023.047-.234-.023-.352-.047-.117-.094-.188-.07-.258 0-.07.164-.07.234-.023.07.07.188.211.188.211s.164.094.211.211.07.07.188.023c.117-.07.141-.047.234.023s.023.211.023.234c0 .047.117 0 .141-.07 0-.094.141-.094.188-.117.07-.023.07-.188.07-.188s-.164-.047-.352-.023c-.164.023-.234-.023-.375-.117s-.047-.164-.117-.258.211-.141.398-.234c.164-.07.328-.023.305.164-.023.211-.047.164.141.141.164-.047-.047-.211.07-.234a2.67 2.67 0 01.398-.047c.094.023.516-.047.633-.047s.281.094.398.164c.141.07.469.164.539.211.094.047.633.117.703.141.047.023.047.188.117.328.047.141.188.047.258.047.047 0 .234.094.281.164s.445.117.445.117-.117.117-.141.164c-.047.047-.164.07-.211.117-.094.047-.164-.023-.281-.07-.094-.07-.281-.117-.328-.094s0 .07.023.117c.047.047.211.094.328.188.141.07.094.164.117.258 0 .117-.094-.047-.234-.07s-.141.117-.141.117-.164-.023-.234-.023c-.094 0 0 0-.164-.117-.07-.07-.117-.023-.141 0s-.023.047-.07.023c-.094-.047-.164-.141-.188-.117s-.07-.023-.117-.047-.094-.07-.141-.047h-.211c-.117 0-.234-.023-.281 0-.07.023-.141.023-.211.047-.094.023-.094-.188-.07-.258.047-.07.141-.07.328-.047.164.047.188 0 .234-.07s.07-.141.258-.188 0-.094-.07-.117c-.047-.023-.117-.07-.164 0s-.141.164-.141.164-.094 0-.258-.023-.047-.07.023-.094c.047-.023.141-.188.07-.234s-.094-.07-.211-.047-.047-.094-.117-.141c-.094-.047-.047.023-.047.07s-.117.047-.117.047-.188-.023-.258 0-.188.07-.141.117.164.047.211.164-.164.141-.211.164c-.047 0-.188.07-.188.07s-.164-.047-.305-.047-.164.023-.141.07.094.023.141.023.047.07.141.047c.117-.023.094-.07.211.047s.211.094.398.188-.023.211-.117.211-.094-.07-.141-.164c-.07-.07-.281.023-.281.023s-.188.094-.281.094-.164-.023-.047-.117-.141-.094-.141-.234-.047.141-.047.211c0 .047-.047.047-.117.023h-.211c-.234.023-.188.117-.492.305-.281.188-.352.234-.328.398s.094.117.211.164c.117.023.07.234.188.211.094-.023.164-.07.352.023s.281.117.516.164.375.117.492.07c.141-.023.188 0 .188.117 0 .094.094.117.07.234 0 .117.141-.117.141-.117s.07.211.023.234c-.07.023.023.141.07.141h.07c.047 0 .117.023.164-.023.07-.07-.047-.258-.047-.352 0-.07-.07-.117-.117-.211-.047-.07.094-.094.164-.023.047.07.141.023.234-.047s.094-.188.094-.188-.164-.211-.281-.258-.047-.07.07-.094 0-.07.023-.211c.047-.141.047-.234.117-.234.047 0 .305-.047.492-.023s.305.164.422.164c.141 0 .352.047.398.117s-.164.07-.047.188c.094.117.094.094.188.141s.211.023.328-.141c.094-.164.164-.164.211-.117.047.023.305.328.375.398s.188.211.211.281.188.07.258.07c.047 0 .258.141.281.234 0 .094.047.117.234.141.188.047 0 .188-.023.281-.047.07-.047.117-.117.211-.023.047-.023.047 0 .047s.047-.023.07 0c.07.047.094.094.188.07s.141 0 .188.094c.047.07.117.141.141.211s0 .164-.07.117c-.07-.07-.234-.023-.234-.023s-.094.07-.117.047c-.023-.047-.07-.094-.188-.07a.204.204 0 01-.164 0h-.117c-.094.023-.141-.047-.07-.117.07-.047.07-.258.211-.328s.094-.211 0-.211-.141.117-.188.141c-.07.023-.141.023-.258.094-.094.07-.352.047-.234.07.094.023-.164.141-.211.141-.094 0-.07-.164-.07-.234s-.117.047-.117.047-.211-.117-.281-.047-.188.117-.305.211c-.094.07-.328.211-.328.211s.094-.047.234-.07c.164-.047.141-.023.281-.094s.258-.094.375.023c.094.117-.023.188-.023.188s.047.094.117.117c.047.023.047-.023.141-.07s.047.117.07.164c.047.047.117.047.188 0 .07-.07.094-.117.141-.07s.07.141.117.234-.258.117-.328.141c-.07 0-.305.07-.352.07-.047.023-.164.141-.281.141s-.094-.164-.117-.258c0-.094-.117.023-.141.047-.023.047-.141.023-.234.047-.094 0-.258.094-.258.211s.094.164.07.211-.258.094-.352.07-.234.047-.188.094.047.141-.07.117c-.094 0-.094.094-.07.164.047.07-.117.211-.141.141-.047-.047-.117-.07-.117 0s.023.141.117.258c.07.117-.164.164-.281.258-.094.07-.398.352-.539.398s-.141.234-.07.305c.094.07.141.352.188.445s-.023.352-.141.352c-.117-.023-.07-.164-.188-.211s-.188-.281-.211-.445c-.047-.164-.07-.07-.141-.023-.094.047-.164-.117-.188-.141s-.117 0-.211 0c-.07 0-.164.023-.234.023-.164-.023-.211.07-.211.094 0 .047-.023.164-.188.07-.141-.07-.164-.07-.328-.07-.141 0-.281 0-.305.047s-.164.164-.258.188-.281.164-.188.188c.07.023.07.211.023.328s-.047.305-.023.492.188.305.328.422.211.164.352.047.211-.047.234-.023c.047.023.141-.07.117-.188-.047-.117.047-.234.188-.211.047 0 .117 0 .188-.023.07 0 .141-.023.188-.023.117 0 .141.258 0 .375-.164.117-.07.281-.094.398s-.141.141 0 .141.094.023.188.047.164-.07.281-.094c.094 0 .328.211.281.305a.983.983 0 00-.07.469c.047.164.07.164.117.234.023.047.141.164.258.117s.234-.094.281-.141.305.094.281.141c-.023.023.094.07.164.023.094-.023.117-.094.188-.211a.672.672 0 01.281-.211c.047 0 .211-.164.328-.141.094.023-.047.164-.047.234 0 .094 0 .305.047.328.07 0 .047-.164.117-.281.07-.141.211-.188.281-.188s.117.258.211.211c.094-.07.281-.047.328.023.023.07.07.117.07.117s.07-.047.07-.117c0-.094.211-.141.352-.07s.094.094.164.117c.07 0 .141-.164.164-.188.047-.023 0 .211-.094.328-.117.094.07.07.094.117.023.023.047.023.094 0 .047 0 .117 0 .141.023.047.047.164.094.234.258.094.117.211.094.375.07s.375.07.539.258c.164.164.117.305.234.305s.141.141.141.188-.234.164-.352.188c-.141 0-.141.141.07.117.211-.047.117-.117.258-.141.141-.047.258.047.164.211-.141.164-.375.164-.164.188s.094-.047.211-.188c.117-.164.117-.117.188-.117.094 0 .258.047.328.094s.234.141.352.188c.117.07.258.047.328.023s.328.07.398.188c.07.094.258.117.375.164.094.047.234.188.234.328.023.141-.141.422-.141.492-.023.047-.234.305-.422.469s-.07.352-.07.422c.023.07-.141.375-.094.445s-.047.211-.141.328c-.094.094-.141.258-.188.352-.07.094-.234.07-.398.117-.164.023-.234.07-.234.07s-.305.117-.445.234c-.164.117.047.305-.023.445s-.164.141-.234.305c-.047.117-.094.094-.117.07-.023 0-.047-.023-.07 0-.07.047-.117.141-.117.258-.023.094-.141.211-.328.375-.164.164-.281.141-.469.07-.188-.047-.164-.516-.188-.445s-.023.305.023.352c.023.047.117.211.164.234.07.047.047.117 0 .164-.047.07-.211.305-.258.328s-.469.07-.563.023c-.07-.047-.117.094-.117.188.023.094.094.164-.07.141s-.352-.117-.352-.047.047.211.117.211.164-.047.117.047-.141.164-.211.211c-.047.047-.117.164-.258.258s-.141.141-.117.188.234.023.281.047-.047.211-.094.258-.281.234-.375.281-.094.211-.047.328c4.453-1.406 7.781-5.344 8.273-10.125-.117-.094-.047-.211-.07-.328-.023-.141-.164-.188-.094-.211s.047-.094.234-.281c0-.141.023-.281.023-.422v-.094c-.047-.094-.117-.258-.023-.422a11.765 11.765 0 00-2.766-7.125 5.65 5.65 0 01-.398.047c-.094 0-.234.211-.258.258s-.328 0-.422 0-.188.117-.375.141c-.164.023-.094.141-.07.234 0 .094-.047.141-.141.117-.117-.023-.094.047-.117.117s.023.188-.094.281c-.094.07-.141.117-.258.094-.117 0-.117-.211-.141-.188-.047 0-.234.141-.281.07s-.281-.234-.375-.258c-.094-.047-.164-.188-.188-.258-.047-.07.117-.07.07-.07-.047-.023-.211-.047-.258-.094s-.141-.258-.164-.328c0-.07.141-.164.141-.211 0-.023-.141-.023-.188-.023s-.117-.141-.047-.281.211-.094.211-.094h.117c.07 0 .047.164.023.234s.047.07.094.094.07-.07.07-.117c0-.07-.117-.211-.188-.281-.047-.07-.234-.094-.258-.047s-.164.234-.211.188-.047-.445-.117-.563-.328-.141-.445-.211c-.094-.047-.492-.117-.563-.117-.023 0-.094 0-.141.023a.482.482 0 01-.258 0c-.094-.023-.094-.211-.094-.211s-.07.188-.094.234c-.047.047-.141.07-.188.047s-.164-.234-.281-.258h-.117c-.047 0-.094 0-.164-.047-.141-.117.258-.094.281-.094s.328-.07.352-.141c0-.094.094-.188.234-.141.141.023.211-.094.188-.211s.258-.234.305-.164c.047.047.281 0 .211-.117s.281-.211.609-.234.422.023.492.07.281.047.398-.023A11.889 11.889 0 0011.992.304c-3.469 0-6.586 1.5-8.766 3.867z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span data-testid="languageSelectorStatus" class="LanguageSelector--LanguageSelectorStatus--2KFS4"&gt;US&lt;/span&gt;&lt;span class="LanguageSelector--unitDisplay--mr3Rx"&gt;°F&lt;/span&gt;&lt;svg set="ui" name="triangle-down" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--arrowIcon--3LCpZ" theme="light" data-testid="Icon" viewBox="0 0 24 24" style="width: 17px;"&gt;&lt;title&gt;Arrow down&lt;/title&gt;&lt;path d="M23.765 5.167h-23.53l11.75 13.666 11.779-13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1" type="button" aria-haspopup="menu" aria-expanded="true" aria-label="[object Object]"&gt;&lt;div class="LanguageSelector--menuButtonInner--3z59Z"&gt;&lt;svg set="ui" name="globe" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--globeIcon--2-KWS" theme="light" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Globe&lt;/title&gt;&lt;path d="M14.227 8.016h-.141c-.047-.023-.352.305-.352.305s-.234.094-.258.141c0 .047-.07 0-.023.07.023.07.164.023.234-.07.094-.07.258-.117.328-.164.07-.07.094-.047.234-.117.141-.047.234-.07.188-.141-.023-.023-.07-.023-.117-.023h-.117zm-1.243-.375c-.117 0-.258.047-.328.164-.047.117 0 .305-.023.398s-.047.305.07.328c.141.023.141-.188.117-.234s-.023-.281.047-.328c.047-.047.117-.164.258-.164.141-.023.258.094.234.211s.023.234.07.234.211-.094.164-.164.047-.352.047-.258.117.164.188.141-.07-.258-.164-.258c-.094-.023-.281-.023-.328 0-.023 0-.094 0-.164-.023s-.141-.023-.188-.023h-.023zm-.679-.305c-.164.07-.234.047-.234.141 0 .07.141.07.211.047a.708.708 0 01.258-.07c.047-.023.023.07.141.07s.281.047.305.023.164-.164.047-.188c-.094-.023-.234-.117-.328-.188-.023-.023-.023-.023-.047-.023-.094 0-.234.141-.398.188zM6.68 7.242c.07.047.211.047.211.117s.047.234.117.211.07-.164.023-.211-.258-.211-.305-.211-.117-.07-.164-.094h-.023c-.07 0 .07.164.117.211zM2.953 5.555c-.141.094-.211.047-.281.117s-.281.141-.211-.023.07-.188-.047-.141-.141.141-.141.211-.188.164-.188.164.164.023.234 0 .023.141-.047.188-.164.141-.281.117-.117-.117-.188-.141c-.047 0-.094.023-.188.07A11.924 11.924 0 00.045 12c0 6.563 5.344 11.93 11.93 11.906.984 0 1.945-.141 2.859-.375a.174.174 0 01-.117-.211c.047-.141-.07-.141-.141-.211-.07-.094.094-.141.07-.188s-.141-.023-.164-.117.094-.258.117-.281c0-.047-.094-.141-.117-.188 0-.047.047-.117.164-.234.094-.094.164-.234.164-.281s-.07-.164-.07-.281c0-.094.07-.141.094-.305 0-.141-.094-.117-.094-.211 0-.117.141-.07.117-.211-.023-.117.07-.211.117-.281s.07-.211.141-.305c.047-.094-.047-.305-.047-.352s.164-.094.094-.188c-.094-.07.023-.141.117-.211.07-.07-.023-.258.047-.516.047-.234.07-.656.07-.703s0-.211-.047-.305c-.07-.117-.141-.188-.234-.234s-.211-.164-.281-.188c-.07 0-.398-.117-.398-.328 0-.188-.234-.328-.258-.469s-.211-.422-.234-.563c0-.117-.305-.164-.328-.328-.047-.164.141-.258.164-.352s-.094-.305-.117-.375c0-.047.211-.258.281-.305s.141-.211.188-.211.047-.141.094-.305c.047-.141-.023-.352-.07-.375s-.094-.188-.141-.258c-.07-.047-.188-.023-.188-.023s.023.141-.094.188c-.141.047-.164-.023-.188-.047-.047-.047-.188-.047-.258-.117s-.164-.164-.258-.188c-.07-.047-.211-.07-.188-.234 0-.164-.164-.258-.234-.281-.047-.023-.164-.094-.234-.047-.047.023-.094 0-.141-.023s-.094-.047-.141-.047c-.094 0-.281-.164-.352-.234s-.117-.164-.234-.164-.141.047-.211.141c-.094.094-.211-.07-.234-.117-.047-.047-.141-.047-.281-.047-.164 0-.258-.211-.305-.234l-.516-.258c-.094-.047-.188-.258-.141-.305s-.07-.234-.07-.234-.188-.211-.258-.211-.281-.375-.398-.492-.398-.352-.445-.469-.07-.305-.188-.211c-.141.094-.023.188.117.305s.117.211.305.352.117.305.188.352c.07.07.352.234.234.328-.117.117-.234-.141-.305-.141-.047-.023-.164-.047-.164-.117.023-.07-.094-.141-.188-.258s-.141-.047-.258-.047 0-.141.047-.211c.07-.07-.07-.164-.141-.188s-.188-.328-.305-.516-.188-.281-.305-.258-.164-.141-.258-.188c-.07-.047-.211-.305-.328-.445-.141-.141-.258-.398-.234-.539s.047-.516.047-.609-.07-.328-.07-.352c0-.047-.07-.117-.117-.117-.047-.023-.211-.211-.328-.211s-.188-.141-.164-.234c.047-.094-.117-.258-.164-.258-.07 0-.164-.164-.211-.258s-.141-.094-.117-.047 0 .141.047.164c.07.023.117.234.07.281-.047.023-.188-.094-.305-.141-.141-.07-.07-.328-.07-.398s-.188-.141-.281-.141c-.07 0-.164.023-.164-.164 0-.164-.258-.258-.328-.258-.094 0-.516-.164-.656-.164s-.375-.117-.445-.07-.234-.094-.305-.094-.07.047-.234.141zm11.203 6.703c.117-.023.211.188.047.211h-.023c-.117 0-.141-.211-.023-.234zm1.782-.141c.117-.023.211.164.047.211h-.023c-.117 0-.141-.211-.023-.234zm-.774.164c-.07-.047-.117-.094-.234-.094-.07 0-.234-.023-.234-.023s.234-.211.328-.211c.094-.023.211-.047.305-.023.117.023.281.094.281.281-.023.164-.094.023-.141.023-.023 0-.141.07-.234.07h-.047zm-2.062-.773s.328-.094.398-.094.281 0 .398.094.305.211.398.188.258.141.234.188-.234.047-.305-.023c-.07-.047-.305-.164-.375-.234-.047-.07-.352-.047-.492-.047h-.164c-.07 0-.141-.023-.117-.094zm1.007-.375c.117-.023.211.117.047.141h-.023c-.117 0-.141-.117-.023-.141zm-.375-5.86c.117-.047.164.07.094.117h-.047c-.094 0-.164-.07-.047-.117zm-.515-.093c.094-.094.234 0 .188.047 0 .023-.023.023-.07.023-.07 0-.164-.047-.141-.07zm-2.578-1.711c.07-.023.305-.047.352 0 .07.047.117.234.07.258-.047 0-.023.07-.188.164-.164.07-.211-.164-.234-.211 0-.023-.07-.023-.141 0-.047 0-.094.023-.141.023-.094 0-.141-.141-.07-.188.047-.047.141-.023.211-.023h.141zm.656.094c-.023-.07.258-.188.328-.211s.141.047.234.07c.094 0 .07.141 0 .164-.07 0-.258.023-.375.047h-.047c-.094 0-.141-.047-.141-.047zm-.024-.375c.047-.117.281-.07.305.047.023.047-.047.07-.094.07-.094 0-.234-.047-.211-.094zm-.539-.211c.164-.023.234.07.234.117s-.117.188-.234.164h-.07c-.047 0-.047 0-.094-.07-.047-.094-.328-.047-.375-.047s-.094.164-.164.188-.117-.07-.07-.07c.023-.023-.047-.211.023-.258.047-.047.281-.047.469-.023h.281zm-3.468-.071c.047 0 .398-.117.586-.141s.258.07.281.117.445.07.445.07.211.117.234.141c.047.023.141 0 .188-.047s.07-.117.211-.141.141.117.234.141c.07.023.117 0 .188-.047.094-.047.141.047.141.047s-.047.164-.047.234c0 .047-.094.07-.117.117s-.305 0-.422-.023c-.094-.023-.328-.023-.398 0s-.258.023-.328 0-.07-.141-.141-.188c-.047-.047-.188.07-.258.094s-.188-.117-.164-.188c0-.07-.258-.023-.305 0s-.234.023-.352.023-.211 0-.188-.047c.023-.07.117-.07.188-.07s-.047-.117 0-.117zm4.922.399s-.258-.07-.305-.164c-.07-.094-.305-.094-.422-.141s-.281-.117-.375-.164-.047-.188-.047-.164.188.07.305.094c.234.047.211.047.305.07s.281.164.375.211c.07.047.164.117.258.117h1.102c.07 0 .422.07.398.094s-.047.094-.211.094-.469-.023-.68-.047-.398.023-.398.023l-.281-.023zm-3.61-.586c.164-.047.305-.164.422-.164s.047.188.047.234c.023.047-.117.07-.188.047-.047-.047-.234.023-.305.023s-.094-.094 0-.141zm1.195-.117c.023-.117.141-.094.258-.117.117 0 .281 0 .422.047.164.047.141.047.211.117s.094.188.023.188-.117-.023-.258-.047c-.117-.023-.094-.047-.117-.094s-.258 0-.352 0-.188-.047-.188-.117zM3.234 3.961c.188.023.469.023.516.023s.328.094.492.047.258.023.305.047.07.023.141.094.141.023.234-.047c.094-.047.07-.117.07-.117l.094-.023c.07-.023.141.023.352.047.234.023.164-.047.328-.094a.474.474 0 01.258.023c.047.023.094.047.117.023.047-.023.117-.117.164-.07s.117.164.117.164.164-.141.211-.141.211.047.305.047c.094-.023.445-.023.539.047.07.07.281.047.398.117s.211-.047.164-.07-.188-.141-.188-.141-.211-.234-.234-.281-.07-.047-.117.07-.258.117-.492.117-.07-.117-.328-.117c-.258-.023-.164-.117-.07-.117.07 0 .141-.164.164-.258s.117-.07.305-.07h.422c.094.023.141 0 .188-.023s.094-.047.188-.023c.188.023.094.047.188.117.117.07.164.047.328.117.141.07.094.07.164.07.07.023.281-.023.422-.047s.234-.023.305.047.047.164.141.234-.047-.234-.047-.352.188-.023.305-.023.258-.047.281.023c.023.047-.188.141-.07.258s.211.164.305.164.352.023.234.164-.398.141-.492.141-.258.047-.211.141c.047.07.258.047.398.047s.609.047.727 0 .094-.188-.047-.234-.023-.117.117-.094c.07.023.117 0 .164 0s.094-.023.07 0c-.023.047.023.141.023.234 0 .117.047.164.141.141s.117-.047.211-.047c.094-.023.047-.234-.023-.352-.047-.117-.094-.188-.07-.258 0-.07.164-.07.234-.023.07.07.188.211.188.211s.164.094.211.211.07.07.188.023c.117-.07.141-.047.234.023s.023.211.023.234c0 .047.117 0 .141-.07 0-.094.141-.094.188-.117.07-.023.07-.188.07-.188s-.164-.047-.352-.023c-.164.023-.234-.023-.375-.117s-.047-.164-.117-.258.211-.141.398-.234c.164-.07.328-.023.305.164-.023.211-.047.164.141.141.164-.047-.047-.211.07-.234a2.67 2.67 0 01.398-.047c.094.023.516-.047.633-.047s.281.094.398.164c.141.07.469.164.539.211.094.047.633.117.703.141.047.023.047.188.117.328.047.141.188.047.258.047.047 0 .234.094.281.164s.445.117.445.117-.117.117-.141.164c-.047.047-.164.07-.211.117-.094.047-.164-.023-.281-.07-.094-.07-.281-.117-.328-.094s0 .07.023.117c.047.047.211.094.328.188.141.07.094.164.117.258 0 .117-.094-.047-.234-.07s-.141.117-.141.117-.164-.023-.234-.023c-.094 0 0 0-.164-.117-.07-.07-.117-.023-.141 0s-.023.047-.07.023c-.094-.047-.164-.141-.188-.117s-.07-.023-.117-.047-.094-.07-.141-.047h-.211c-.117 0-.234-.023-.281 0-.07.023-.141.023-.211.047-.094.023-.094-.188-.07-.258.047-.07.141-.07.328-.047.164.047.188 0 .234-.07s.07-.141.258-.188 0-.094-.07-.117c-.047-.023-.117-.07-.164 0s-.141.164-.141.164-.094 0-.258-.023-.047-.07.023-.094c.047-.023.141-.188.07-.234s-.094-.07-.211-.047-.047-.094-.117-.141c-.094-.047-.047.023-.047.07s-.117.047-.117.047-.188-.023-.258 0-.188.07-.141.117.164.047.211.164-.164.141-.211.164c-.047 0-.188.07-.188.07s-.164-.047-.305-.047-.164.023-.141.07.094.023.141.023.047.07.141.047c.117-.023.094-.07.211.047s.211.094.398.188-.023.211-.117.211-.094-.07-.141-.164c-.07-.07-.281.023-.281.023s-.188.094-.281.094-.164-.023-.047-.117-.141-.094-.141-.234-.047.141-.047.211c0 .047-.047.047-.117.023h-.211c-.234.023-.188.117-.492.305-.281.188-.352.234-.328.398s.094.117.211.164c.117.023.07.234.188.211.094-.023.164-.07.352.023s.281.117.516.164.375.117.492.07c.141-.023.188 0 .188.117 0 .094.094.117.07.234 0 .117.141-.117.141-.117s.07.211.023.234c-.07.023.023.141.07.141h.07c.047 0 .117.023.164-.023.07-.07-.047-.258-.047-.352 0-.07-.07-.117-.117-.211-.047-.07.094-.094.164-.023.047.07.141.023.234-.047s.094-.188.094-.188-.164-.211-.281-.258-.047-.07.07-.094 0-.07.023-.211c.047-.141.047-.234.117-.234.047 0 .305-.047.492-.023s.305.164.422.164c.141 0 .352.047.398.117s-.164.07-.047.188c.094.117.094.094.188.141s.211.023.328-.141c.094-.164.164-.164.211-.117.047.023.305.328.375.398s.188.211.211.281.188.07.258.07c.047 0 .258.141.281.234 0 .094.047.117.234.141.188.047 0 .188-.023.281-.047.07-.047.117-.117.211-.023.047-.023.047 0 .047s.047-.023.07 0c.07.047.094.094.188.07s.141 0 .188.094c.047.07.117.141.141.211s0 .164-.07.117c-.07-.07-.234-.023-.234-.023s-.094.07-.117.047c-.023-.047-.07-.094-.188-.07a.204.204 0 01-.164 0h-.117c-.094.023-.141-.047-.07-.117.07-.047.07-.258.211-.328s.094-.211 0-.211-.141.117-.188.141c-.07.023-.141.023-.258.094-.094.07-.352.047-.234.07.094.023-.164.141-.211.141-.094 0-.07-.164-.07-.234s-.117.047-.117.047-.211-.117-.281-.047-.188.117-.305.211c-.094.07-.328.211-.328.211s.094-.047.234-.07c.164-.047.141-.023.281-.094s.258-.094.375.023c.094.117-.023.188-.023.188s.047.094.117.117c.047.023.047-.023.141-.07s.047.117.07.164c.047.047.117.047.188 0 .07-.07.094-.117.141-.07s.07.141.117.234-.258.117-.328.141c-.07 0-.305.07-.352.07-.047.023-.164.141-.281.141s-.094-.164-.117-.258c0-.094-.117.023-.141.047-.023.047-.141.023-.234.047-.094 0-.258.094-.258.211s.094.164.07.211-.258.094-.352.07-.234.047-.188.094.047.141-.07.117c-.094 0-.094.094-.07.164.047.07-.117.211-.141.141-.047-.047-.117-.07-.117 0s.023.141.117.258c.07.117-.164.164-.281.258-.094.07-.398.352-.539.398s-.141.234-.07.305c.094.07.141.352.188.445s-.023.352-.141.352c-.117-.023-.07-.164-.188-.211s-.188-.281-.211-.445c-.047-.164-.07-.07-.141-.023-.094.047-.164-.117-.188-.141s-.117 0-.211 0c-.07 0-.164.023-.234.023-.164-.023-.211.07-.211.094 0 .047-.023.164-.188.07-.141-.07-.164-.07-.328-.07-.141 0-.281 0-.305.047s-.164.164-.258.188-.281.164-.188.188c.07.023.07.211.023.328s-.047.305-.023.492.188.305.328.422.211.164.352.047.211-.047.234-.023c.047.023.141-.07.117-.188-.047-.117.047-.234.188-.211.047 0 .117 0 .188-.023.07 0 .141-.023.188-.023.117 0 .141.258 0 .375-.164.117-.07.281-.094.398s-.141.141 0 .141.094.023.188.047.164-.07.281-.094c.094 0 .328.211.281.305a.983.983 0 00-.07.469c.047.164.07.164.117.234.023.047.141.164.258.117s.234-.094.281-.141.305.094.281.141c-.023.023.094.07.164.023.094-.023.117-.094.188-.211a.672.672 0 01.281-.211c.047 0 .211-.164.328-.141.094.023-.047.164-.047.234 0 .094 0 .305.047.328.07 0 .047-.164.117-.281.07-.141.211-.188.281-.188s.117.258.211.211c.094-.07.281-.047.328.023.023.07.07.117.07.117s.07-.047.07-.117c0-.094.211-.141.352-.07s.094.094.164.117c.07 0 .141-.164.164-.188.047-.023 0 .211-.094.328-.117.094.07.07.094.117.023.023.047.023.094 0 .047 0 .117 0 .141.023.047.047.164.094.234.258.094.117.211.094.375.07s.375.07.539.258c.164.164.117.305.234.305s.141.141.141.188-.234.164-.352.188c-.141 0-.141.141.07.117.211-.047.117-.117.258-.141.141-.047.258.047.164.211-.141.164-.375.164-.164.188s.094-.047.211-.188c.117-.164.117-.117.188-.117.094 0 .258.047.328.094s.234.141.352.188c.117.07.258.047.328.023s.328.07.398.188c.07.094.258.117.375.164.094.047.234.188.234.328.023.141-.141.422-.141.492-.023.047-.234.305-.422.469s-.07.352-.07.422c.023.07-.141.375-.094.445s-.047.211-.141.328c-.094.094-.141.258-.188.352-.07.094-.234.07-.398.117-.164.023-.234.07-.234.07s-.305.117-.445.234c-.164.117.047.305-.023.445s-.164.141-.234.305c-.047.117-.094.094-.117.07-.023 0-.047-.023-.07 0-.07.047-.117.141-.117.258-.023.094-.141.211-.328.375-.164.164-.281.141-.469.07-.188-.047-.164-.516-.188-.445s-.023.305.023.352c.023.047.117.211.164.234.07.047.047.117 0 .164-.047.07-.211.305-.258.328s-.469.07-.563.023c-.07-.047-.117.094-.117.188.023.094.094.164-.07.141s-.352-.117-.352-.047.047.211.117.211.164-.047.117.047-.141.164-.211.211c-.047.047-.117.164-.258.258s-.141.141-.117.188.234.023.281.047-.047.211-.094.258-.281.234-.375.281-.094.211-.047.328c4.453-1.406 7.781-5.344 8.273-10.125-.117-.094-.047-.211-.07-.328-.023-.141-.164-.188-.094-.211s.047-.094.234-.281c0-.141.023-.281.023-.422v-.094c-.047-.094-.117-.258-.023-.422a11.765 11.765 0 00-2.766-7.125 5.65 5.65 0 01-.398.047c-.094 0-.234.211-.258.258s-.328 0-.422 0-.188.117-.375.141c-.164.023-.094.141-.07.234 0 .094-.047.141-.141.117-.117-.023-.094.047-.117.117s.023.188-.094.281c-.094.07-.141.117-.258.094-.117 0-.117-.211-.141-.188-.047 0-.234.141-.281.07s-.281-.234-.375-.258c-.094-.047-.164-.188-.188-.258-.047-.07.117-.07.07-.07-.047-.023-.211-.047-.258-.094s-.141-.258-.164-.328c0-.07.141-.164.141-.211 0-.023-.141-.023-.188-.023s-.117-.141-.047-.281.211-.094.211-.094h.117c.07 0 .047.164.023.234s.047.07.094.094.07-.07.07-.117c0-.07-.117-.211-.188-.281-.047-.07-.234-.094-.258-.047s-.164.234-.211.188-.047-.445-.117-.563-.328-.141-.445-.211c-.094-.047-.492-.117-.563-.117-.023 0-.094 0-.141.023a.482.482 0 01-.258 0c-.094-.023-.094-.211-.094-.211s-.07.188-.094.234c-.047.047-.141.07-.188.047s-.164-.234-.281-.258h-.117c-.047 0-.094 0-.164-.047-.141-.117.258-.094.281-.094s.328-.07.352-.141c0-.094.094-.188.234-.141.141.023.211-.094.188-.211s.258-.234.305-.164c.047.047.281 0 .211-.117s.281-.211.609-.234.422.023.492.07.281.047.398-.023A11.889 11.889 0 0011.992.304c-3.469 0-6.586 1.5-8.766 3.867z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span data-testid="languageSelectorStatus" class="LanguageSelector--LanguageSelectorStatus--2KFS4"&gt;US&lt;/span&gt;&lt;span class="LanguageSelector--unitDisplay--mr3Rx"&gt;°F&lt;/span&gt;&lt;svg set="ui" name="triangle-up" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--arrowIcon--3LCpZ" theme="light" data-testid="Icon" viewBox="0 0 24 24" style="width: 17px;"&gt;&lt;title&gt;Arrow Up&lt;/title&gt;&lt;path d="M0.235 18.833h23.53l-11.75-13.666-11.779 13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1 styles--button--2XwVN" type="button"&gt;&lt;span class="styles--fullText--jVRPZ"&gt;More Forecasts&lt;/span&gt;&lt;span class="styles--shortText--26NVU"&gt;More&lt;/span&gt;&lt;svg set="ui" name="triangle-down" class="Icon--icon--2aW0V styles--buttonIcon--DmHjz" theme="" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Arrow down&lt;/title&gt;&lt;path d="M23.765 5.167h-23.53l11.75 13.666 11.779-13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1 styles--button--2XwVN" type="button"&gt;&lt;span class="styles--fullText--jVRPZ"&gt;More Forecasts&lt;/span&gt;&lt;span class="styles--shortText--26NVU"&gt;More&lt;/span&gt;&lt;svg set="ui" name="triangle-up" class="Icon--icon--2aW0V styles--buttonIcon--DmHjz" theme="" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Arrow Up&lt;/title&gt;&lt;path d="M0.235 18.833h23.53l-11.75-13.666-11.779 13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Failed - unknown error</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>stale</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://openai.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel2" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;ChatGPT&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel2" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;ChatGPT&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel4" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;Company&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel4" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;Company&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://login.live.com/login.srf?wa=wsignin1.0&amp;rpsnv=18&amp;id=264960&amp;wreply=https%3a%2f%2fwww.bing.com%2fsecure%2fPassport.aspx%3fedge_suppress_profile_switch%3d1%26requrl%3dhttps%253a%252f%252fwww.bing.com%252f%253fwlexpsignin%253d1%26sig%3d2FCE2A13D4FB60811A5039F1D5996197%26nopa%3d2&amp;wp=MBI_SSL&amp;lc=1033&amp;CSRFToken=0701ac40-36ee-4864-a8a7-94439276d8eb&amp;cobrandid=c333cba8-c15c-4458-b082-7c8ce81bee85&amp;aadredir=1&amp;nopa=2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>&lt;a class="id_button toolTip" id="id_rh" aria-label="Microsoft Rewards " role="button" aria-expanded="false" aria-haspopup="true" aria-controls="bepfo" href="javascript:void(0)" h="ID=SERP,5021.1"&gt;&lt;span id="id_rc" class="hp"&gt;Rewards&lt;/span&gt;&lt;span id="rewards_header_icon hp" class="rwds_svg hp pc"&gt;&lt;span class="rhlined hp" data-bm="41"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" viewBox="0 0 32 32" enable-background="new 0 0 32 32"&gt;&lt;path class="medal" d="M23 9h-14c-.552 0-1 .448-1 1v3.71c0 .538.288 1.034.756 1.303l4.877 2.778c-1.206.891-1.905 2.43-1.532 4.115.323 1.461 1.501 2.655 2.96 2.987 2.617.596 4.939-1.378 4.939-3.893 0-1.32-.647-2.481-1.633-3.209l4.877-2.779-.002.001c.471-.268.758-.767.758-1.303v-3.71c0-.552-.448-1-1-1zm-12 4.991l-1-.571v-2.42h1v2.991zm5 9.009c-1.103 0-2-.897-2-2s.897-2 2-2 2 .897 2 2-.897 2-2 2zm3-7.866l-2.472 1.537c-.323.201-.733.201-1.056 0l-2.472-1.537v-4.134h6v4.134zm3-1.714l-1 .571v-2.991h1v2.42z"&gt;&lt;/path&gt;&lt;path d="M.018 0h32v32h-32v-32z" fill="none"&gt;&lt;/path&gt;&lt;circle class="meter" stroke="#000" stroke-width="2" stroke-miterlimit="10" cx="16" cy="16" r="14" fill="none"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;span class="rhfill hp"&gt;&lt;svg style="" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 32 32" enable-background="new 0 0 32 32"&gt;&lt;path class="medal" d="M12 16.006l2.554 1.28c-1.492.581-2.554 2.023-2.554 3.72 0 2.209 1.791 4 4 4s4-1.791 4-4c0-1.696-1.06-3.138-2.551-3.719l2.551-1.281v-7h-8v7zm-4-6.5v4.183c0 .189.106.362.275.447l1.725.87v-6h-1.5c-.276 0-.5.224-.5.5zm15.5-.5h-1.5v6l1.725-.87c.169-.085.275-.258.275-.447v-4.183c0-.276-.224-.5-.5-.5z"&gt;&lt;/path&gt;&lt;path d="M.018 0h32v32h-32v-32z" fill="none"&gt;&lt;/path&gt;&lt;circle class="meter" stroke="#000" stroke-width="2" stroke-miterlimit="10" cx="16" cy="16" r="14" fill="none"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" id="rh_meter"&gt;&lt;circle cx="20" cy="20" r="14" id="rh_animcrcl" class="hp" stroke-dasharray="88, 88" transform="rotate(-90,20,20)"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>&lt;a class="id_button toolTip openfo" id="id_rh" aria-label="Microsoft Rewards " role="button" aria-expanded="false" aria-haspopup="true" aria-controls="bepfo" href="javascript:void(0)" h="ID=SERP,5021.1"&gt;&lt;span id="id_rc" class="hp"&gt;Rewards&lt;/span&gt;&lt;span id="rewards_header_icon hp" class="rwds_svg hp pc"&gt;&lt;span class="rhlined hp" data-bm="41"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" viewBox="0 0 32 32" enable-background="new 0 0 32 32"&gt;&lt;path class="medal" d="M23 9h-14c-.552 0-1 .448-1 1v3.71c0 .538.288 1.034.756 1.303l4.877 2.778c-1.206.891-1.905 2.43-1.532 4.115.323 1.461 1.501 2.655 2.96 2.987 2.617.596 4.939-1.378 4.939-3.893 0-1.32-.647-2.481-1.633-3.209l4.877-2.779-.002.001c.471-.268.758-.767.758-1.303v-3.71c0-.552-.448-1-1-1zm-12 4.991l-1-.571v-2.42h1v2.991zm5 9.009c-1.103 0-2-.897-2-2s.897-2 2-2 2 .897 2 2-.897 2-2 2zm3-7.866l-2.472 1.537c-.323.201-.733.201-1.056 0l-2.472-1.537v-4.134h6v4.134zm3-1.714l-1 .571v-2.991h1v2.42z"&gt;&lt;/path&gt;&lt;path d="M.018 0h32v32h-32v-32z" fill="none"&gt;&lt;/path&gt;&lt;circle class="meter" stroke="#000" stroke-width="2" stroke-miterlimit="10" cx="16" cy="16" r="14" fill="none"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;span class="rhfill hp"&gt;&lt;svg style="" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 32 32" enable-background="new 0 0 32 32"&gt;&lt;path class="medal" d="M12 16.006l2.554 1.28c-1.492.581-2.554 2.023-2.554 3.72 0 2.209 1.791 4 4 4s4-1.791 4-4c0-1.696-1.06-3.138-2.551-3.719l2.551-1.281v-7h-8v7zm-4-6.5v4.183c0 .189.106.362.275.447l1.725.87v-6h-1.5c-.276 0-.5.224-.5.5zm15.5-.5h-1.5v6l1.725-.87c.169-.085.275-.258.275-.447v-4.183c0-.276-.224-.5-.5-.5z"&gt;&lt;/path&gt;&lt;path d="M.018 0h32v32h-32v-32z" fill="none"&gt;&lt;/path&gt;&lt;circle class="meter" stroke="#000" stroke-width="2" stroke-miterlimit="10" cx="16" cy="16" r="14" fill="none"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" id="rh_meter"&gt;&lt;circle cx="20" cy="20" r="14" id="rh_animcrcl" class="hp" stroke-dasharray="88, 88" transform="rotate(-90,20,20)"&gt;&lt;/circle&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>&lt;a id="id_sc" class="idp_ham hphbtop" aria-label="Settings and quick links" aria-expanded="false" aria-controls="id_hbfo" aria-haspopup="true" role="button" tabindex="0" href="javascript:void(0);" h="ID=SERP,5030.1"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>&lt;a id="id_sc" class="idp_ham hphbtop openfo" aria-label="Settings and quick links" aria-expanded="true" aria-controls="id_hbfo" aria-haspopup="true" role="button" tabindex="0" href="javascript:void(0);" h="ID=SERP,5030.1"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>&lt;li class="scope dots" id="dots_overflow_menu_container" tabindex="0" role="menuitem" aria-haspopup="true" aria-expanded="false" aria-label="More"&gt;&lt;ul class="overflow_menu" role="menu"&gt;&lt;li class="overflow_item try_exp" id="video" role="menuitem" aria-haspopup="false" aria-label="Videos"&gt;&lt;a href="/videos?FORM=Z9LH1" data-h="ID=HpApp,7808.1" class="" target="" rel="noopener"&gt;Videos&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="shopping" role="menuitem" aria-haspopup="false" aria-label="Shopping"&gt;&lt;a href="/shop?FORM=Z9LHS4" data-h="ID=HpApp,12468.1" class="" target="" rel="noopener"&gt;Shopping&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="translate" role="menuitem" aria-haspopup="false" aria-label="Translate"&gt;&lt;a href="/search?q=Bing+translate&amp;amp;FORM=TTAHP1" data-h="ID=HpApp,14108.1" class="" target="" rel="noopener"&gt;Translate&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="local" role="menuitem" aria-haspopup="false" aria-label="Maps"&gt;&lt;a href="/maps?FORM=Z9LH2" data-h="ID=HpApp,7692.1" class="" target="" rel="noopener"&gt;Maps&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="news" role="menuitem" aria-haspopup="false" aria-label="News"&gt;&lt;a href="/news/search?q=Top+stories&amp;amp;nvaug=%5bNewsVertical+Category%3d%22rt_MaxClass%22%5d&amp;amp;FORM=Z9LH3" data-h="ID=HpApp,6720.1" class="" target="" rel="noopener"&gt;News&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="travel" role="menuitem" aria-haspopup="false" aria-label="Travel"&gt;&lt;a href="/travel?FORM=TGHPNT" data-h="ID=HpApp,9314.1" class="" target="" rel="noopener"&gt;Travel&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item divider" id="msn" role="menuitem" aria-haspopup="false" aria-label="MSN"&gt;&lt;a href="//www.msn.com/?ocid=BHEA000" data-h="ID=HpApp,5483.1" class="" target="_blank" rel="noopener"&gt;MSN&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="esports" role="menuitem" aria-haspopup="false" aria-label="Start.gg"&gt;&lt;a href="//www.start.gg/discover?ocid=ESPHUB_BNG_10" data-h="ID=HpApp,11146.1" class="" target="_blank" rel="noopener"&gt;Start.gg&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="marketplace" role="menuitem" aria-haspopup="false" aria-label="TakeLessons"&gt;&lt;a href="//www.takelessons.com/?utm_source=bing&amp;amp;utm_medium=hp&amp;amp;utm_campaign=binghp-live&amp;amp;utm_content=binghplink" data-h="ID=HpApp,17499.1" class="" target="_blank" rel="noopener"&gt;TakeLessons&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="health" role="menuitem" aria-haspopup="false" aria-label="Health"&gt;&lt;a href="//www.msn.com/health?ocid=binghphea" data-h="ID=HpApp,9119.1" class="" target="_blank" rel="noopener"&gt;Health&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="games" role="menuitem" aria-haspopup="false" aria-label="Online Games"&gt;&lt;a href="https://www.msn.com/play?ocid=cgbinghp" data-h="ID=HpApp,7754.1" class="" target="" rel="noopener"&gt;Online Games&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item has_sub" id="office" role="menuitem" aria-haspopup="true" aria-expanded="false" aria-label="Button Microsoft 365 Submenu" tabindex="0"&gt;&lt;a data-h="ID=HpApp,8958.1" class=""&gt;Microsoft 365&lt;/a&gt;&lt;span class="scarrow"&gt;&lt;/span&gt;&lt;div class="overflow_container"&gt;&lt;div class="submenu"&gt;&lt;ul class="overflow_menu" role="menu"&gt;&lt;li class="overflow_item" id="outlook" role="menuitem" aria-haspopup="false" aria-label="Outlook"&gt;&lt;a href="//outlook.com/?WT.mc_id=O16_BingHP" data-h="ID=HpApp,11038.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Outlook&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="word" role="menuitem" aria-haspopup="false" aria-label="Word"&gt;&lt;a href="//microsoft365.com/start/Word.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,6667.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Word&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="excel" role="menuitem" aria-haspopup="false" aria-label="Excel"&gt;&lt;a href="//microsoft365.com/start/Excel.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,7761.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Excel&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="powerpoint" role="menuitem" aria-haspopup="false" aria-label="PowerPoint"&gt;&lt;a href="//microsoft365.com/start/PowerPoint.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,16357.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;PowerPoint&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="onenote" role="menuitem" aria-haspopup="false" aria-label="OneNote"&gt;&lt;a href="//www.onenote.com/notebooks?WT.mc_id=O16_BingHP" data-h="ID=HpApp,10828.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;OneNote&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="sway" role="menuitem" aria-haspopup="false" aria-label="Sway"&gt;&lt;a href="//sway.office.com?WT.mc_id=O16_BingHP&amp;amp;utm_source=O16Bing&amp;amp;utm_medium=Nav&amp;amp;utm_campaign=HP" data-h="ID=HpApp,6768.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Sway&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="onedrive" role="menuitem" aria-haspopup="false" aria-label="OneDrive"&gt;&lt;a href="//onedrive.live.com/?gologin=1&amp;amp;WT.mc_id=O16_BingHP" data-h="ID=HpApp,12364.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;OneDrive&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="calendar" role="menuitem" aria-haspopup="false" aria-label="Calendar"&gt;&lt;a href="//calendar.live.com/?WT.mc_id=O16_BingHP" data-h="ID=HpApp,12020.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Calendar&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="people" role="menuitem" aria-haspopup="false" aria-label="People"&gt;&lt;a href="//outlook.live.com/owa/?path=/people&amp;amp;WT.mc_id=O16_BingHP" data-h="ID=HpApp,9232.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;People&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>&lt;li class="scope dots focusin" id="dots_overflow_menu_container" tabindex="0" role="menuitem" aria-haspopup="true" aria-expanded="true" aria-label="More"&gt;&lt;ul class="overflow_menu" role="menu"&gt;&lt;li class="overflow_item try_exp" id="video" role="menuitem" aria-haspopup="false" aria-label="Videos"&gt;&lt;a href="/videos?FORM=Z9LH1" data-h="ID=HpApp,7808.1" class="" target="" rel="noopener"&gt;Videos&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="shopping" role="menuitem" aria-haspopup="false" aria-label="Shopping"&gt;&lt;a href="/shop?FORM=Z9LHS4" data-h="ID=HpApp,12468.1" class="" target="" rel="noopener"&gt;Shopping&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="translate" role="menuitem" aria-haspopup="false" aria-label="Translate"&gt;&lt;a href="/search?q=Bing+translate&amp;amp;FORM=TTAHP1" data-h="ID=HpApp,14108.1" class="" target="" rel="noopener"&gt;Translate&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="local" role="menuitem" aria-haspopup="false" aria-label="Maps"&gt;&lt;a href="/maps?FORM=Z9LH2" data-h="ID=HpApp,7692.1" class="" target="" rel="noopener"&gt;Maps&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item try_exp" id="news" role="menuitem" aria-haspopup="false" aria-label="News"&gt;&lt;a href="/news/search?q=Top+stories&amp;amp;nvaug=%5bNewsVertical+Category%3d%22rt_MaxClass%22%5d&amp;amp;FORM=Z9LH3" data-h="ID=HpApp,6720.1" class="" target="" rel="noopener"&gt;News&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="travel" role="menuitem" aria-haspopup="false" aria-label="Travel"&gt;&lt;a href="/travel?FORM=TGHPNT" data-h="ID=HpApp,9314.1" class="" target="" rel="noopener"&gt;Travel&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item divider" id="msn" role="menuitem" aria-haspopup="false" aria-label="MSN"&gt;&lt;a href="//www.msn.com/?ocid=BHEA000" data-h="ID=HpApp,5483.1" class="" target="_blank" rel="noopener"&gt;MSN&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="esports" role="menuitem" aria-haspopup="false" aria-label="Start.gg"&gt;&lt;a href="//www.start.gg/discover?ocid=ESPHUB_BNG_10" data-h="ID=HpApp,11146.1" class="" target="_blank" rel="noopener"&gt;Start.gg&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="marketplace" role="menuitem" aria-haspopup="false" aria-label="TakeLessons"&gt;&lt;a href="//www.takelessons.com/?utm_source=bing&amp;amp;utm_medium=hp&amp;amp;utm_campaign=binghp-live&amp;amp;utm_content=binghplink" data-h="ID=HpApp,17499.1" class="" target="_blank" rel="noopener"&gt;TakeLessons&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="health" role="menuitem" aria-haspopup="false" aria-label="Health"&gt;&lt;a href="//www.msn.com/health?ocid=binghphea" data-h="ID=HpApp,9119.1" class="" target="_blank" rel="noopener"&gt;Health&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="games" role="menuitem" aria-haspopup="false" aria-label="Online Games"&gt;&lt;a href="https://www.msn.com/play?ocid=cgbinghp" data-h="ID=HpApp,7754.1" class="" target="" rel="noopener"&gt;Online Games&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item has_sub" id="office" role="menuitem" aria-haspopup="true" aria-expanded="false" aria-label="Button Microsoft 365 Submenu" tabindex="0"&gt;&lt;a data-h="ID=HpApp,8958.1" class=""&gt;Microsoft 365&lt;/a&gt;&lt;span class="scarrow"&gt;&lt;/span&gt;&lt;div class="overflow_container"&gt;&lt;div class="submenu"&gt;&lt;ul class="overflow_menu" role="menu"&gt;&lt;li class="overflow_item" id="outlook" role="menuitem" aria-haspopup="false" aria-label="Outlook"&gt;&lt;a href="//outlook.com/?WT.mc_id=O16_BingHP" data-h="ID=HpApp,11038.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Outlook&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="word" role="menuitem" aria-haspopup="false" aria-label="Word"&gt;&lt;a href="//microsoft365.com/start/Word.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,6667.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Word&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="excel" role="menuitem" aria-haspopup="false" aria-label="Excel"&gt;&lt;a href="//microsoft365.com/start/Excel.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,7761.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Excel&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="powerpoint" role="menuitem" aria-haspopup="false" aria-label="PowerPoint"&gt;&lt;a href="//microsoft365.com/start/PowerPoint.aspx?WT.mc_id=O16_BingHP" data-h="ID=HpApp,16357.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;PowerPoint&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="onenote" role="menuitem" aria-haspopup="false" aria-label="OneNote"&gt;&lt;a href="//www.onenote.com/notebooks?WT.mc_id=O16_BingHP" data-h="ID=HpApp,10828.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;OneNote&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="sway" role="menuitem" aria-haspopup="false" aria-label="Sway"&gt;&lt;a href="//sway.office.com?WT.mc_id=O16_BingHP&amp;amp;utm_source=O16Bing&amp;amp;utm_medium=Nav&amp;amp;utm_campaign=HP" data-h="ID=HpApp,6768.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Sway&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="onedrive" role="menuitem" aria-haspopup="false" aria-label="OneDrive"&gt;&lt;a href="//onedrive.live.com/?gologin=1&amp;amp;WT.mc_id=O16_BingHP" data-h="ID=HpApp,12364.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;OneDrive&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="calendar" role="menuitem" aria-haspopup="false" aria-label="Calendar"&gt;&lt;a href="//calendar.live.com/?WT.mc_id=O16_BingHP" data-h="ID=HpApp,12020.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;Calendar&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;li class="overflow_item" id="people" role="menuitem" aria-haspopup="false" aria-label="People"&gt;&lt;a href="//outlook.live.com/owa/?path=/people&amp;amp;WT.mc_id=O16_BingHP" data-h="ID=HpApp,9232.1" class="" target="_blank" rel="noopener"&gt;&lt;div class="icon"&gt;&lt;/div&gt;&lt;div class="text"&gt;People&lt;/div&gt;&lt;/a&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/li&gt;&lt;/ul&gt;&lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>&lt;div id="sb_sbi" tabindex="0" role="button" data-scrtl="1" aria-label="Search using an image" aria-expanded="false" hsevt="1"&gt;&lt;img id="sbi_b" class=" rms_img" role="none" width="24" height="24" src="https://r.bing.com/rp/f21jlSMmEDN43OaavcdaB-7Phq0.svg" data-bm="3"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>&lt;div id="sb_sbi" tabindex="0" role="button" data-scrtl="1" aria-label="Search using an image" aria-expanded="true" hsevt="1"&gt;&lt;img id="sbi_b" class=" rms_img" role="none" width="24" height="24" src="https://r.bing.com/rp/f21jlSMmEDN43OaavcdaB-7Phq0.svg" data-bm="3"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>True - redirect</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/#</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://duckduckgo.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>True - More tags were generated
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>&lt;button class="legacy-homepage_legacyButton__oUMB9 legacy-homepage_hamburgerButton__VsG7q"&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="" width="16" height="16"&gt;&lt;path d="M1 2.75A.75.75 0 011.75 2h12.5a.75.75 0 010 1.5H1.75A.75.75 0 011 2.75zM1 12.75a.75.75 0 01.75-.75h12.5a.75.75 0 010 1.5H1.75a.75.75 0 01-.75-.75zM1.75 7a.75.75 0 000 1.5h12.5a.75.75 0 000-1.5H1.75z" fill="currentColor"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>&lt;button class="legacy-homepage_legacyButton__oUMB9 legacy-homepage_hamburgerButton__VsG7q"&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="" width="16" height="16"&gt;&lt;path d="M1 2.75A.75.75 0 011.75 2h12.5a.75.75 0 010 1.5H1.75A.75.75 0 011 2.75zM1 12.75a.75.75 0 01.75-.75h12.5a.75.75 0 010 1.5H1.75a.75.75 0 01-.75-.75zM1.75 7a.75.75 0 000 1.5h12.5a.75.75 0 000-1.5H1.75z" fill="currentColor"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--1" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--1"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How does DuckDuckGo protect my privacy?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--1" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--1"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How does DuckDuckGo protect my privacy?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--2" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--2"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Does DuckDuckGo block all trackers on websites I visit?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--2" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--2"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Does DuckDuckGo block all trackers on websites I visit?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--3" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--3"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How many people use DuckDuckGo?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--3" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--3"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How many people use DuckDuckGo?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--4" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--4"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How does DuckDuckGo make money?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--4" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--4"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How does DuckDuckGo make money?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--5" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--5"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Why use DuckDuckGo instead of Google?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--5" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--5"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Why use DuckDuckGo instead of Google?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--6" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--6"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Is Incognito mode private?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--6" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--6"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Is Incognito mode private?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--7" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--7"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How do DuckDuckGo Search results compare to Google's?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--7" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--7"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;How do DuckDuckGo Search results compare to Google's?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--8" aria-expanded="false" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="collapsed" id="button--1--8"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Is DuckDuckGo owned by Google or any other entity?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="panel--1--8" aria-expanded="true" class="accordion_accordionTrigger__WmvuX" data-reach-accordion-button="" data-state="open" id="button--1--8"&gt;&lt;span class="heading_heading5__s_WB9 heading_heading__IiMSV heading_responsive__oZpJJ"&gt;Is DuckDuckGo owned by Google or any other entity?&lt;/span&gt;&lt;svg viewBox="0 0 16 16" fill="none" xmlns="http://www.w3.org/2000/svg" class="accordion_accordionTriggerIcon__P9sgZ" aria-hidden="true"&gt;&lt;path d="M13.5 5.5L8 11 2.5 5.5" stroke="currentColor" stroke-width="1.5" stroke-linecap="round" stroke-linejoin="round"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>&lt;button id="desktop-sections-button" data-testid="desktop-section-button" aria-haspopup="dialog" aria-expanded="false" aria-controls="mainList" class="css-123u7tk ea180rp2"&gt;&lt;span class="css-1dv1kvn"&gt;Section Navigation&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;rect x="1" y="3" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="7" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="11" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>&lt;button id="desktop-sections-button" data-testid="desktop-section-button" aria-haspopup="dialog" aria-expanded="true" aria-controls="mainList" class="css-123u7tk ea180rp2"&gt;&lt;span class="css-1dv1kvn"&gt;Section Navigation&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;rect x="1" y="3" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="7" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="11" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>&lt;button aria-expanded="false" aria-controls="search-input" class="css-tkwi90 e1iflr850" data-testid="search-button"&gt;&lt;span class="css-1dv1kvn"&gt;SEARCH&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;path fill="#333" d="M11.3,9.2C11.7,8.4,12,7.5,12,6.5C12,3.5,9.5,1,6.5,1S1,3.5,1,6.5S3.5,12,6.5,12c1,0,1.9-0.3,2.7-0.7l3.3,3.3c0.3,0.3,0.7,0.4,1.1,0.4s0.8-0.1,1.1-0.4c0.6-0.6,0.6-1.5,0-2.1L11.3,9.2zM6.5,10.3c-2.1,0-3.8-1.7-3.8-3.8c0-2.1,1.7-3.8,3.8-3.8c2.1,0,3.8,1.7,3.8,3.8C10.3,8.6,8.6,10.3,6.5,10.3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>&lt;button aria-expanded="true" aria-controls="search-input" class="activeSearchButton css-tkwi90 e1iflr850" data-testid="search-button"&gt;&lt;span class="css-1dv1kvn"&gt;SEARCH&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;path fill="#333" d="M11.3,9.2C11.7,8.4,12,7.5,12,6.5C12,3.5,9.5,1,6.5,1S1,3.5,1,6.5S3.5,12,6.5,12c1,0,1.9-0.3,2.7-0.7l3.3,3.3c0.3,0.3,0.7,0.4,1.1,0.4s0.8-0.1,1.1-0.4c0.6-0.6,0.6-1.5,0-2.1L11.3,9.2zM6.5,10.3c-2.1,0-3.8-1.7-3.8-3.8c0-2.1,1.7-3.8,3.8-3.8c2.1,0,3.8,1.7,3.8,3.8C10.3,8.6,8.6,10.3,6.5,10.3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Pause (space/k)" aria-haspopup="menu" data-a-target="player-play-pause-button" data-a-player-state="playing"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M8 3H4v14h4V3zM16 3h-4v14h4V3z"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Play (space/k)" aria-haspopup="menu" data-a-target="player-play-pause-button" data-a-player-state="paused"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M5 17.066V2.934a.5.5 0 01.777-.416L17 10 5.777 17.482A.5.5 0 015 17.066z"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Fullscreen (f)" aria-haspopup="menu" data-a-target="player-fullscreen-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path d="M7 3H2v5h2V5h3V3zm11 5V3h-5v2h3v3h2zm-5 9v-2h3v-3h2v5h-5zm-9-5H2v5h5v-2H4v-3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Exit Fullscreen (f)" aria-haspopup="menu" data-a-target="player-fullscreen-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path d="M8 8V3H6v3H2v2h6zm4 0h6V6h-4V3h-2v5zm0 9v-5h6v2h-4v3h-2zm-4-5H2v2h4v3h2v-5z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Mute (m)" aria-haspopup="menu" data-a-target="player-mute-unmute-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M5 7l4.146-4.146a.5.5 0 01.854.353v13.586a.5.5 0 01-.854.353L5 13H4a2 2 0 01-2-2V9a2 2 0 012-2h1zM14 10a2 2 0 00-2-2v4a2 2 0 002-2z"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Unmute (m)" aria-haspopup="menu" data-a-target="player-mute-unmute-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;path d="M5 7l4.146-4.146a.5.5 0 01.854.353v13.586a.5.5 0 01-.854.353L5 13H4a2 2 0 01-2-2V9a2 2 0 012-2h1zM12 8.414L13.414 7l1.623 1.623L16.66 7l1.414 1.414-1.623 1.623 1.623 1.623-1.414 1.414-1.623-1.623-1.623 1.623L12 11.66l1.623-1.623L12 8.414z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>True - More tags were generated
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Settings" aria-haspopup="menu" data-a-target="player-settings-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M10 8a2 2 0 100 4 2 2 0 000-4z"&gt;&lt;/path&gt;&lt;path fill-rule="evenodd" d="M9 2h2a2.01 2.01 0 001.235 1.855l.53.22a2.01 2.01 0 002.185-.439l1.414 1.414a2.01 2.01 0 00-.439 2.185l.22.53A2.01 2.01 0 0018 9v2a2.01 2.01 0 00-1.855 1.235l-.22.53a2.01 2.01 0 00.44 2.185l-1.415 1.414a2.01 2.01 0 00-2.184-.439l-.531.22A2.01 2.01 0 0011 18H9a2.01 2.01 0 00-1.235-1.854l-.53-.22a2.009 2.009 0 00-2.185.438L3.636 14.95a2.009 2.009 0 00.438-2.184l-.22-.531A2.01 2.01 0 002 11V9c.809 0 1.545-.487 1.854-1.235l.22-.53a2.009 2.009 0 00-.438-2.185L5.05 3.636a2.01 2.01 0 002.185.438l.53-.22A2.01 2.01 0 009 2zm-4 8l1.464 3.536L10 15l3.535-1.464L15 10l-1.465-3.536L10 5 6.464 6.464 5 10z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Settings" aria-haspopup="menu" data-a-target="player-settings-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M10 8a2 2 0 100 4 2 2 0 000-4z"&gt;&lt;/path&gt;&lt;path fill-rule="evenodd" d="M9 2h2a2.01 2.01 0 001.235 1.855l.53.22a2.01 2.01 0 002.185-.439l1.414 1.414a2.01 2.01 0 00-.439 2.185l.22.53A2.01 2.01 0 0018 9v2a2.01 2.01 0 00-1.855 1.235l-.22.53a2.01 2.01 0 00.44 2.185l-1.415 1.414a2.01 2.01 0 00-2.184-.439l-.531.22A2.01 2.01 0 0011 18H9a2.01 2.01 0 00-1.235-1.854l-.53-.22a2.009 2.009 0 00-2.185.438L3.636 14.95a2.009 2.009 0 00.438-2.184l-.22-.531A2.01 2.01 0 002 11V9c.809 0 1.545-.487 1.854-1.235l.22-.53a2.009 2.009 0 00-.438-2.185L5.05 3.636a2.01 2.01 0 002.185.438l.53-.22A2.01 2.01 0 009 2zm-4 8l1.464 3.536L10 15l3.535-1.464L15 10l-1.465-3.536L10 5 6.464 6.464 5 10z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>False - outerHTML didn't change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>&lt;label id="imdbHeader-navDrawerOpen" class="ipc-responsive-button ipc-btn--theme-baseAlt ipc-responsive-button--transition-l ipc-btn--on-textPrimary ipc-responsive-button--single-padding sc-efHYhv bvMXrs hamburger__icon" role="button" tabindex="0" aria-label="Open Navigation Drawer" aria-disabled="false" for="imdbHeader-navDrawer"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--menu ipc-responsive-button__icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M4 18h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zm0-5h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zM3 7c0 .55.45 1 1 1h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="ipc-responsive-button__text"&gt;Menu&lt;/span&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>&lt;label id="imdbHeader-navDrawerOpen" class="ipc-responsive-button ipc-btn--theme-baseAlt ipc-responsive-button--transition-l ipc-btn--on-textPrimary ipc-responsive-button--single-padding sc-efHYhv bvMXrs hamburger__icon" role="button" tabindex="0" aria-label="Open Navigation Drawer" aria-disabled="false" for="imdbHeader-navDrawer"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--menu ipc-responsive-button__icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M4 18h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zm0-5h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zM3 7c0 .55.45 1 1 1h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="ipc-responsive-button__text"&gt;Menu&lt;/span&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>False - outerHTML didn't change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>&lt;label class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-baseAlt ipc-btn--theme-baseAlt ipc-btn--on-textPrimary ipc-text-button navbar__flyout__text-button-after-mobile" role="button" tabindex="0" aria-label="Toggle language selector" aria-disabled="false" for="nav-language-selector"&gt;&lt;span class="ipc-btn__text"&gt;EN&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--arrow-drop-down ipc-btn__icon ipc-btn__icon--post navbar__flyout__text-button-post-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M8.71 11.71l2.59 2.59c.39.39 1.02.39 1.41 0l2.59-2.59c.63-.63.18-1.71-.71-1.71H9.41c-.89 0-1.33 1.08-.7 1.71z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>&lt;label class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-baseAlt ipc-btn--theme-baseAlt ipc-btn--on-textPrimary ipc-text-button navbar__flyout__text-button-after-mobile" role="button" tabindex="0" aria-label="Toggle language selector" aria-disabled="false" for="nav-language-selector"&gt;&lt;span class="ipc-btn__text"&gt;EN&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--arrow-drop-down ipc-btn__icon ipc-btn__icon--post navbar__flyout__text-button-post-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M8.71 11.71l2.59 2.59c.39.39 1.02.39 1.41 0l2.59-2.59c.63-.63.18-1.71-.71-1.71H9.41c-.89 0-1.33 1.08-.7 1.71z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>&lt;button class="ph-project svelte-wpejtl" data-click-counter="66843940, 61021872" aria-label="Все проекты" aria-expanded="false"&gt;&lt;span class="ph-project__text svelte-wpejtl"&gt;Все проекты&lt;/span&gt; &lt;span class="ph-project__icon svelte-wpejtl"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="20" height="16" fill="currentColor" viewBox="0 0 20 16"&gt;&lt;path fill-rule="evenodd" d="M4.22 5.875a1 1 0 0 1 1.405-.156L10 9.22l4.375-3.5a1 1 0 0 1 1.25 1.562l-5 4a1 1 0 0 1-1.25 0l-5-4a1 1 0 0 1-.156-1.406Z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>&lt;button class="ph-project svelte-wpejtl ph-project_open" data-click-counter="66843940, 61021872" aria-label="Все проекты" aria-expanded="true"&gt;&lt;span class="ph-project__text svelte-wpejtl"&gt;Все проекты&lt;/span&gt; &lt;span class="ph-project__icon svelte-wpejtl"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="20" height="16" fill="currentColor" viewBox="0 0 20 16"&gt;&lt;path fill-rule="evenodd" d="M4.22 5.875a1 1 0 0 1 1.405-.156L10 9.22l4.375-3.5a1 1 0 0 1 1.25 1.562l-5 4a1 1 0 0 1-1.25 0l-5-4a1 1 0 0 1-.156-1.406Z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>True - More tags were generated
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Меню" aria-haspopup="false" aria-expanded="false" class="zen-ui-button-icon _size_m _theme_black _view-role_withoutBgHover floors-v3__kebabBtn-1J"&gt;&lt;span class="zen-ui-button-icon__content"&gt;&lt;span class="zen-ui-button-icon__icon"&gt;&lt;svg class="zen-ui-generic-svg zen-ui-card-block-icon-view _theme_black _view-type_default" width="16" height="16" viewBox="0 0 24 24"&gt;&lt;use x="0" y="0" width="24" height="24" class="zen-ui-generic-svg__use" xlink:href="#dots_vertical_298c--inline"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Меню" aria-haspopup="false" aria-expanded="false" class="zen-ui-button-icon _size_m _theme_black _view-role_withoutBgHover floors-v3__kebabBtn-1J"&gt;&lt;span class="zen-ui-button-icon__content"&gt;&lt;span class="zen-ui-button-icon__icon"&gt;&lt;svg class="zen-ui-generic-svg zen-ui-card-block-icon-view _theme_black _view-type_default" width="16" height="16" viewBox="0 0 24 24"&gt;&lt;use x="0" y="0" width="24" height="24" class="zen-ui-generic-svg__use" xlink:href="#dots_vertical_298c--inline"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://naver.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>&lt;button id="topAsideButton" type="button" class="btn_menu" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;확장 영역&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>&lt;button id="topAsideButton" type="button" class="btn_menu" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;확장 영역&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_talk" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;톡&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_talk" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;톡&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_notify" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;알림&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_notify" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;알림&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>&lt;a id="viewSetting" href="#" role="button" class="SettingView-module__btn_setting___Z_3Uu SettingView-module__type_system___kev9z" aria-haspopup="true" aria-expanded="false" aria-pressed="false"&gt;&lt;span class="blind"&gt;홈 설정&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>&lt;a id="viewSetting" href="#" role="button" class="SettingView-module__btn_setting___Z_3Uu SettingView-module__type_system___kev9z" aria-haspopup="true" aria-expanded="true" aria-pressed="true"&gt;&lt;span class="blind"&gt;홈 설정&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" class="ContentHeaderSubView-module__btn_more___HnWNR" role="button" aria-haspopup="listbox" aria-expanded="false" aria-pressed="false"&gt;전체언론사&lt;i class="ContentHeaderSubView-module__ico_triangle___ObyFF"&gt;&lt;/i&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" class="ContentHeaderSubView-module__btn_more___HnWNR" role="button" aria-haspopup="listbox" aria-expanded="true" aria-pressed="true"&gt;전체언론사&lt;i class="ContentHeaderSubView-module__ico_triangle___ObyFF"&gt;&lt;/i&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="DailyBoardView-module__btn_info___Vnd0i" aria-expanded="false" aria-pressed="false"&gt;&lt;span class="blind"&gt;정보 더보기&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="DailyBoardView-module__btn_info___Vnd0i" aria-expanded="true" aria-pressed="true"&gt;&lt;span class="blind"&gt;정보 더보기&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://zoom.us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>&lt;div class="searchButton" aria-expanded="false" aria-controls="searchBox" tabindex="0"&gt;
+&lt;span class="searchButtonIcon"&gt;
+&lt;svg xmlns="http://www.w3.org/2000/svg" focusable="false" enable-background="new 0 0 20 20" viewBox="0 0 20 20" role="img"&gt;
+&lt;g fill="currentColor"&gt;
+&lt;path d="m8.368 16.736c-4.614 0-8.368-3.754-8.368-8.368s3.754-8.368 8.368-8.368 8.368 3.754 8.368 8.368-3.754 8.368-8.368 8.368m0-14.161c-3.195 0-5.793 2.599-5.793 5.793s2.599 5.793 5.793 5.793 5.793-2.599 5.793-5.793-2.599-5.793-5.793-5.793"&gt;&lt;/path&gt;
+&lt;path d="m18.713 20c-.329 0-.659-.126-.91-.377l-4.552-4.551c-.503-.503-.503-1.318 0-1.82.503-.503 1.318-.503 1.82 0l4.552 4.551c.503.503.503 1.318 0 1.82-.252.251-.581.377-.91.377"&gt;&lt;/path&gt;
+&lt;/g&gt;
+&lt;/svg&gt;
+&lt;/span&gt;
+&lt;div id="topNavSearchText"&gt;Search&lt;/div&gt;
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>&lt;div class="searchButton resetDisplay" aria-expanded="true" aria-controls="searchBox" tabindex="0"&gt;
+&lt;span class="searchButtonIcon"&gt;
+&lt;svg xmlns="http://www.w3.org/2000/svg" focusable="false" enable-background="new 0 0 20 20" viewBox="0 0 20 20" role="img"&gt;
+&lt;g fill="currentColor"&gt;
+&lt;path d="m8.368 16.736c-4.614 0-8.368-3.754-8.368-8.368s3.754-8.368 8.368-8.368 8.368 3.754 8.368 8.368-3.754 8.368-8.368 8.368m0-14.161c-3.195 0-5.793 2.599-5.793 5.793s2.599 5.793 5.793 5.793 5.793-2.599 5.793-5.793-2.599-5.793-5.793-5.793"&gt;&lt;/path&gt;
+&lt;path d="m18.713 20c-.329 0-.659-.126-.91-.377l-4.552-4.551c-.503-.503-.503-1.318 0-1.82.503-.503 1.318-.503 1.82 0l4.552 4.551c.503.503.503 1.318 0 1.82-.252.251-.581.377-.91.377"&gt;&lt;/path&gt;
+&lt;/g&gt;
+&lt;/svg&gt;
+&lt;/span&gt;
+&lt;div id="topNavSearchText"&gt;Search&lt;/div&gt;
+&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>&lt;button data-toggle="dropdown" id="newBtnHostMeeting" class="joinHost" aria-expanded="false" data-on-event="send,event,product,click-nav-hostmeeting,Header Nav Host a Meeting"&gt;Host &lt;span class="arrow"&gt;&lt;img alt="" src="https://st3.zoom.us/static/6.3.17532/image/icon/icon-arrow-down.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>&lt;button data-toggle="dropdown" id="newBtnHostMeeting" class="joinHost" aria-expanded="true" data-on-event="send,event,product,click-nav-hostmeeting,Header Nav Host a Meeting"&gt;Host &lt;span class="arrow flip"&gt;&lt;img alt="" src="https://st3.zoom.us/static/6.3.17532/image/icon/icon-arrow-down.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewProducts" data-toggle="dropdown" aria-expanded="false"&gt;Products&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewProducts" data-toggle="dropdown" aria-expanded="true"&gt;Products&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewSolutions" data-toggle="dropdown" aria-expanded="false"&gt;Solutions&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewSolutions" data-toggle="dropdown" aria-expanded="true"&gt;Solutions&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewResources" data-toggle="dropdown" aria-expanded="false"&gt;Resources&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewResources" data-toggle="dropdown" aria-expanded="true"&gt;Resources&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17532/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.globo.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>&lt;button id="menu-toggle" type="button" aria-label="Menu" aria-expanded="false" data-tracking-disabled="true"&gt;&lt;img class="menu-icon" src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/header_menu_svgs/menu-button.svg" width="18" height="18" aria-hidden="true"&gt;&lt;span&gt;Menu&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>&lt;button id="menu-toggle" type="button" aria-label="Menu" aria-expanded="true" data-tracking-disabled="true"&gt;&lt;img class="menu-icon" src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/header_menu_svgs/menu-button.svg" width="18" height="18" aria-hidden="true"&gt;&lt;span&gt;Menu&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>True - More tags were generated
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>&lt;button class="gh-control ghn-b gh-eb-li-a" aria-expanded="false" aria-controls="gh-eb-Alerts-o"&gt;&lt;i id="gh-Alerts-i" class="gh-sprRetina"&gt;Notification&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>&lt;button class="gh-control ghn-b gh-eb-li-a" aria-expanded="false" aria-controls="gh-eb-Alerts-o"&gt;&lt;i id="gh-Alerts-i" class="gh-sprRetina"&gt;Notification&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>&lt;button id="gh-shop-a" aria-expanded="false" class="gh-control" aria-controls="gh-sbc-o"&gt; Shop by category&lt;i id="gh-shop-ei" class="gh-sprRetina"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>&lt;button id="gh-shop-a" aria-expanded="true" class="gh-control" aria-controls="gh-sbc-o"&gt; Shop by category&lt;i id="gh-shop-ei" class="gh-sprRetina"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="false" aria-controls="gf-f" role="button" class="thrd" _sp="m571.l2586" href="https://www.ebay.com" id="gf-fbtn" aria-label="eBay sites,United States"&gt;United States&lt;b class="gf-if gspr flus"&gt;&lt;/b&gt;&lt;b id="gf-fbtn-arr" class="gh-sprRetina"&gt;&lt;/b&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="true" aria-controls="gf-f" role="button" class="thrd" _sp="m571.l2586" href="https://www.ebay.com" id="gf-fbtn" aria-label="eBay sites,United States"&gt;United States&lt;b class="gf-if gspr flus"&gt;&lt;/b&gt;&lt;b id="gf-fbtn-arr" class="gh-sprRetina"&gt;&lt;/b&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>&lt;a aria-expanded="false" aria-controls="gf-f" role="button" class="thrd" _sp="m571.l2586" href="https://www.ebay.com" id="gf-fbtn" aria-label="eBay sites,United States"&gt;United States&lt;b class="gf-if gspr flus"&gt;&lt;/b&gt;&lt;b id="gf-fbtn-arr" class="gh-sprRetina"&gt;&lt;/b&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>&lt;input type="text" class="gh-tb ui-autocomplete-input" aria-autocomplete="list" aria-expanded="false" size="50" maxlength="300" aria-label="Search for anything" placeholder="Search for anything" id="gh-ac" name="_nkw" autocapitalize="off" autocorrect="off" spellcheck="false" autocomplete="off" aria-haspopup="true" role="combobox" aria-owns="ui-id-1"&gt;</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" class="js-menu-toggle" data-omtr-intcmp="fnhp_topnav_more"&gt;More&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>&lt;a href="#" class="js-menu-toggle menu-open" data-omtr-intcmp="fnhp_topnav_more"&gt;More&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.instructure.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="flex items-center no-underline desktop-header-trigger lh-title b ph3 white pointer sans-serif bg-transparent ba b--transparent" style="border-radius:100px;height:48px;transition:all 100ms cubic-bezier(0.77, 0, 0.175, 1)" aria-haspopup="true" aria-expanded="false"&gt;&lt;i class="ld ld-Grid pr2" style="font-size:1rem;vertical-align:-0.175em;width:1rem;height:1rem;box-sizing:content-box" aria-hidden="true"&gt;&lt;/i&gt;Departments&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="flex items-center no-underline desktop-header-trigger lh-title b ph3 white pointer sans-serif bg-transparent ba b--transparent" style="border-radius:100px;height:48px;transition:all 100ms cubic-bezier(0.77, 0, 0.175, 1)" aria-haspopup="true" aria-expanded="true"&gt;&lt;i class="ld ld-GridFill pr2" style="font-size:1rem;vertical-align:-0.175em;width:1rem;height:1rem;box-sizing:content-box" aria-hidden="true"&gt;&lt;/i&gt;Departments&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.paypal.com/us/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>&lt;a id="5kfmFZA8oQqqp7LiFQxY1d" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375" href="" aria-controls="submenu-5kfmFZA8oQqqp7LiFQxY1d" aria-expanded="false" data-text="Personal" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Personal&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Personal&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>&lt;a id="5kfmFZA8oQqqp7LiFQxY1d" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375 _glnv-header__subnav-control--is-active_1ijeh_455 _glnv-header__subnav-control--is-highlighted_1ijeh_459" href="" aria-controls="submenu-5kfmFZA8oQqqp7LiFQxY1d" aria-expanded="true" data-text="Personal" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Personal&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Personal&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>&lt;a id="Caz0Hf78pWnfCUiw7nXJ1" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375" href="" aria-controls="submenu-Caz0Hf78pWnfCUiw7nXJ1" aria-expanded="false" data-text="Small Business" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Small Business&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Small Business&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>&lt;a id="Caz0Hf78pWnfCUiw7nXJ1" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375 _glnv-header__subnav-control--is-active_1ijeh_455 _glnv-header__subnav-control--is-highlighted_1ijeh_459" href="" aria-controls="submenu-Caz0Hf78pWnfCUiw7nXJ1" aria-expanded="true" data-text="Small Business" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Small Business&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Small Business&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>&lt;a id="4keXBcywQjO9pIejGPxmxW" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375" href="" aria-controls="submenu-4keXBcywQjO9pIejGPxmxW" aria-expanded="false" data-text="Enterprise" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Enterprise&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Enterprise&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>&lt;a id="4keXBcywQjO9pIejGPxmxW" class="_glnv-header__subnav-control_1ijeh_393 _main-link_1ijeh_375 _glnv-header__subnav-control--is-active_1ijeh_455 _glnv-header__subnav-control--is-highlighted_1ijeh_459" href="" aria-controls="submenu-4keXBcywQjO9pIejGPxmxW" aria-expanded="true" data-text="Enterprise" data-pa-click="{&amp;quot;link&amp;quot;:&amp;quot;HeaderMainMenu-Link-Enterprise&amp;quot;, &amp;quot;event_name&amp;quot;:&amp;quot;ppcom_header_nav_clicked&amp;quot;}" role="button" pa-marked="1"&gt;Enterprise&lt;span class="_glnv-header__subnav-control-icon_1ijeh_4247"&gt;&lt;/span&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.accuweather.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.homedepot.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.breitbart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>&lt;div id="MT" role="button" tabindex="-1" aria-label="Menu"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>&lt;div id="MT" role="button" tabindex="-1" aria-label="Menu" class="active"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://github.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;
+        Product
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Product
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;
+        Solutions
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Solutions
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>True - outerHTML change
+True - DOM change</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;
+        Open Source
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Open Source
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
         </is>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.bing.com/</t>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;button id="suggestion-search-button" type="submit" aria-label="Submit Search" class="nav-search__search-submit searchform__submit"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--magnify" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M15.5 14h-.79l-.28-.27a6.5 6.5 0 0 0 1.48-5.34c-.47-2.78-2.79-5-5.59-5.34a6.505 6.505 0 0 0-7.27 7.27c.34 2.8 2.56 5.12 5.34 5.59a6.5 6.5 0 0 0 5.34-1.48l.27.28v.79l4.25 4.25c.41.41 1.08.41 1.49 0 .41-.41.41-1.08 0-1.49L15.5 14zm-6 0C7.01 14 5 11.99 5 9.5S7.01 5 9.5 5 14 7.01 14 9.5 11.99 14 9.5 14z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;a data-testid="wtw-button" class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-baseAlt ipc-btn--theme-baseAlt ipc-btn--on-accent2 ipc-text-button sc-78fcd8c-2 cWpSXA" role="button" tabindex="0" aria-disabled="false" href="/what-to-watch?ref_=hm_watch_btn"&gt;&lt;span class="ipc-btn__text"&gt;Get more recommendations&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--chevron-right ipc-btn__icon ipc-btn__icon--post" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M9.29 6.71a.996.996 0 0 0 0 1.41L13.17 12l-3.88 3.88a.996.996 0 1 0 1.41 1.41l4.59-4.59a.996.996 0 0 0 0-1.41L10.7 6.7c-.38-.38-1.02-.38-1.41.01z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
         </is>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,77 +503,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>True - Redirect</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>&lt;button id="suggestion-search-button" type="submit" aria-label="Submit Search" class="nav-search__search-submit searchform__submit"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--magnify" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M15.5 14h-.79l-.28-.27a6.5 6.5 0 0 0 1.48-5.34c-.47-2.78-2.79-5-5.59-5.34a6.505 6.505 0 0 0-7.27 7.27c.34 2.8 2.56 5.12 5.34 5.59a6.5 6.5 0 0 0 5.34-1.48l.27.28v.79l4.25 4.25c.41.41 1.08.41 1.49 0 .41-.41.41-1.08 0-1.49L15.5 14zm-6 0C7.01 14 5 11.99 5 9.5S7.01 5 9.5 5 14 7.01 14 9.5 11.99 14 9.5 14z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Tries: 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>True - Redirect</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&lt;a data-testid="wtw-button" class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-baseAlt ipc-btn--theme-baseAlt ipc-btn--on-accent2 ipc-text-button sc-78fcd8c-2 cWpSXA" role="button" tabindex="0" aria-disabled="false" href="/what-to-watch?ref_=hm_watch_btn"&gt;&lt;span class="ipc-btn__text"&gt;Get more recommendations&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--chevron-right ipc-btn__icon ipc-btn__icon--post" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M9.29 6.71a.996.996 0 0 0 0 1.41L13.17 12l-3.88 3.88a.996.996 0 1 0 1.41 1.41l4.59-4.59a.996.996 0 0 0 0-1.41L10.7 6.7c-.38-.38-1.02-.38-1.41.01z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Tries: 1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,6 +503,20 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A3:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,99 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Dropdown Opened?</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Outer HTML Change</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DOM structure Change</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initial Outer HTML </t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>After Click Outer HTML</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Initial DOM Structure</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>After Click DOM Structure</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Initial Link</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>After Click Link</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Tries</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Links with Intercept Errors:</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Links with Timeout Errors:</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Links with Not Interactable Exception:</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Links could not be scanned:</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Links with Stale Element:</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Links with unknown Errors:</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Main_Page</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
+          <t>https://www.imdb.com/</t>
         </is>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:A3"/>
+  <dimension ref="A2:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,365 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://duckduckgo.com/https://cnn.com</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.indeed.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>testing 13 / 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>testing 6 / 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.office.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>testing 9 / 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://weather.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>testing 4 / 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://openai.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>testing 8 / 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>testing 6 / 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>testing 10 / 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>testing 7 / 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.naver.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>testing 13 / 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://zoom.us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>testing 9 / 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.globo.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.foxnews.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>testing 0 / 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.instructure.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>testing 4 / 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>testing 8 / 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.paypal.com/us/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>testing 2 / 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.accuweather.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>testing 0 / 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>testing 13 / 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>testing 7 / 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.homedepot.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>testing 15 / 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.breitbart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>testing 7 / 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://github.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>testing 9 / 9</t>
         </is>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J101"/>
+  <dimension ref="A3:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,365 +421,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://duckduckgo.com/https://cnn.com</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://en.wikipedia.org/wiki/Main_Page</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.indeed.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>testing 13 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>https://www.amazon.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-us/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>testing 6 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>https://www.office.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>testing 9 / 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>https://weather.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>testing 4 / 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>https://openai.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>testing 8 / 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>https://www.bing.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>testing 6 / 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>https://www.nytimes.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>testing 10 / 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.twitch.tv/</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.imdb.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>testing 7 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://mail.ru/</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.naver.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>testing 13 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>https://zoom.us/</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>testing 9 / 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>https://www.globo.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>https://www.ebay.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>https://www.foxnews.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>testing 0 / 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>https://www.instructure.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>testing 4 / 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>https://www.walmart.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>testing 8 / 8</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>https://www.paypal.com/us/home</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>testing 2 / 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>https://www.accuweather.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>testing 0 / 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>https://www.pinterest.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>testing 13 / 13</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>https://www.bbc.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>testing 7 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>https://www.homedepot.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>testing 15 / 15</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>https://www.breitbart.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>testing 7 / 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>https://github.com/</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>testing 9 / 9</t>
         </is>
       </c>
     </row>

--- a/TESTING.xlsx
+++ b/TESTING.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:A3"/>
+  <dimension ref="A1:Q259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,6926 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dropdown Opened?</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Outer HTML Change</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DOM structure Change</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initial Outer HTML </t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>After Click Outer HTML</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Initial DOM Structure</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>After Click DOM Structure</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Initial Link</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>After Click Link</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Tries</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Links with Intercept Errors:</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Links with Timeout Errors:</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Links with Not Interactable Exception:</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Links could not be scanned:</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Links with Stale Element:</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Links with unknown Errors:</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
           <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;ASPHODELCHIC Women Pearl Evening Bag Bride Beaded Clutch Purse Cream White for Wedding Party&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>&lt;input id="nav-search-submit-button" type="submit" class="nav-input nav-progressive-attribute" value="Go" tabindex="0"&gt;</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="Miuco Women Knotted Handbag Sparkly Rhinestone Hobo Dumpling Bag Diamond Glitter Evening Clutch Purse" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="Miuco Women Knotted Handbag Sparkly Rhinestone Hobo Dumpling Bag Diamond Glitter Evening Clutch Purse"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>&lt;a class="scroll-carousel_carouselControl__Id0y9 scroll-carousel_carouselHorizontalControl__1gDln scroll-carousel_feedLeft__2VUPq" data-id="carouselControlFeedPrev"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;Fuiuwhs Its My Birthday Dress for Women Birthday Sequin Shirt Dress Letter Graphic Print Half Sleeve Dress&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;CHARMING TAILOR Clutch Evening Bag Elegant Pleated Satin Formal Handbag Simple Classy Purse for Women&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;Miuco Women Knotted Handbag Sparkly Rhinestone Hobo Dumpling Bag Diamond Glitter Evening Clutch Purse&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;Caracilia Women's Two Piece Outfits Sweater Sets 2 Piece Long Sleeve Knit Pullover Tops Wide Leg Pants 2023 Fall Lounge Sets&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="NUFIWI Y2k Hooded Dress for Women Fur Trim Hoodie Dresses Deep V Neck Mini Dress Aesthetic Cute Clothes" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/31g3oOxiYvL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/31g3oOxiYvL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/31g3oOxiYvL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/31g3oOxiYvL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/31g3oOxiYvL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="NUFIWI Y2k Hooded Dress for Women Fur Trim Hoodie Dresses Deep V Neck Mini Dress Aesthetic Cute Clothes"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;The Lip Bar | Vegan Liquid Matte Lipstick | High Pigment &amp;amp; Long-lasting | Hot Mama&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;Synthetic Pearl Top-Handle Women Metal Bucket Bag Crystal Evening Purses and Clutches Formal Wedding Handbags (Black)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Pause" title="Pause" class="playButton--wDABG playPauseButton--uRVns playing--tuiyf"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="Synthetic Pearl Top-Handle Women Metal Bucket Bag Crystal Evening Purses and Clutches Formal Wedding Handbags (Black)" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/41-dfHgJefL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/41-dfHgJefL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/41-dfHgJefL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/41-dfHgJefL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/41-dfHgJefL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="Synthetic Pearl Top-Handle Women Metal Bucket Bag Crystal Evening Purses and Clutches Formal Wedding Handbags (Black)"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector" aria-label="Go to an article in another language. Available in 47 languages"&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="p-lang-btn-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-p-lang-btn" class="vector-dropdown-checkbox mw-interlanguage-selector selector-open" aria-label="Go to an article in another language. Available in 47 languages" data-uls-loaded="true" aria-expanded="false"&gt;</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;button class="vector-pinnable-header-toggle-button vector-pinnable-header-pin-button" data-event-name="pinnable-header.vector-main-menu.pin"&gt;move to sidebar&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;button class="cdx-button cdx-search-input__end-button"&gt;Search&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/wiki/Main_Page</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://en.wikipedia.org/w/index.php?search=&amp;title=Special%3ASearch</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;button class="frb-footer-button frb-inline-rml-link"&gt;                Maybe later                &lt;svg class="frb-inline-rml-icon" aria-hidden="true" width="15" height="15" viewBox="0 0 15 15" xmlns="http://www.w3.org/2000/svg"&gt;                    &lt;g transform="translate(1 1)" fill="none" fill-rule="evenodd"&gt;                        &lt;path d="M5.7 6.2h3.357c.355 0 .643.289.643.65 0 .359-.288.65-.643.65H6.343a.645.645 0 0 1-.643-.65V6.2z"&gt;&lt;/path&gt;                        &lt;circle stroke-width="1.4" cx="6.5" cy="6.5" r="6.5"&gt;&lt;/circle&gt;                        &lt;path d="M5.7 2.654A.65.65 0 0 1 6.35 2c.359 0 .65.298.65.654V7H5.7V2.654z"&gt;&lt;/path&gt;                    &lt;/g&gt;                &lt;/svg&gt;            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>&lt;button class="frb-footer-button frb-inline-rml-link"&gt;
+                Maybe later
+                &lt;svg class="frb-inline-rml-icon" aria-hidden="true" width="15" height="15" viewBox="0 0 15 15" xmlns="http://www.w3.org/2000/svg"&gt;
+                    &lt;g transform="translate(1 1)" fill="none" fill-rule="evenodd"&gt;
+                        &lt;path d="M5.7 6.2h3.357c.355 0 .643.289.643.65 0 .359-.288.65-.643.65H6.343a.645.645 0 0 1-.643-.65V6.2z"&gt;&lt;/path&gt;
+                        &lt;circle stroke-width="1.4" cx="6.5" cy="6.5" r="6.5"&gt;&lt;/circle&gt;
+                        &lt;path d="M5.7 2.654A.65.65 0 0 1 6.35 2c.359 0 .65.298.65.654V7H5.7V2.654z"&gt;&lt;/path&gt;
+                    &lt;/g&gt;
+                &lt;/svg&gt;
+            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;button id="donate-minimum" class="active frb-submit frb-btn-cta"&gt;                                &lt;span class="frb-btn-cta-label"&gt;Give &lt;span class="frb-replaced"&gt;$2.75&lt;/span&gt;&lt;/span&gt;                            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>&lt;button id="donate-minimum" class="frb-submit frb-btn-cta"&gt;
+                                &lt;span class="frb-btn-cta-label"&gt;Give &lt;span class="frb-replaced"&gt;$2.75&lt;/span&gt;&lt;/span&gt;
+                            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;button class="cdx-button cdx-button--icon-only vector-limited-width-toggle" id="" data-event-name="limited-width-toggle-off"&gt;&lt;span class="vector-icon mw-ui-icon-fullScreen mw-ui-icon-wikimedia-fullScreen"&gt;&lt;/span&gt;&lt;span&gt;Toggle limited content width&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&lt;button class="cdx-button cdx-button--icon-only vector-limited-width-toggle" id="" data-event-name="limited-width-toggle-on"&gt;&lt;span class="vector-icon mw-ui-icon-fullScreen mw-ui-icon-wikimedia-exitFullscreen"&gt;&lt;/span&gt;
+&lt;span&gt;Toggle limited content width&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;button class="vector-pinnable-header-toggle-button vector-pinnable-header-pin-button" data-event-name="pinnable-header.vector-page-tools.pin"&gt;move to sidebar&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu"&gt;</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-main-menu-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-main-menu-dropdown" class="vector-dropdown-checkbox " aria-label="Main menu" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools"&gt;</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-page-tools-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-page-tools-dropdown" class="vector-dropdown-checkbox " aria-label="Tools" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;button class="frb-footer-button frb-inline-close"&gt;            Close            &lt;svg class="frb-inline-close-icon" aria-hidden="true" width="12" height="12" viewBox="0 0 12 12" xmlns="http://www.w3.org/2000/svg"&gt;                &lt;g stroke-width="1.4" fill="none" fill-rule="evenodd" stroke-linecap="round"&gt;                    &lt;path d="M1 1l9.944 9.944M10.944 1L1 10.944"&gt;&lt;/path&gt;                &lt;/g&gt;            &lt;/svg&gt;        &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>&lt;button class="frb-footer-button frb-inline-close"&gt;
+            Close
+            &lt;svg class="frb-inline-close-icon" aria-hidden="true" width="12" height="12" viewBox="0 0 12 12" xmlns="http://www.w3.org/2000/svg"&gt;
+                &lt;g stroke-width="1.4" fill="none" fill-rule="evenodd" stroke-linecap="round"&gt;
+                    &lt;path d="M1 1l9.944 9.944M10.944 1L1 10.944"&gt;&lt;/path&gt;
+                &lt;/g&gt;
+            &lt;/svg&gt;
+        &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools"&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>&lt;input type="checkbox" id="vector-user-links-dropdown-checkbox" role="button" aria-haspopup="true" data-event-name="ui.dropdown-vector-user-links-dropdown" class="vector-dropdown-checkbox " aria-label="Personal tools" aria-expanded="true"&gt;</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;button class="frb-footer-button frb-iad modal-open"&gt;            I already donated        &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>&lt;button id="donate-custom" class="frb-btn frb-btn-simple"&gt;                                Give a different amount                            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;button id="donate-custom" class="frb-btn frb-btn-simple"&gt;
+                                Give a different amount
+                            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/en-us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-autoplay playing" data-slide="play" data-automation-test-id="HighlightCarouselControlAutoPlayBtn-" aria-labelledby="playButton-x9ead310201214eb384e23559c91c549e " aria-pressed="false"&gt;									&lt;span class="sr-only" data-automation-test-id="HighlightCarouselPauseBtnSpan-" id="playButton-x9ead310201214eb384e23559c91c549e"&gt;Pause&lt;/span&gt;								&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-autoplay playing" data-slide="play" data-automation-test-id="HighlightCarouselControlAutoPlayBtn-" aria-labelledby="playButton-xdf3129793bde442fb331a42de7c7a3fe " aria-pressed="false"&gt;									&lt;span class="sr-only" data-automation-test-id="HighlightCarouselPauseBtnSpan-" id="playButton-xdf3129793bde442fb331a42de7c7a3fe"&gt;Pause&lt;/span&gt;								&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-prev" data-slide="prev" title="Previous" data-automation-test-id="HighlightCarouselControlPrevBtn-" data-bi-cn="Carousel Back" data-bi-ecn="Carousel Back" data-bi-ct="Button" data-bi-pa="Body" data-bi-compnm="Highlight Carousel" data-bi-bhvr="1" data-bi-assetid="https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/Highlight-Xbox-Series-X-FY24HOLCD:VP2-859x540" data-bi-carpos="1" data-bi-ehn="Save up to $100 on select Xbox Series X" data-bi-hn="Save up to $100 on select Xbox Series X" data-next-id="slide 2"&gt;								&lt;span class="sr-only" data-automation-test-id="HighlightCarouselControlPrevBtnSpan-" id="carousel-control-prev-"&gt;Previous&lt;/span&gt;							&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-prev" data-slide="prev" title="Previous" data-automation-test-id="HighlightCarouselControlPrevBtn-" data-bi-cn="Carousel Back" data-bi-ecn="Carousel Back" data-bi-ct="Button" data-bi-pa="Body" data-bi-compnm="Highlight Carousel" data-bi-bhvr="1" data-bi-assetid="https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/Highlight-Xbox-Series-X-FY24HOLCD:VP2-859x540" data-bi-ehn="Up to $570 off Surface Laptop 5" data-bi-hn="Up to $570 off Surface Laptop 5" data-next-id="Slide 1" data-bi-carpos="2"&gt;
+								&lt;span class="sr-only" data-automation-test-id="HighlightCarouselControlPrevBtnSpan-" id="carousel-control-prev-"&gt;Previous&lt;/span&gt;
+							&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@type="button"][contains(@class, "c-button-logo")][contains(@class, "all-ms-nav")][@aria-expanded="false"][@data-m="{"cN":"GlobalNav_More_nonnav","id":"nn1c1c7c4c1m1r1a1","sN":1,"aN":"c1c7c4c1m1r1a1"}"][@style="overflow-x: visible;"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c7c4c1m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-next" data-slide="next" title="Next" data-automation-test-id="HighlightCarouselNextSlideBtn-" data-bi-cn="Carousel Forward" data-bi-ecn="Carousel Forward" data-bi-ct="Button" data-bi-pa="Body" data-bi-compnm="Highlight Carousel" data-bi-bhvr="3" data-bi-assetid="https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/Highlight-Xbox-Series-X-FY24HOLCD:VP2-859x540" data-bi-carpos="1" data-bi-ehn="Save up to $100 on select Xbox Series X" data-bi-hn="Save up to $100 on select Xbox Series X" data-next-id="Slide 2"&gt;								&lt;span class="sr-only" data-automation-test-id="HighlightCarouselNextSlideBtnSpan-" id="carousel-control-next-"&gt;Next&lt;/span&gt;							&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel-control-next" data-slide="next" title="Next" data-automation-test-id="HighlightCarouselNextSlideBtn-" data-bi-cn="Carousel Forward" data-bi-ecn="Carousel Forward" data-bi-ct="Button" data-bi-pa="Body" data-bi-compnm="Highlight Carousel" data-bi-bhvr="3" data-bi-assetid="https://cdn-dynmedia-1.microsoft.com/is/image/microsoftcorp/Highlight-Xbox-Series-X-FY24HOLCD:VP2-859x540" data-bi-ehn="Up to $570 off Surface Laptop 5" data-bi-hn="Up to $570 off Surface Laptop 5" data-next-id="Slide 1" data-bi-carpos="2"&gt;
+								&lt;span class="sr-only" data-automation-test-id="HighlightCarouselNextSlideBtnSpan-" id="carousel-control-next-"&gt;Next&lt;/span&gt;
+							&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@id="search"][@aria-label="Search Microsoft.com"][contains(@class, "c-glyph")][@data-m="{"cN":"Search_nav","id":"n2c3c1c7c4c1m1r1a1","sN":2,"aN":"c3c1c7c4c1m1r1a1"}"][@data-bi-mto="true"][@aria-expanded="false"][@style="overflow-x: visible;"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>&lt;button id="search" aria-label="Search Microsoft.com" class="c-glyph" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;Search_nav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;n2c3c1c7c4c1m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c3c1c7c4c1m1r1a1&amp;quot;}" data-bi-mto="true" aria-expanded="false" style="overflow-x: visible;"&gt;                                        &lt;span role="presentation" style="overflow-x: visible;"&gt;Search&lt;/span&gt;                                        &lt;span role="tooltip" class="c-uhf-tooltip c-uhf-search-tooltip" style="overflow-x: visible;"&gt;Search Microsoft.com&lt;/span&gt;                                    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.office.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-edu--footer" class="tab-button--footer " aria-selected="false" aria-controls="unauth-tab-content-edu" role="tab"&gt;                    &lt;div class="tab-button__text--footer"&gt;                        &lt;span class="icon-container icon-container--footer"&gt;                            &lt;span class="icon icon--footer icon-regular--footer"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M12 19.14c-.5.53-1.21.86-2 .86H3.75C2.78 20 2 19.22 2 18.25V5.75C2 4.78 2.78 4 3.75 4H10c.79 0 1.5.33 2 .86.5-.53 1.21-.86 2-.86h6.25c.97 0 1.75.78 1.75 1.75v12.5c0 .97-.78 1.75-1.75 1.75H14c-.79 0-1.5-.33-2-.86zM3.5 5.75v12.5c0 .14.11.25.25.25H10c.69 0 1.25-.56 1.25-1.25V6.75c0-.69-.56-1.25-1.25-1.25H3.75a.25.25 0 00-.25.25zm9.25 11.5c0 .69.56 1.25 1.25 1.25h6.25c.14 0 .25-.11.25-.25V5.75a.25.25 0 00-.25-.25H14c-.69 0-1.25.56-1.25 1.25v10.5z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                            &lt;span class="icon icon--footer icon-filled--footer" style="display: none"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M4 4a2 2 0 00-2 2v12c0 1.1.9 2 2 2h6c.77 0 1.47-.29 2-.76.53.47 1.23.76 2 .76h6a2 2 0 002-2V6a2 2 0 00-2-2h-6c-.77 0-1.47.29-2 .76A2.99 2.99 0 0010 4H4zm7 3v10a1 1 0 01-1 1H4V6h6a1 1 0 011 1zm2 10V7a1 1 0 011-1h6v12h-6a1 1 0 01-1-1z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                        &lt;/span&gt;                        For Educators                    &lt;/div&gt;                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-edu--footer" class="tab-button--footer  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-edu" role="tab"&gt;
+                    &lt;div class="tab-button__text--footer"&gt;
+                        &lt;span class="icon-container icon-container--footer"&gt;
+                            &lt;span class="icon icon--footer icon-regular--footer" style="display: none;"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M12 19.14c-.5.53-1.21.86-2 .86H3.75C2.78 20 2 19.22 2 18.25V5.75C2 4.78 2.78 4 3.75 4H10c.79 0 1.5.33 2 .86.5-.53 1.21-.86 2-.86h6.25c.97 0 1.75.78 1.75 1.75v12.5c0 .97-.78 1.75-1.75 1.75H14c-.79 0-1.5-.33-2-.86zM3.5 5.75v12.5c0 .14.11.25.25.25H10c.69 0 1.25-.56 1.25-1.25V6.75c0-.69-.56-1.25-1.25-1.25H3.75a.25.25 0 00-.25.25zm9.25 11.5c0 .69.56 1.25 1.25 1.25h6.25c.14 0 .25-.11.25-.25V5.75a.25.25 0 00-.25-.25H14c-.69 0-1.25.56-1.25 1.25v10.5z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                            &lt;span class="icon icon--footer icon-filled--footer" style="display: inline-block;"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M4 4a2 2 0 00-2 2v12c0 1.1.9 2 2 2h6c.77 0 1.47-.29 2-.76.53.47 1.23.76 2 .76h6a2 2 0 002-2V6a2 2 0 00-2-2h-6c-.77 0-1.47.29-2 .76A2.99 2.99 0 0010 4H4zm7 3v10a1 1 0 01-1 1H4V6h6a1 1 0 011 1zm2 10V7a1 1 0 011-1h6v12h-6a1 1 0 01-1-1z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                        &lt;/span&gt;
+                        For Educators
+                    &lt;/div&gt;
+                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-commercial--footer" class="tab-button--footer " aria-selected="false" aria-controls="unauth-tab-content-commercial" role="tab"&gt;                    &lt;div class="tab-button__text--footer"&gt;                        &lt;span class="icon-container icon-container--footer"&gt;                            &lt;span class="icon icon--footer icon-regular--footer"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm0 1.5h-4.5a.25.25 0 00-.25.25v9.5c0 .14.11.25.25.25h4.5c.14 0 .25-.1.25-.25v-9.5a.25.25 0 00-.25-.25zm-2 7.5a.75.75 0 01.1 1.5h-.6a.75.75 0 01-.1-1.5h.6zm15-.5a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11v-1.5h7.25c.14 0 .25-.11.25-.25v-7.5a.25.25 0 00-.25-.25H5.75a.25.25 0 00-.25.25V7H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                            &lt;span class="icon icon--footer icon-filled--footer" style="display: none"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm-2 9.5h-.5a.75.75 0 100 1.5h.5a.75.75 0 000-1.5zm15-1a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11V9a2 2 0 00-1.85-2H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                        &lt;/span&gt;                        For Organizations                    &lt;/div&gt;                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-commercial--footer" class="tab-button--footer  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-commercial" role="tab"&gt;
+                    &lt;div class="tab-button__text--footer"&gt;
+                        &lt;span class="icon-container icon-container--footer"&gt;
+                            &lt;span class="icon icon--footer icon-regular--footer" style="display: none;"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm0 1.5h-4.5a.25.25 0 00-.25.25v9.5c0 .14.11.25.25.25h4.5c.14 0 .25-.1.25-.25v-9.5a.25.25 0 00-.25-.25zm-2 7.5a.75.75 0 01.1 1.5h-.6a.75.75 0 01-.1-1.5h.6zm15-.5a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11v-1.5h7.25c.14 0 .25-.11.25-.25v-7.5a.25.25 0 00-.25-.25H5.75a.25.25 0 00-.25.25V7H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                            &lt;span class="icon icon--footer icon-filled--footer" style="display: inline-block;"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm-2 9.5h-.5a.75.75 0 100 1.5h.5a.75.75 0 000-1.5zm15-1a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11V9a2 2 0 00-1.85-2H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                        &lt;/span&gt;
+                        For Organizations
+                    &lt;/div&gt;
+                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-edu" class="tab-button " aria-selected="false" aria-controls="unauth-tab-content-edu" role="tab" tabindex="-1"&gt;                &lt;h2 class="tab-button__text" role="presentation"&gt;                    &lt;span class="icon-container icon-container--header"&gt;                        &lt;span class="icon icon-regular icon--narrow-breakpoint"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M12 19.14c-.5.53-1.21.86-2 .86H3.75C2.78 20 2 19.22 2 18.25V5.75C2 4.78 2.78 4 3.75 4H10c.79 0 1.5.33 2 .86.5-.53 1.21-.86 2-.86h6.25c.97 0 1.75.78 1.75 1.75v12.5c0 .97-.78 1.75-1.75 1.75H14c-.79 0-1.5-.33-2-.86zM3.5 5.75v12.5c0 .14.11.25.25.25H10c.69 0 1.25-.56 1.25-1.25V6.75c0-.69-.56-1.25-1.25-1.25H3.75a.25.25 0 00-.25.25zm9.25 11.5c0 .69.56 1.25 1.25 1.25h6.25c.14 0 .25-.11.25-.25V5.75a.25.25 0 00-.25-.25H14c-.69 0-1.25.56-1.25 1.25v10.5z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--narrow-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M4 4a2 2 0 00-2 2v12c0 1.1.9 2 2 2h6c.77 0 1.47-.29 2-.76.53.47 1.23.76 2 .76h6a2 2 0 002-2V6a2 2 0 00-2-2h-6c-.77 0-1.47.29-2 .76A2.99 2.99 0 0010 4H4zm7 3v10a1 1 0 01-1 1H4V6h6a1 1 0 011 1zm2 10V7a1 1 0 011-1h6v12h-6a1 1 0 01-1-1z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-regular icon--wide-breakpoint"&gt;                              &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M16 26.33A4.5 4.5 0 0112.5 28H4a2 2 0 01-2-2V6c0-1.1.9-2 2-2h8.5A4.5 4.5 0 0116 5.67 4.5 4.5 0 0119.5 4H28a2 2 0 012 2v20a2 2 0 01-2 2h-8.5a4.5 4.5 0 01-3.5-1.67zM17 8.5v15a2.5 2.5 0 002.5 2.5H28V6h-8.5A2.5 2.5 0 0017 8.5zm-2 0A2.5 2.5 0 0012.5 6H4v20h8.5a2.5 2.5 0 002.5-2.5v-15z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--wide-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M4.25 4C3.01 4 2 5 2 6.25v19.5C2 26.99 3 28 4.25 28h8c1.52 0 2.88-.72 3.75-1.83A4.74 4.74 0 0019.75 28h8c1.24 0 2.25-1 2.25-2.25V6.25C30 5.01 29 4 27.75 4h-8c-1.52 0-2.88.72-3.75 1.83A4.74 4.74 0 0012.25 4h-8zm.25 21.5v-19h7.75c1.24 0 2.25 1 2.25 2.25v14.5c0 1.24-1 2.25-2.25 2.25H4.5zm13-16.75c0-1.24 1-2.25 2.25-2.25h7.75v19h-7.75c-1.24 0-2.25-1-2.25-2.25V8.75z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                    &lt;/span&gt;                    For Educators                &lt;/h2&gt;            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-edu" class="tab-button  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-edu" role="tab" tabindex="-1"&gt;
+                &lt;h2 class="tab-button__text" role="presentation"&gt;
+                    &lt;span class="icon-container icon-container--header"&gt;
+                        &lt;span class="icon icon-regular icon--narrow-breakpoint" style="display: none;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M12 19.14c-.5.53-1.21.86-2 .86H3.75C2.78 20 2 19.22 2 18.25V5.75C2 4.78 2.78 4 3.75 4H10c.79 0 1.5.33 2 .86.5-.53 1.21-.86 2-.86h6.25c.97 0 1.75.78 1.75 1.75v12.5c0 .97-.78 1.75-1.75 1.75H14c-.79 0-1.5-.33-2-.86zM3.5 5.75v12.5c0 .14.11.25.25.25H10c.69 0 1.25-.56 1.25-1.25V6.75c0-.69-.56-1.25-1.25-1.25H3.75a.25.25 0 00-.25.25zm9.25 11.5c0 .69.56 1.25 1.25 1.25h6.25c.14 0 .25-.11.25-.25V5.75a.25.25 0 00-.25-.25H14c-.69 0-1.25.56-1.25 1.25v10.5z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--narrow-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M4 4a2 2 0 00-2 2v12c0 1.1.9 2 2 2h6c.77 0 1.47-.29 2-.76.53.47 1.23.76 2 .76h6a2 2 0 002-2V6a2 2 0 00-2-2h-6c-.77 0-1.47.29-2 .76A2.99 2.99 0 0010 4H4zm7 3v10a1 1 0 01-1 1H4V6h6a1 1 0 011 1zm2 10V7a1 1 0 011-1h6v12h-6a1 1 0 01-1-1z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-regular icon--wide-breakpoint" style="display: none;"&gt;
+                              &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M16 26.33A4.5 4.5 0 0112.5 28H4a2 2 0 01-2-2V6c0-1.1.9-2 2-2h8.5A4.5 4.5 0 0116 5.67 4.5 4.5 0 0119.5 4H28a2 2 0 012 2v20a2 2 0 01-2 2h-8.5a4.5 4.5 0 01-3.5-1.67zM17 8.5v15a2.5 2.5 0 002.5 2.5H28V6h-8.5A2.5 2.5 0 0017 8.5zm-2 0A2.5 2.5 0 0012.5 6H4v20h8.5a2.5 2.5 0 002.5-2.5v-15z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--wide-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M4.25 4C3.01 4 2 5 2 6.25v19.5C2 26.99 3 28 4.25 28h8c1.52 0 2.88-.72 3.75-1.83A4.74 4.74 0 0019.75 28h8c1.24 0 2.25-1 2.25-2.25V6.25C30 5.01 29 4 27.75 4h-8c-1.52 0-2.88.72-3.75 1.83A4.74 4.74 0 0012.25 4h-8zm.25 21.5v-19h7.75c1.24 0 2.25 1 2.25 2.25v14.5c0 1.24-1 2.25-2.25 2.25H4.5zm13-16.75c0-1.24 1-2.25 2.25-2.25h7.75v19h-7.75c-1.24 0-2.25-1-2.25-2.25V8.75z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                    &lt;/span&gt;
+                    For Educators
+                &lt;/h2&gt;
+            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@type="button"][contains(@class, "c-button-logo")][contains(@class, "all-ms-nav")][@aria-expanded="false"][@data-m="{"cN":"GlobalNav_More_nonnav","id":"nn1c1c9c2m1r1a1","sN":1,"aN":"c1c9c2m1r1a1"}"][@style="overflow-x: visible;"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="c-button-logo all-ms-nav" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;GlobalNav_More_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn1c1c9c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:1,&amp;quot;aN&amp;quot;:&amp;quot;c1c9c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt; &lt;span style="overflow-x: visible;"&gt;All Microsoft&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@type="button"][@id="resources"][@aria-expanded="false"][@data-m="{"cN":"CatNav_Resources_nonnav","id":"nn4c8c2m1r1a1","sN":4,"aN":"c8c2m1r1a1"}"][@style="overflow-x: visible;"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="resources" aria-expanded="false" data-m="{&amp;quot;cN&amp;quot;:&amp;quot;CatNav_Resources_nonnav&amp;quot;,&amp;quot;id&amp;quot;:&amp;quot;nn4c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:4,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Resources &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@type="button"][@id="c-shellmenu_0"][@aria-expanded="false"][@data-m="{"id":"nn2c8c2m1r1a1","sN":2,"aN":"c8c2m1r1a1"}"][@style="overflow-x: visible;"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" id="c-shellmenu_0" aria-expanded="false" data-m="{&amp;quot;id&amp;quot;:&amp;quot;nn2c8c2m1r1a1&amp;quot;,&amp;quot;sN&amp;quot;:2,&amp;quot;aN&amp;quot;:&amp;quot;c8c2m1r1a1&amp;quot;}" style="overflow-x: visible;"&gt;Products&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B50" t="b">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-home" class="tab-button tab-button--active " aria-selected="true" aria-controls="unauth-tab-content-consumer" role="tab"&gt;                &lt;h2 class="tab-button__text" role="presentation"&gt;                    &lt;span class="icon-container icon-container--header"&gt;                        &lt;span class="icon icon-regular icon--narrow-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.42.8 1.05.8 1.71v9.8c0 .97-.78 1.76-1.75 1.76h-3.5c-.97 0-1.75-.79-1.75-1.75v-5.5a.25.25 0 00-.25-.25h-3.5a.25.25 0 00-.25.25v5.5c0 .96-.78 1.75-1.75 1.75h-3.5C3.78 21.5 3 20.7 3 19.75v-9.8c0-.67.3-1.3.8-1.73l6.75-5.69zm1.93 1.15a.75.75 0 00-.96 0l-6.75 5.7a.75.75 0 00-.27.56v9.8c0 .14.11.26.25.26h3.5c.14 0 .25-.12.25-.25v-5.5c0-.97.78-1.75 1.75-1.75h3.5c.97 0 1.75.78 1.75 1.75v5.5c0 .13.11.25.25.25h3.5c.14 0 .25-.12.25-.25v-9.8c0-.23-.1-.44-.27-.58l-6.75-5.7z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--narrow-breakpoint"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.43.8 1.05.8 1.72v9.8c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-5a.75.75 0 00-.75-.75h-3.5a.75.75 0 00-.75.75v5c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-9.8c0-.67.3-1.3.8-1.72l6.75-5.7z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-regular icon--wide-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M14.07 3.57a3 3 0 013.86 0l9 7.57a3 3 0 011.07 2.3V26a2 2 0 01-2 2h-5.5a2 2 0 01-2-2v-7h-5v7a2 2 0 01-2 2H6a2 2 0 01-2-2V13.43a3 3 0 011.07-2.3l9-7.56zm2.57 1.53a1 1 0 00-1.28 0l-9 7.57a1 1 0 00-.36.76V26h5.5v-7c0-1.1.9-2 2-2h5a2 2 0 012 2v7H26V13.43a1 1 0 00-.36-.76l-9-7.57z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--wide-breakpoint"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M14.07 3.57a3 3 0 013.86 0l9 7.57a3 3 0 011.07 2.3V26a2 2 0 01-2 2h-5.5a2 2 0 01-2-2v-7h-5v7a2 2 0 01-2 2H6a2 2 0 01-2-2V13.43a3 3 0 011.07-2.3l9-7.56z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                    &lt;/span&gt;                    For Home                &lt;/h2&gt;            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-home" class="tab-button  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-consumer" role="tab"&gt;
+                &lt;h2 class="tab-button__text" role="presentation"&gt;
+                    &lt;span class="icon-container icon-container--header"&gt;
+                        &lt;span class="icon icon-regular icon--narrow-breakpoint" style="display: none"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.42.8 1.05.8 1.71v9.8c0 .97-.78 1.76-1.75 1.76h-3.5c-.97 0-1.75-.79-1.75-1.75v-5.5a.25.25 0 00-.25-.25h-3.5a.25.25 0 00-.25.25v5.5c0 .96-.78 1.75-1.75 1.75h-3.5C3.78 21.5 3 20.7 3 19.75v-9.8c0-.67.3-1.3.8-1.73l6.75-5.69zm1.93 1.15a.75.75 0 00-.96 0l-6.75 5.7a.75.75 0 00-.27.56v9.8c0 .14.11.26.25.26h3.5c.14 0 .25-.12.25-.25v-5.5c0-.97.78-1.75 1.75-1.75h3.5c.97 0 1.75.78 1.75 1.75v5.5c0 .13.11.25.25.25h3.5c.14 0 .25-.12.25-.25v-9.8c0-.23-.1-.44-.27-.58l-6.75-5.7z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--narrow-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.43.8 1.05.8 1.72v9.8c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-5a.75.75 0 00-.75-.75h-3.5a.75.75 0 00-.75.75v5c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-9.8c0-.67.3-1.3.8-1.72l6.75-5.7z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-regular icon--wide-breakpoint" style="display: none"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M14.07 3.57a3 3 0 013.86 0l9 7.57a3 3 0 011.07 2.3V26a2 2 0 01-2 2h-5.5a2 2 0 01-2-2v-7h-5v7a2 2 0 01-2 2H6a2 2 0 01-2-2V13.43a3 3 0 011.07-2.3l9-7.56zm2.57 1.53a1 1 0 00-1.28 0l-9 7.57a1 1 0 00-.36.76V26h5.5v-7c0-1.1.9-2 2-2h5a2 2 0 012 2v7H26V13.43a1 1 0 00-.36-.76l-9-7.57z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--wide-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M14.07 3.57a3 3 0 013.86 0l9 7.57a3 3 0 011.07 2.3V26a2 2 0 01-2 2h-5.5a2 2 0 01-2-2v-7h-5v7a2 2 0 01-2 2H6a2 2 0 01-2-2V13.43a3 3 0 011.07-2.3l9-7.56z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                    &lt;/span&gt;
+                    For Home
+                &lt;/h2&gt;
+            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-commercial" class="tab-button " aria-selected="false" aria-controls="unauth-tab-content-commercial" role="tab" tabindex="-1"&gt;                &lt;h2 class="tab-button__text" role="presentation"&gt;                    &lt;span class="icon-container icon-container--header"&gt;                        &lt;span class="icon icon-regular icon--narrow-breakpoint"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm0 1.5h-4.5a.25.25 0 00-.25.25v9.5c0 .14.11.25.25.25h4.5c.14 0 .25-.1.25-.25v-9.5a.25.25 0 00-.25-.25zm-2 7.5a.75.75 0 01.1 1.5h-.6a.75.75 0 01-.1-1.5h.6zm15-.5a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11v-1.5h7.25c.14 0 .25-.11.25-.25v-7.5a.25.25 0 00-.25-.25H5.75a.25.25 0 00-.25.25V7H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--narrow-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm-2 9.5h-.5a.75.75 0 100 1.5h.5a.75.75 0 000-1.5zm15-1a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11V9a2 2 0 00-1.85-2H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;                            &lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-regular icon--wide-breakpoint"&gt;                              &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M6 8a3 3 0 013-3h16a3 3 0 013 3v10a3 3 0 01-3 3h-8v-2h8a1 1 0 001-1V8a1 1 0 00-1-1H9a1 1 0 00-1 1H7a4 4 0 00-1 .13V8zm23 17H17v-2h12a1 1 0 110 2zM9 25a1 1 0 100-2 1 1 0 000 2zM3 13a3 3 0 013-3h6a3 3 0 013 3v12a3 3 0 01-3 3H6a3 3 0 01-3-3V13zm3-1a1 1 0 00-1 1v12a1 1 0 001 1h6a1 1 0 001-1V13a1 1 0 00-1-1H6z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                        &lt;span class="icon icon-filled icon--wide-breakpoint" style="display: none"&gt;                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M6 8a3 3 0 013-3h16a3 3 0 013 3v10a3 3 0 01-3 3h-8v-8a5 5 0 00-5-5H7a4 4 0 00-1 .13V8zm23 17H17v-2h12a1 1 0 110 2zM6 10a3 3 0 00-3 3v12a3 3 0 003 3h6a3 3 0 003-3V13a3 3 0 00-3-3H6zm3 15a1 1 0 110-2 1 1 0 010 2z"&gt;&lt;/path&gt;&lt;/svg&gt;                        &lt;/span&gt;                    &lt;/span&gt;                    For Organizations                &lt;/h2&gt;            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-commercial" class="tab-button  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-commercial" role="tab" tabindex="-1"&gt;
+                &lt;h2 class="tab-button__text" role="presentation"&gt;
+                    &lt;span class="icon-container icon-container--header"&gt;
+                        &lt;span class="icon icon-regular icon--narrow-breakpoint" style="display: none;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm0 1.5h-4.5a.25.25 0 00-.25.25v9.5c0 .14.11.25.25.25h4.5c.14 0 .25-.1.25-.25v-9.5a.25.25 0 00-.25-.25zm-2 7.5a.75.75 0 01.1 1.5h-.6a.75.75 0 01-.1-1.5h.6zm15-.5a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11v-1.5h7.25c.14 0 .25-.11.25-.25v-7.5a.25.25 0 00-.25-.25H5.75a.25.25 0 00-.25.25V7H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--narrow-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                &lt;path d="M8.25 8C9.22 8 10 8.8 10 9.75v9.5c0 .97-.78 1.75-1.75 1.75h-4.5C2.78 21 2 20.22 2 19.25v-9.5C2 8.8 2.78 8 3.75 8h4.5zm-2 9.5h-.5a.75.75 0 100 1.5h.5a.75.75 0 000-1.5zm15-1a.75.75 0 01.1 1.5H11v-1.5h10.25zm-3-11.5c.97 0 1.75.78 1.75 1.75v7.5c0 .97-.78 1.75-1.75 1.75H11V9a2 2 0 00-1.85-2H4v-.25C4 5.78 4.78 5 5.75 5h12.5z"&gt;&lt;/path&gt;
+                            &lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-regular icon--wide-breakpoint" style="display: none;"&gt;
+                              &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M6 8a3 3 0 013-3h16a3 3 0 013 3v10a3 3 0 01-3 3h-8v-2h8a1 1 0 001-1V8a1 1 0 00-1-1H9a1 1 0 00-1 1H7a4 4 0 00-1 .13V8zm23 17H17v-2h12a1 1 0 110 2zM9 25a1 1 0 100-2 1 1 0 000 2zM3 13a3 3 0 013-3h6a3 3 0 013 3v12a3 3 0 01-3 3H6a3 3 0 01-3-3V13zm3-1a1 1 0 00-1 1v12a1 1 0 001 1h6a1 1 0 001-1V13a1 1 0 00-1-1H6z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                        &lt;span class="icon icon-filled icon--wide-breakpoint" style="display: inline-block;"&gt;
+                            &lt;svg xmlns="http://www.w3.org/2000/svg" width="32" height="32" viewBox="0 0 32 32"&gt;&lt;path d="M6 8a3 3 0 013-3h16a3 3 0 013 3v10a3 3 0 01-3 3h-8v-8a5 5 0 00-5-5H7a4 4 0 00-1 .13V8zm23 17H17v-2h12a1 1 0 110 2zM6 10a3 3 0 00-3 3v12a3 3 0 003 3h6a3 3 0 003-3V13a3 3 0 00-3-3H6zm3 15a1 1 0 110-2 1 1 0 010 2z"&gt;&lt;/path&gt;&lt;/svg&gt;
+                        &lt;/span&gt;
+                    &lt;/span&gt;
+                    For Organizations
+                &lt;/h2&gt;
+            &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B52" t="b">
+        <v>1</v>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-home--footer" class="tab-button--footer tab-button--active " aria-selected="true" aria-controls="unauth-tab-content-consumer" role="tab"&gt;                    &lt;div class="tab-button__text--footer"&gt;                        &lt;span class="icon-container icon-container--footer"&gt;                            &lt;span class="icon icon--footer icon-regular--footer" style="display: none"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.42.8 1.05.8 1.71v9.8c0 .97-.78 1.76-1.75 1.76h-3.5c-.97 0-1.75-.79-1.75-1.75v-5.5a.25.25 0 00-.25-.25h-3.5a.25.25 0 00-.25.25v5.5c0 .96-.78 1.75-1.75 1.75h-3.5C3.78 21.5 3 20.7 3 19.75v-9.8c0-.67.3-1.3.8-1.73l6.75-5.69zm1.93 1.15a.75.75 0 00-.96 0l-6.75 5.7a.75.75 0 00-.27.56v9.8c0 .14.11.26.25.26h3.5c.14 0 .25-.12.25-.25v-5.5c0-.97.78-1.75 1.75-1.75h3.5c.97 0 1.75.78 1.75 1.75v5.5c0 .13.11.25.25.25h3.5c.14 0 .25-.12.25-.25v-9.8c0-.23-.1-.44-.27-.58l-6.75-5.7z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                            &lt;span class="icon icon--footer icon-filled--footer"&gt;                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;                                    &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.43.8 1.05.8 1.72v9.8c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-5a.75.75 0 00-.75-.75h-3.5a.75.75 0 00-.75.75v5c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-9.8c0-.67.3-1.3.8-1.72l6.75-5.7z"&gt;&lt;/path&gt;                                &lt;/svg&gt;                            &lt;/span&gt;                        &lt;/span&gt;                        For Home                    &lt;/div&gt;                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>&lt;button id="unauth-tab-home--footer" class="tab-button--footer  tab-button--active" aria-selected="true" aria-controls="unauth-tab-content-consumer" role="tab"&gt;
+                    &lt;div class="tab-button__text--footer"&gt;
+                        &lt;span class="icon-container icon-container--footer"&gt;
+                            &lt;span class="icon icon--footer icon-regular--footer" style="display: none"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.42.8 1.05.8 1.71v9.8c0 .97-.78 1.76-1.75 1.76h-3.5c-.97 0-1.75-.79-1.75-1.75v-5.5a.25.25 0 00-.25-.25h-3.5a.25.25 0 00-.25.25v5.5c0 .96-.78 1.75-1.75 1.75h-3.5C3.78 21.5 3 20.7 3 19.75v-9.8c0-.67.3-1.3.8-1.73l6.75-5.69zm1.93 1.15a.75.75 0 00-.96 0l-6.75 5.7a.75.75 0 00-.27.56v9.8c0 .14.11.26.25.26h3.5c.14 0 .25-.12.25-.25v-5.5c0-.97.78-1.75 1.75-1.75h3.5c.97 0 1.75.78 1.75 1.75v5.5c0 .13.11.25.25.25h3.5c.14 0 .25-.12.25-.25v-9.8c0-.23-.1-.44-.27-.58l-6.75-5.7z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                            &lt;span class="icon icon--footer icon-filled--footer" style="display: inline-block;"&gt;
+                                &lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" viewBox="0 0 24 24"&gt;
+                                    &lt;path d="M10.55 2.53c.84-.7 2.06-.7 2.9 0l6.75 5.7c.5.43.8 1.05.8 1.72v9.8c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-5a.75.75 0 00-.75-.75h-3.5a.75.75 0 00-.75.75v5c0 .97-.78 1.75-1.75 1.75h-3c-.97 0-1.75-.78-1.75-1.75v-9.8c0-.67.3-1.3.8-1.72l6.75-5.7z"&gt;&lt;/path&gt;
+                                &lt;/svg&gt;
+                            &lt;/span&gt;
+                        &lt;/span&gt;
+                        For Home
+                    &lt;/div&gt;
+                &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://weather.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="hamburgerMenu" class="Button--default--2gfm1 MainMenu--menuButton--z3Qtu" type="button" id="MainMenuTrigger" aria-haspopup="menu" aria-expanded="false" aria-label="Menu"&gt;&lt;span aria-hidden="true" class="MainMenu--icon--2y3NL"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="hamburgerMenu" class="Button--default--2gfm1 MainMenu--menuButton--z3Qtu MainMenu--active--hat_B" type="button" id="MainMenuTrigger" aria-haspopup="menu" aria-expanded="true" aria-label="Menu"&gt;&lt;span aria-hidden="true" class="MainMenu--icon--2y3NL MainMenu--active--hat_B"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1 styles--button--2XwVN" type="button"&gt;&lt;span class="styles--fullText--jVRPZ"&gt;More Forecasts&lt;/span&gt;&lt;span class="styles--shortText--26NVU"&gt;More&lt;/span&gt;&lt;svg set="ui" name="triangle-down" class="Icon--icon--2aW0V styles--buttonIcon--DmHjz" theme="" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Arrow down&lt;/title&gt;&lt;path d="M23.765 5.167h-23.53l11.75 13.666 11.779-13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1 styles--button--2XwVN" type="button"&gt;&lt;span class="styles--fullText--jVRPZ"&gt;More Forecasts&lt;/span&gt;&lt;span class="styles--shortText--26NVU"&gt;More&lt;/span&gt;&lt;svg set="ui" name="triangle-up" class="Icon--icon--2aW0V styles--buttonIcon--DmHjz" theme="" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Arrow Up&lt;/title&gt;&lt;path d="M0.235 18.833h23.53l-11.75-13.666-11.779 13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B57" t="b">
+        <v>1</v>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1" type="button" aria-haspopup="menu" aria-expanded="false" aria-label="[object Object]"&gt;&lt;div class="LanguageSelector--menuButtonInner--3z59Z"&gt;&lt;svg set="ui" name="globe" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--globeIcon--2-KWS" theme="light" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Globe&lt;/title&gt;&lt;path d="M14.227 8.016h-.141c-.047-.023-.352.305-.352.305s-.234.094-.258.141c0 .047-.07 0-.023.07.023.07.164.023.234-.07.094-.07.258-.117.328-.164.07-.07.094-.047.234-.117.141-.047.234-.07.188-.141-.023-.023-.07-.023-.117-.023h-.117zm-1.243-.375c-.117 0-.258.047-.328.164-.047.117 0 .305-.023.398s-.047.305.07.328c.141.023.141-.188.117-.234s-.023-.281.047-.328c.047-.047.117-.164.258-.164.141-.023.258.094.234.211s.023.234.07.234.211-.094.164-.164.047-.352.047-.258.117.164.188.141-.07-.258-.164-.258c-.094-.023-.281-.023-.328 0-.023 0-.094 0-.164-.023s-.141-.023-.188-.023h-.023zm-.679-.305c-.164.07-.234.047-.234.141 0 .07.141.07.211.047a.708.708 0 01.258-.07c.047-.023.023.07.141.07s.281.047.305.023.164-.164.047-.188c-.094-.023-.234-.117-.328-.188-.023-.023-.023-.023-.047-.023-.094 0-.234.141-.398.188zM6.68 7.242c.07.047.211.047.211.117s.047.234.117.211.07-.164.023-.211-.258-.211-.305-.211-.117-.07-.164-.094h-.023c-.07 0 .07.164.117.211zM2.953 5.555c-.141.094-.211.047-.281.117s-.281.141-.211-.023.07-.188-.047-.141-.141.141-.141.211-.188.164-.188.164.164.023.234 0 .023.141-.047.188-.164.141-.281.117-.117-.117-.188-.141c-.047 0-.094.023-.188.07A11.924 11.924 0 00.045 12c0 6.563 5.344 11.93 11.93 11.906.984 0 1.945-.141 2.859-.375a.174.174 0 01-.117-.211c.047-.141-.07-.141-.141-.211-.07-.094.094-.141.07-.188s-.141-.023-.164-.117.094-.258.117-.281c0-.047-.094-.141-.117-.188 0-.047.047-.117.164-.234.094-.094.164-.234.164-.281s-.07-.164-.07-.281c0-.094.07-.141.094-.305 0-.141-.094-.117-.094-.211 0-.117.141-.07.117-.211-.023-.117.07-.211.117-.281s.07-.211.141-.305c.047-.094-.047-.305-.047-.352s.164-.094.094-.188c-.094-.07.023-.141.117-.211.07-.07-.023-.258.047-.516.047-.234.07-.656.07-.703s0-.211-.047-.305c-.07-.117-.141-.188-.234-.234s-.211-.164-.281-.188c-.07 0-.398-.117-.398-.328 0-.188-.234-.328-.258-.469s-.211-.422-.234-.563c0-.117-.305-.164-.328-.328-.047-.164.141-.258.164-.352s-.094-.305-.117-.375c0-.047.211-.258.281-.305s.141-.211.188-.211.047-.141.094-.305c.047-.141-.023-.352-.07-.375s-.094-.188-.141-.258c-.07-.047-.188-.023-.188-.023s.023.141-.094.188c-.141.047-.164-.023-.188-.047-.047-.047-.188-.047-.258-.117s-.164-.164-.258-.188c-.07-.047-.211-.07-.188-.234 0-.164-.164-.258-.234-.281-.047-.023-.164-.094-.234-.047-.047.023-.094 0-.141-.023s-.094-.047-.141-.047c-.094 0-.281-.164-.352-.234s-.117-.164-.234-.164-.141.047-.211.141c-.094.094-.211-.07-.234-.117-.047-.047-.141-.047-.281-.047-.164 0-.258-.211-.305-.234l-.516-.258c-.094-.047-.188-.258-.141-.305s-.07-.234-.07-.234-.188-.211-.258-.211-.281-.375-.398-.492-.398-.352-.445-.469-.07-.305-.188-.211c-.141.094-.023.188.117.305s.117.211.305.352.117.305.188.352c.07.07.352.234.234.328-.117.117-.234-.141-.305-.141-.047-.023-.164-.047-.164-.117.023-.07-.094-.141-.188-.258s-.141-.047-.258-.047 0-.141.047-.211c.07-.07-.07-.164-.141-.188s-.188-.328-.305-.516-.188-.281-.305-.258-.164-.141-.258-.188c-.07-.047-.211-.305-.328-.445-.141-.141-.258-.398-.234-.539s.047-.516.047-.609-.07-.328-.07-.352c0-.047-.07-.117-.117-.117-.047-.023-.211-.211-.328-.211s-.188-.141-.164-.234c.047-.094-.117-.258-.164-.258-.07 0-.164-.164-.211-.258s-.141-.094-.117-.047 0 .141.047.164c.07.023.117.234.07.281-.047.023-.188-.094-.305-.141-.141-.07-.07-.328-.07-.398s-.188-.141-.281-.141c-.07 0-.164.023-.164-.164 0-.164-.258-.258-.328-.258-.094 0-.516-.164-.656-.164s-.375-.117-.445-.07-.234-.094-.305-.094-.07.047-.234.141zm11.203 6.703c.117-.023.211.188.047.211h-.023c-.117 0-.141-.211-.023-.234zm1.782-.141c.117-.023.211.164.047.211h-.023c-.117 0-.141-.211-.023-.234zm-.774.164c-.07-.047-.117-.094-.234-.094-.07 0-.234-.023-.234-.023s.234-.211.328-.211c.094-.023.211-.047.305-.023.117.023.281.094.281.281-.023.164-.094.023-.141.023-.023 0-.141.07-.234.07h-.047zm-2.062-.773s.328-.094.398-.094.281 0 .398.094.305.211.398.188.258.141.234.188-.234.047-.305-.023c-.07-.047-.305-.164-.375-.234-.047-.07-.352-.047-.492-.047h-.164c-.07 0-.141-.023-.117-.094zm1.007-.375c.117-.023.211.117.047.141h-.023c-.117 0-.141-.117-.023-.141zm-.375-5.86c.117-.047.164.07.094.117h-.047c-.094 0-.164-.07-.047-.117zm-.515-.093c.094-.094.234 0 .188.047 0 .023-.023.023-.07.023-.07 0-.164-.047-.141-.07zm-2.578-1.711c.07-.023.305-.047.352 0 .07.047.117.234.07.258-.047 0-.023.07-.188.164-.164.07-.211-.164-.234-.211 0-.023-.07-.023-.141 0-.047 0-.094.023-.141.023-.094 0-.141-.141-.07-.188.047-.047.141-.023.211-.023h.141zm.656.094c-.023-.07.258-.188.328-.211s.141.047.234.07c.094 0 .07.141 0 .164-.07 0-.258.023-.375.047h-.047c-.094 0-.141-.047-.141-.047zm-.024-.375c.047-.117.281-.07.305.047.023.047-.047.07-.094.07-.094 0-.234-.047-.211-.094zm-.539-.211c.164-.023.234.07.234.117s-.117.188-.234.164h-.07c-.047 0-.047 0-.094-.07-.047-.094-.328-.047-.375-.047s-.094.164-.164.188-.117-.07-.07-.07c.023-.023-.047-.211.023-.258.047-.047.281-.047.469-.023h.281zm-3.468-.071c.047 0 .398-.117.586-.141s.258.07.281.117.445.07.445.07.211.117.234.141c.047.023.141 0 .188-.047s.07-.117.211-.141.141.117.234.141c.07.023.117 0 .188-.047.094-.047.141.047.141.047s-.047.164-.047.234c0 .047-.094.07-.117.117s-.305 0-.422-.023c-.094-.023-.328-.023-.398 0s-.258.023-.328 0-.07-.141-.141-.188c-.047-.047-.188.07-.258.094s-.188-.117-.164-.188c0-.07-.258-.023-.305 0s-.234.023-.352.023-.211 0-.188-.047c.023-.07.117-.07.188-.07s-.047-.117 0-.117zm4.922.399s-.258-.07-.305-.164c-.07-.094-.305-.094-.422-.141s-.281-.117-.375-.164-.047-.188-.047-.164.188.07.305.094c.234.047.211.047.305.07s.281.164.375.211c.07.047.164.117.258.117h1.102c.07 0 .422.07.398.094s-.047.094-.211.094-.469-.023-.68-.047-.398.023-.398.023l-.281-.023zm-3.61-.586c.164-.047.305-.164.422-.164s.047.188.047.234c.023.047-.117.07-.188.047-.047-.047-.234.023-.305.023s-.094-.094 0-.141zm1.195-.117c.023-.117.141-.094.258-.117.117 0 .281 0 .422.047.164.047.141.047.211.117s.094.188.023.188-.117-.023-.258-.047c-.117-.023-.094-.047-.117-.094s-.258 0-.352 0-.188-.047-.188-.117zM3.234 3.961c.188.023.469.023.516.023s.328.094.492.047.258.023.305.047.07.023.141.094.141.023.234-.047c.094-.047.07-.117.07-.117l.094-.023c.07-.023.141.023.352.047.234.023.164-.047.328-.094a.474.474 0 01.258.023c.047.023.094.047.117.023.047-.023.117-.117.164-.07s.117.164.117.164.164-.141.211-.141.211.047.305.047c.094-.023.445-.023.539.047.07.07.281.047.398.117s.211-.047.164-.07-.188-.141-.188-.141-.211-.234-.234-.281-.07-.047-.117.07-.258.117-.492.117-.07-.117-.328-.117c-.258-.023-.164-.117-.07-.117.07 0 .141-.164.164-.258s.117-.07.305-.07h.422c.094.023.141 0 .188-.023s.094-.047.188-.023c.188.023.094.047.188.117.117.07.164.047.328.117.141.07.094.07.164.07.07.023.281-.023.422-.047s.234-.023.305.047.047.164.141.234-.047-.234-.047-.352.188-.023.305-.023.258-.047.281.023c.023.047-.188.141-.07.258s.211.164.305.164.352.023.234.164-.398.141-.492.141-.258.047-.211.141c.047.07.258.047.398.047s.609.047.727 0 .094-.188-.047-.234-.023-.117.117-.094c.07.023.117 0 .164 0s.094-.023.07 0c-.023.047.023.141.023.234 0 .117.047.164.141.141s.117-.047.211-.047c.094-.023.047-.234-.023-.352-.047-.117-.094-.188-.07-.258 0-.07.164-.07.234-.023.07.07.188.211.188.211s.164.094.211.211.07.07.188.023c.117-.07.141-.047.234.023s.023.211.023.234c0 .047.117 0 .141-.07 0-.094.141-.094.188-.117.07-.023.07-.188.07-.188s-.164-.047-.352-.023c-.164.023-.234-.023-.375-.117s-.047-.164-.117-.258.211-.141.398-.234c.164-.07.328-.023.305.164-.023.211-.047.164.141.141.164-.047-.047-.211.07-.234a2.67 2.67 0 01.398-.047c.094.023.516-.047.633-.047s.281.094.398.164c.141.07.469.164.539.211.094.047.633.117.703.141.047.023.047.188.117.328.047.141.188.047.258.047.047 0 .234.094.281.164s.445.117.445.117-.117.117-.141.164c-.047.047-.164.07-.211.117-.094.047-.164-.023-.281-.07-.094-.07-.281-.117-.328-.094s0 .07.023.117c.047.047.211.094.328.188.141.07.094.164.117.258 0 .117-.094-.047-.234-.07s-.141.117-.141.117-.164-.023-.234-.023c-.094 0 0 0-.164-.117-.07-.07-.117-.023-.141 0s-.023.047-.07.023c-.094-.047-.164-.141-.188-.117s-.07-.023-.117-.047-.094-.07-.141-.047h-.211c-.117 0-.234-.023-.281 0-.07.023-.141.023-.211.047-.094.023-.094-.188-.07-.258.047-.07.141-.07.328-.047.164.047.188 0 .234-.07s.07-.141.258-.188 0-.094-.07-.117c-.047-.023-.117-.07-.164 0s-.141.164-.141.164-.094 0-.258-.023-.047-.07.023-.094c.047-.023.141-.188.07-.234s-.094-.07-.211-.047-.047-.094-.117-.141c-.094-.047-.047.023-.047.07s-.117.047-.117.047-.188-.023-.258 0-.188.07-.141.117.164.047.211.164-.164.141-.211.164c-.047 0-.188.07-.188.07s-.164-.047-.305-.047-.164.023-.141.07.094.023.141.023.047.07.141.047c.117-.023.094-.07.211.047s.211.094.398.188-.023.211-.117.211-.094-.07-.141-.164c-.07-.07-.281.023-.281.023s-.188.094-.281.094-.164-.023-.047-.117-.141-.094-.141-.234-.047.141-.047.211c0 .047-.047.047-.117.023h-.211c-.234.023-.188.117-.492.305-.281.188-.352.234-.328.398s.094.117.211.164c.117.023.07.234.188.211.094-.023.164-.07.352.023s.281.117.516.164.375.117.492.07c.141-.023.188 0 .188.117 0 .094.094.117.07.234 0 .117.141-.117.141-.117s.07.211.023.234c-.07.023.023.141.07.141h.07c.047 0 .117.023.164-.023.07-.07-.047-.258-.047-.352 0-.07-.07-.117-.117-.211-.047-.07.094-.094.164-.023.047.07.141.023.234-.047s.094-.188.094-.188-.164-.211-.281-.258-.047-.07.07-.094 0-.07.023-.211c.047-.141.047-.234.117-.234.047 0 .305-.047.492-.023s.305.164.422.164c.141 0 .352.047.398.117s-.164.07-.047.188c.094.117.094.094.188.141s.211.023.328-.141c.094-.164.164-.164.211-.117.047.023.305.328.375.398s.188.211.211.281.188.07.258.07c.047 0 .258.141.281.234 0 .094.047.117.234.141.188.047 0 .188-.023.281-.047.07-.047.117-.117.211-.023.047-.023.047 0 .047s.047-.023.07 0c.07.047.094.094.188.07s.141 0 .188.094c.047.07.117.141.141.211s0 .164-.07.117c-.07-.07-.234-.023-.234-.023s-.094.07-.117.047c-.023-.047-.07-.094-.188-.07a.204.204 0 01-.164 0h-.117c-.094.023-.141-.047-.07-.117.07-.047.07-.258.211-.328s.094-.211 0-.211-.141.117-.188.141c-.07.023-.141.023-.258.094-.094.07-.352.047-.234.07.094.023-.164.141-.211.141-.094 0-.07-.164-.07-.234s-.117.047-.117.047-.211-.117-.281-.047-.188.117-.305.211c-.094.07-.328.211-.328.211s.094-.047.234-.07c.164-.047.141-.023.281-.094s.258-.094.375.023c.094.117-.023.188-.023.188s.047.094.117.117c.047.023.047-.023.141-.07s.047.117.07.164c.047.047.117.047.188 0 .07-.07.094-.117.141-.07s.07.141.117.234-.258.117-.328.141c-.07 0-.305.07-.352.07-.047.023-.164.141-.281.141s-.094-.164-.117-.258c0-.094-.117.023-.141.047-.023.047-.141.023-.234.047-.094 0-.258.094-.258.211s.094.164.07.211-.258.094-.352.07-.234.047-.188.094.047.141-.07.117c-.094 0-.094.094-.07.164.047.07-.117.211-.141.141-.047-.047-.117-.07-.117 0s.023.141.117.258c.07.117-.164.164-.281.258-.094.07-.398.352-.539.398s-.141.234-.07.305c.094.07.141.352.188.445s-.023.352-.141.352c-.117-.023-.07-.164-.188-.211s-.188-.281-.211-.445c-.047-.164-.07-.07-.141-.023-.094.047-.164-.117-.188-.141s-.117 0-.211 0c-.07 0-.164.023-.234.023-.164-.023-.211.07-.211.094 0 .047-.023.164-.188.07-.141-.07-.164-.07-.328-.07-.141 0-.281 0-.305.047s-.164.164-.258.188-.281.164-.188.188c.07.023.07.211.023.328s-.047.305-.023.492.188.305.328.422.211.164.352.047.211-.047.234-.023c.047.023.141-.07.117-.188-.047-.117.047-.234.188-.211.047 0 .117 0 .188-.023.07 0 .141-.023.188-.023.117 0 .141.258 0 .375-.164.117-.07.281-.094.398s-.141.141 0 .141.094.023.188.047.164-.07.281-.094c.094 0 .328.211.281.305a.983.983 0 00-.07.469c.047.164.07.164.117.234.023.047.141.164.258.117s.234-.094.281-.141.305.094.281.141c-.023.023.094.07.164.023.094-.023.117-.094.188-.211a.672.672 0 01.281-.211c.047 0 .211-.164.328-.141.094.023-.047.164-.047.234 0 .094 0 .305.047.328.07 0 .047-.164.117-.281.07-.141.211-.188.281-.188s.117.258.211.211c.094-.07.281-.047.328.023.023.07.07.117.07.117s.07-.047.07-.117c0-.094.211-.141.352-.07s.094.094.164.117c.07 0 .141-.164.164-.188.047-.023 0 .211-.094.328-.117.094.07.07.094.117.023.023.047.023.094 0 .047 0 .117 0 .141.023.047.047.164.094.234.258.094.117.211.094.375.07s.375.07.539.258c.164.164.117.305.234.305s.141.141.141.188-.234.164-.352.188c-.141 0-.141.141.07.117.211-.047.117-.117.258-.141.141-.047.258.047.164.211-.141.164-.375.164-.164.188s.094-.047.211-.188c.117-.164.117-.117.188-.117.094 0 .258.047.328.094s.234.141.352.188c.117.07.258.047.328.023s.328.07.398.188c.07.094.258.117.375.164.094.047.234.188.234.328.023.141-.141.422-.141.492-.023.047-.234.305-.422.469s-.07.352-.07.422c.023.07-.141.375-.094.445s-.047.211-.141.328c-.094.094-.141.258-.188.352-.07.094-.234.07-.398.117-.164.023-.234.07-.234.07s-.305.117-.445.234c-.164.117.047.305-.023.445s-.164.141-.234.305c-.047.117-.094.094-.117.07-.023 0-.047-.023-.07 0-.07.047-.117.141-.117.258-.023.094-.141.211-.328.375-.164.164-.281.141-.469.07-.188-.047-.164-.516-.188-.445s-.023.305.023.352c.023.047.117.211.164.234.07.047.047.117 0 .164-.047.07-.211.305-.258.328s-.469.07-.563.023c-.07-.047-.117.094-.117.188.023.094.094.164-.07.141s-.352-.117-.352-.047.047.211.117.211.164-.047.117.047-.141.164-.211.211c-.047.047-.117.164-.258.258s-.141.141-.117.188.234.023.281.047-.047.211-.094.258-.281.234-.375.281-.094.211-.047.328c4.453-1.406 7.781-5.344 8.273-10.125-.117-.094-.047-.211-.07-.328-.023-.141-.164-.188-.094-.211s.047-.094.234-.281c0-.141.023-.281.023-.422v-.094c-.047-.094-.117-.258-.023-.422a11.765 11.765 0 00-2.766-7.125 5.65 5.65 0 01-.398.047c-.094 0-.234.211-.258.258s-.328 0-.422 0-.188.117-.375.141c-.164.023-.094.141-.07.234 0 .094-.047.141-.141.117-.117-.023-.094.047-.117.117s.023.188-.094.281c-.094.07-.141.117-.258.094-.117 0-.117-.211-.141-.188-.047 0-.234.141-.281.07s-.281-.234-.375-.258c-.094-.047-.164-.188-.188-.258-.047-.07.117-.07.07-.07-.047-.023-.211-.047-.258-.094s-.141-.258-.164-.328c0-.07.141-.164.141-.211 0-.023-.141-.023-.188-.023s-.117-.141-.047-.281.211-.094.211-.094h.117c.07 0 .047.164.023.234s.047.07.094.094.07-.07.07-.117c0-.07-.117-.211-.188-.281-.047-.07-.234-.094-.258-.047s-.164.234-.211.188-.047-.445-.117-.563-.328-.141-.445-.211c-.094-.047-.492-.117-.563-.117-.023 0-.094 0-.141.023a.482.482 0 01-.258 0c-.094-.023-.094-.211-.094-.211s-.07.188-.094.234c-.047.047-.141.07-.188.047s-.164-.234-.281-.258h-.117c-.047 0-.094 0-.164-.047-.141-.117.258-.094.281-.094s.328-.07.352-.141c0-.094.094-.188.234-.141.141.023.211-.094.188-.211s.258-.234.305-.164c.047.047.281 0 .211-.117s.281-.211.609-.234.422.023.492.07.281.047.398-.023A11.889 11.889 0 0011.992.304c-3.469 0-6.586 1.5-8.766 3.867z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span data-testid="languageSelectorStatus" class="LanguageSelector--LanguageSelectorStatus--2KFS4"&gt;US&lt;/span&gt;&lt;span class="LanguageSelector--unitDisplay--mr3Rx"&gt;°F&lt;/span&gt;&lt;svg set="ui" name="triangle-down" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--arrowIcon--3LCpZ" theme="light" data-testid="Icon" viewBox="0 0 24 24" style="width: 17px;"&gt;&lt;title&gt;Arrow down&lt;/title&gt;&lt;path d="M23.765 5.167h-23.53l11.75 13.666 11.779-13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1" type="button" aria-haspopup="menu" aria-expanded="true" aria-label="[object Object]"&gt;&lt;div class="LanguageSelector--menuButtonInner--3z59Z"&gt;&lt;svg set="ui" name="globe" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--globeIcon--2-KWS" theme="light" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;Globe&lt;/title&gt;&lt;path d="M14.227 8.016h-.141c-.047-.023-.352.305-.352.305s-.234.094-.258.141c0 .047-.07 0-.023.07.023.07.164.023.234-.07.094-.07.258-.117.328-.164.07-.07.094-.047.234-.117.141-.047.234-.07.188-.141-.023-.023-.07-.023-.117-.023h-.117zm-1.243-.375c-.117 0-.258.047-.328.164-.047.117 0 .305-.023.398s-.047.305.07.328c.141.023.141-.188.117-.234s-.023-.281.047-.328c.047-.047.117-.164.258-.164.141-.023.258.094.234.211s.023.234.07.234.211-.094.164-.164.047-.352.047-.258.117.164.188.141-.07-.258-.164-.258c-.094-.023-.281-.023-.328 0-.023 0-.094 0-.164-.023s-.141-.023-.188-.023h-.023zm-.679-.305c-.164.07-.234.047-.234.141 0 .07.141.07.211.047a.708.708 0 01.258-.07c.047-.023.023.07.141.07s.281.047.305.023.164-.164.047-.188c-.094-.023-.234-.117-.328-.188-.023-.023-.023-.023-.047-.023-.094 0-.234.141-.398.188zM6.68 7.242c.07.047.211.047.211.117s.047.234.117.211.07-.164.023-.211-.258-.211-.305-.211-.117-.07-.164-.094h-.023c-.07 0 .07.164.117.211zM2.953 5.555c-.141.094-.211.047-.281.117s-.281.141-.211-.023.07-.188-.047-.141-.141.141-.141.211-.188.164-.188.164.164.023.234 0 .023.141-.047.188-.164.141-.281.117-.117-.117-.188-.141c-.047 0-.094.023-.188.07A11.924 11.924 0 00.045 12c0 6.563 5.344 11.93 11.93 11.906.984 0 1.945-.141 2.859-.375a.174.174 0 01-.117-.211c.047-.141-.07-.141-.141-.211-.07-.094.094-.141.07-.188s-.141-.023-.164-.117.094-.258.117-.281c0-.047-.094-.141-.117-.188 0-.047.047-.117.164-.234.094-.094.164-.234.164-.281s-.07-.164-.07-.281c0-.094.07-.141.094-.305 0-.141-.094-.117-.094-.211 0-.117.141-.07.117-.211-.023-.117.07-.211.117-.281s.07-.211.141-.305c.047-.094-.047-.305-.047-.352s.164-.094.094-.188c-.094-.07.023-.141.117-.211.07-.07-.023-.258.047-.516.047-.234.07-.656.07-.703s0-.211-.047-.305c-.07-.117-.141-.188-.234-.234s-.211-.164-.281-.188c-.07 0-.398-.117-.398-.328 0-.188-.234-.328-.258-.469s-.211-.422-.234-.563c0-.117-.305-.164-.328-.328-.047-.164.141-.258.164-.352s-.094-.305-.117-.375c0-.047.211-.258.281-.305s.141-.211.188-.211.047-.141.094-.305c.047-.141-.023-.352-.07-.375s-.094-.188-.141-.258c-.07-.047-.188-.023-.188-.023s.023.141-.094.188c-.141.047-.164-.023-.188-.047-.047-.047-.188-.047-.258-.117s-.164-.164-.258-.188c-.07-.047-.211-.07-.188-.234 0-.164-.164-.258-.234-.281-.047-.023-.164-.094-.234-.047-.047.023-.094 0-.141-.023s-.094-.047-.141-.047c-.094 0-.281-.164-.352-.234s-.117-.164-.234-.164-.141.047-.211.141c-.094.094-.211-.07-.234-.117-.047-.047-.141-.047-.281-.047-.164 0-.258-.211-.305-.234l-.516-.258c-.094-.047-.188-.258-.141-.305s-.07-.234-.07-.234-.188-.211-.258-.211-.281-.375-.398-.492-.398-.352-.445-.469-.07-.305-.188-.211c-.141.094-.023.188.117.305s.117.211.305.352.117.305.188.352c.07.07.352.234.234.328-.117.117-.234-.141-.305-.141-.047-.023-.164-.047-.164-.117.023-.07-.094-.141-.188-.258s-.141-.047-.258-.047 0-.141.047-.211c.07-.07-.07-.164-.141-.188s-.188-.328-.305-.516-.188-.281-.305-.258-.164-.141-.258-.188c-.07-.047-.211-.305-.328-.445-.141-.141-.258-.398-.234-.539s.047-.516.047-.609-.07-.328-.07-.352c0-.047-.07-.117-.117-.117-.047-.023-.211-.211-.328-.211s-.188-.141-.164-.234c.047-.094-.117-.258-.164-.258-.07 0-.164-.164-.211-.258s-.141-.094-.117-.047 0 .141.047.164c.07.023.117.234.07.281-.047.023-.188-.094-.305-.141-.141-.07-.07-.328-.07-.398s-.188-.141-.281-.141c-.07 0-.164.023-.164-.164 0-.164-.258-.258-.328-.258-.094 0-.516-.164-.656-.164s-.375-.117-.445-.07-.234-.094-.305-.094-.07.047-.234.141zm11.203 6.703c.117-.023.211.188.047.211h-.023c-.117 0-.141-.211-.023-.234zm1.782-.141c.117-.023.211.164.047.211h-.023c-.117 0-.141-.211-.023-.234zm-.774.164c-.07-.047-.117-.094-.234-.094-.07 0-.234-.023-.234-.023s.234-.211.328-.211c.094-.023.211-.047.305-.023.117.023.281.094.281.281-.023.164-.094.023-.141.023-.023 0-.141.07-.234.07h-.047zm-2.062-.773s.328-.094.398-.094.281 0 .398.094.305.211.398.188.258.141.234.188-.234.047-.305-.023c-.07-.047-.305-.164-.375-.234-.047-.07-.352-.047-.492-.047h-.164c-.07 0-.141-.023-.117-.094zm1.007-.375c.117-.023.211.117.047.141h-.023c-.117 0-.141-.117-.023-.141zm-.375-5.86c.117-.047.164.07.094.117h-.047c-.094 0-.164-.07-.047-.117zm-.515-.093c.094-.094.234 0 .188.047 0 .023-.023.023-.07.023-.07 0-.164-.047-.141-.07zm-2.578-1.711c.07-.023.305-.047.352 0 .07.047.117.234.07.258-.047 0-.023.07-.188.164-.164.07-.211-.164-.234-.211 0-.023-.07-.023-.141 0-.047 0-.094.023-.141.023-.094 0-.141-.141-.07-.188.047-.047.141-.023.211-.023h.141zm.656.094c-.023-.07.258-.188.328-.211s.141.047.234.07c.094 0 .07.141 0 .164-.07 0-.258.023-.375.047h-.047c-.094 0-.141-.047-.141-.047zm-.024-.375c.047-.117.281-.07.305.047.023.047-.047.07-.094.07-.094 0-.234-.047-.211-.094zm-.539-.211c.164-.023.234.07.234.117s-.117.188-.234.164h-.07c-.047 0-.047 0-.094-.07-.047-.094-.328-.047-.375-.047s-.094.164-.164.188-.117-.07-.07-.07c.023-.023-.047-.211.023-.258.047-.047.281-.047.469-.023h.281zm-3.468-.071c.047 0 .398-.117.586-.141s.258.07.281.117.445.07.445.07.211.117.234.141c.047.023.141 0 .188-.047s.07-.117.211-.141.141.117.234.141c.07.023.117 0 .188-.047.094-.047.141.047.141.047s-.047.164-.047.234c0 .047-.094.07-.117.117s-.305 0-.422-.023c-.094-.023-.328-.023-.398 0s-.258.023-.328 0-.07-.141-.141-.188c-.047-.047-.188.07-.258.094s-.188-.117-.164-.188c0-.07-.258-.023-.305 0s-.234.023-.352.023-.211 0-.188-.047c.023-.07.117-.07.188-.07s-.047-.117 0-.117zm4.922.399s-.258-.07-.305-.164c-.07-.094-.305-.094-.422-.141s-.281-.117-.375-.164-.047-.188-.047-.164.188.07.305.094c.234.047.211.047.305.07s.281.164.375.211c.07.047.164.117.258.117h1.102c.07 0 .422.07.398.094s-.047.094-.211.094-.469-.023-.68-.047-.398.023-.398.023l-.281-.023zm-3.61-.586c.164-.047.305-.164.422-.164s.047.188.047.234c.023.047-.117.07-.188.047-.047-.047-.234.023-.305.023s-.094-.094 0-.141zm1.195-.117c.023-.117.141-.094.258-.117.117 0 .281 0 .422.047.164.047.141.047.211.117s.094.188.023.188-.117-.023-.258-.047c-.117-.023-.094-.047-.117-.094s-.258 0-.352 0-.188-.047-.188-.117zM3.234 3.961c.188.023.469.023.516.023s.328.094.492.047.258.023.305.047.07.023.141.094.141.023.234-.047c.094-.047.07-.117.07-.117l.094-.023c.07-.023.141.023.352.047.234.023.164-.047.328-.094a.474.474 0 01.258.023c.047.023.094.047.117.023.047-.023.117-.117.164-.07s.117.164.117.164.164-.141.211-.141.211.047.305.047c.094-.023.445-.023.539.047.07.07.281.047.398.117s.211-.047.164-.07-.188-.141-.188-.141-.211-.234-.234-.281-.07-.047-.117.07-.258.117-.492.117-.07-.117-.328-.117c-.258-.023-.164-.117-.07-.117.07 0 .141-.164.164-.258s.117-.07.305-.07h.422c.094.023.141 0 .188-.023s.094-.047.188-.023c.188.023.094.047.188.117.117.07.164.047.328.117.141.07.094.07.164.07.07.023.281-.023.422-.047s.234-.023.305.047.047.164.141.234-.047-.234-.047-.352.188-.023.305-.023.258-.047.281.023c.023.047-.188.141-.07.258s.211.164.305.164.352.023.234.164-.398.141-.492.141-.258.047-.211.141c.047.07.258.047.398.047s.609.047.727 0 .094-.188-.047-.234-.023-.117.117-.094c.07.023.117 0 .164 0s.094-.023.07 0c-.023.047.023.141.023.234 0 .117.047.164.141.141s.117-.047.211-.047c.094-.023.047-.234-.023-.352-.047-.117-.094-.188-.07-.258 0-.07.164-.07.234-.023.07.07.188.211.188.211s.164.094.211.211.07.07.188.023c.117-.07.141-.047.234.023s.023.211.023.234c0 .047.117 0 .141-.07 0-.094.141-.094.188-.117.07-.023.07-.188.07-.188s-.164-.047-.352-.023c-.164.023-.234-.023-.375-.117s-.047-.164-.117-.258.211-.141.398-.234c.164-.07.328-.023.305.164-.023.211-.047.164.141.141.164-.047-.047-.211.07-.234a2.67 2.67 0 01.398-.047c.094.023.516-.047.633-.047s.281.094.398.164c.141.07.469.164.539.211.094.047.633.117.703.141.047.023.047.188.117.328.047.141.188.047.258.047.047 0 .234.094.281.164s.445.117.445.117-.117.117-.141.164c-.047.047-.164.07-.211.117-.094.047-.164-.023-.281-.07-.094-.07-.281-.117-.328-.094s0 .07.023.117c.047.047.211.094.328.188.141.07.094.164.117.258 0 .117-.094-.047-.234-.07s-.141.117-.141.117-.164-.023-.234-.023c-.094 0 0 0-.164-.117-.07-.07-.117-.023-.141 0s-.023.047-.07.023c-.094-.047-.164-.141-.188-.117s-.07-.023-.117-.047-.094-.07-.141-.047h-.211c-.117 0-.234-.023-.281 0-.07.023-.141.023-.211.047-.094.023-.094-.188-.07-.258.047-.07.141-.07.328-.047.164.047.188 0 .234-.07s.07-.141.258-.188 0-.094-.07-.117c-.047-.023-.117-.07-.164 0s-.141.164-.141.164-.094 0-.258-.023-.047-.07.023-.094c.047-.023.141-.188.07-.234s-.094-.07-.211-.047-.047-.094-.117-.141c-.094-.047-.047.023-.047.07s-.117.047-.117.047-.188-.023-.258 0-.188.07-.141.117.164.047.211.164-.164.141-.211.164c-.047 0-.188.07-.188.07s-.164-.047-.305-.047-.164.023-.141.07.094.023.141.023.047.07.141.047c.117-.023.094-.07.211.047s.211.094.398.188-.023.211-.117.211-.094-.07-.141-.164c-.07-.07-.281.023-.281.023s-.188.094-.281.094-.164-.023-.047-.117-.141-.094-.141-.234-.047.141-.047.211c0 .047-.047.047-.117.023h-.211c-.234.023-.188.117-.492.305-.281.188-.352.234-.328.398s.094.117.211.164c.117.023.07.234.188.211.094-.023.164-.07.352.023s.281.117.516.164.375.117.492.07c.141-.023.188 0 .188.117 0 .094.094.117.07.234 0 .117.141-.117.141-.117s.07.211.023.234c-.07.023.023.141.07.141h.07c.047 0 .117.023.164-.023.07-.07-.047-.258-.047-.352 0-.07-.07-.117-.117-.211-.047-.07.094-.094.164-.023.047.07.141.023.234-.047s.094-.188.094-.188-.164-.211-.281-.258-.047-.07.07-.094 0-.07.023-.211c.047-.141.047-.234.117-.234.047 0 .305-.047.492-.023s.305.164.422.164c.141 0 .352.047.398.117s-.164.07-.047.188c.094.117.094.094.188.141s.211.023.328-.141c.094-.164.164-.164.211-.117.047.023.305.328.375.398s.188.211.211.281.188.07.258.07c.047 0 .258.141.281.234 0 .094.047.117.234.141.188.047 0 .188-.023.281-.047.07-.047.117-.117.211-.023.047-.023.047 0 .047s.047-.023.07 0c.07.047.094.094.188.07s.141 0 .188.094c.047.07.117.141.141.211s0 .164-.07.117c-.07-.07-.234-.023-.234-.023s-.094.07-.117.047c-.023-.047-.07-.094-.188-.07a.204.204 0 01-.164 0h-.117c-.094.023-.141-.047-.07-.117.07-.047.07-.258.211-.328s.094-.211 0-.211-.141.117-.188.141c-.07.023-.141.023-.258.094-.094.07-.352.047-.234.07.094.023-.164.141-.211.141-.094 0-.07-.164-.07-.234s-.117.047-.117.047-.211-.117-.281-.047-.188.117-.305.211c-.094.07-.328.211-.328.211s.094-.047.234-.07c.164-.047.141-.023.281-.094s.258-.094.375.023c.094.117-.023.188-.023.188s.047.094.117.117c.047.023.047-.023.141-.07s.047.117.07.164c.047.047.117.047.188 0 .07-.07.094-.117.141-.07s.07.141.117.234-.258.117-.328.141c-.07 0-.305.07-.352.07-.047.023-.164.141-.281.141s-.094-.164-.117-.258c0-.094-.117.023-.141.047-.023.047-.141.023-.234.047-.094 0-.258.094-.258.211s.094.164.07.211-.258.094-.352.07-.234.047-.188.094.047.141-.07.117c-.094 0-.094.094-.07.164.047.07-.117.211-.141.141-.047-.047-.117-.07-.117 0s.023.141.117.258c.07.117-.164.164-.281.258-.094.07-.398.352-.539.398s-.141.234-.07.305c.094.07.141.352.188.445s-.023.352-.141.352c-.117-.023-.07-.164-.188-.211s-.188-.281-.211-.445c-.047-.164-.07-.07-.141-.023-.094.047-.164-.117-.188-.141s-.117 0-.211 0c-.07 0-.164.023-.234.023-.164-.023-.211.07-.211.094 0 .047-.023.164-.188.07-.141-.07-.164-.07-.328-.07-.141 0-.281 0-.305.047s-.164.164-.258.188-.281.164-.188.188c.07.023.07.211.023.328s-.047.305-.023.492.188.305.328.422.211.164.352.047.211-.047.234-.023c.047.023.141-.07.117-.188-.047-.117.047-.234.188-.211.047 0 .117 0 .188-.023.07 0 .141-.023.188-.023.117 0 .141.258 0 .375-.164.117-.07.281-.094.398s-.141.141 0 .141.094.023.188.047.164-.07.281-.094c.094 0 .328.211.281.305a.983.983 0 00-.07.469c.047.164.07.164.117.234.023.047.141.164.258.117s.234-.094.281-.141.305.094.281.141c-.023.023.094.07.164.023.094-.023.117-.094.188-.211a.672.672 0 01.281-.211c.047 0 .211-.164.328-.141.094.023-.047.164-.047.234 0 .094 0 .305.047.328.07 0 .047-.164.117-.281.07-.141.211-.188.281-.188s.117.258.211.211c.094-.07.281-.047.328.023.023.07.07.117.07.117s.07-.047.07-.117c0-.094.211-.141.352-.07s.094.094.164.117c.07 0 .141-.164.164-.188.047-.023 0 .211-.094.328-.117.094.07.07.094.117.023.023.047.023.094 0 .047 0 .117 0 .141.023.047.047.164.094.234.258.094.117.211.094.375.07s.375.07.539.258c.164.164.117.305.234.305s.141.141.141.188-.234.164-.352.188c-.141 0-.141.141.07.117.211-.047.117-.117.258-.141.141-.047.258.047.164.211-.141.164-.375.164-.164.188s.094-.047.211-.188c.117-.164.117-.117.188-.117.094 0 .258.047.328.094s.234.141.352.188c.117.07.258.047.328.023s.328.07.398.188c.07.094.258.117.375.164.094.047.234.188.234.328.023.141-.141.422-.141.492-.023.047-.234.305-.422.469s-.07.352-.07.422c.023.07-.141.375-.094.445s-.047.211-.141.328c-.094.094-.141.258-.188.352-.07.094-.234.07-.398.117-.164.023-.234.07-.234.07s-.305.117-.445.234c-.164.117.047.305-.023.445s-.164.141-.234.305c-.047.117-.094.094-.117.07-.023 0-.047-.023-.07 0-.07.047-.117.141-.117.258-.023.094-.141.211-.328.375-.164.164-.281.141-.469.07-.188-.047-.164-.516-.188-.445s-.023.305.023.352c.023.047.117.211.164.234.07.047.047.117 0 .164-.047.07-.211.305-.258.328s-.469.07-.563.023c-.07-.047-.117.094-.117.188.023.094.094.164-.07.141s-.352-.117-.352-.047.047.211.117.211.164-.047.117.047-.141.164-.211.211c-.047.047-.117.164-.258.258s-.141.141-.117.188.234.023.281.047-.047.211-.094.258-.281.234-.375.281-.094.211-.047.328c4.453-1.406 7.781-5.344 8.273-10.125-.117-.094-.047-.211-.07-.328-.023-.141-.164-.188-.094-.211s.047-.094.234-.281c0-.141.023-.281.023-.422v-.094c-.047-.094-.117-.258-.023-.422a11.765 11.765 0 00-2.766-7.125 5.65 5.65 0 01-.398.047c-.094 0-.234.211-.258.258s-.328 0-.422 0-.188.117-.375.141c-.164.023-.094.141-.07.234 0 .094-.047.141-.141.117-.117-.023-.094.047-.117.117s.023.188-.094.281c-.094.07-.141.117-.258.094-.117 0-.117-.211-.141-.188-.047 0-.234.141-.281.07s-.281-.234-.375-.258c-.094-.047-.164-.188-.188-.258-.047-.07.117-.07.07-.07-.047-.023-.211-.047-.258-.094s-.141-.258-.164-.328c0-.07.141-.164.141-.211 0-.023-.141-.023-.188-.023s-.117-.141-.047-.281.211-.094.211-.094h.117c.07 0 .047.164.023.234s.047.07.094.094.07-.07.07-.117c0-.07-.117-.211-.188-.281-.047-.07-.234-.094-.258-.047s-.164.234-.211.188-.047-.445-.117-.563-.328-.141-.445-.211c-.094-.047-.492-.117-.563-.117-.023 0-.094 0-.141.023a.482.482 0 01-.258 0c-.094-.023-.094-.211-.094-.211s-.07.188-.094.234c-.047.047-.141.07-.188.047s-.164-.234-.281-.258h-.117c-.047 0-.094 0-.164-.047-.141-.117.258-.094.281-.094s.328-.07.352-.141c0-.094.094-.188.234-.141.141.023.211-.094.188-.211s.258-.234.305-.164c.047.047.281 0 .211-.117s.281-.211.609-.234.422.023.492.07.281.047.398-.023A11.889 11.889 0 0011.992.304c-3.469 0-6.586 1.5-8.766 3.867z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span data-testid="languageSelectorStatus" class="LanguageSelector--LanguageSelectorStatus--2KFS4"&gt;US&lt;/span&gt;&lt;span class="LanguageSelector--unitDisplay--mr3Rx"&gt;°F&lt;/span&gt;&lt;svg set="ui" name="triangle-up" class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 LanguageSelector--arrowIcon--3LCpZ" theme="light" data-testid="Icon" viewBox="0 0 24 24" style="width: 17px;"&gt;&lt;title&gt;Arrow Up&lt;/title&gt;&lt;path d="M0.235 18.833h23.53l-11.75-13.666-11.779 13.666z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="ctaButton" class="Button--default--2gfm1" type="button" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="Accessibility--visuallyHidden--H7O4p"&gt;User Account Menu&lt;/span&gt;&lt;div class="ProfileAvatar--profileAvatar--mUuwU ProfileAvatar--profileAvatarSmall--1GWl5"&gt;&lt;svg class="Icon--icon--2aW0V Icon--lightTheme--2Ktm2 ProfileAvatar--profileIcon--33DT-" name="user-anonymous" set="nav" theme="light" data-testid="Icon" viewBox="0 0 24 24"&gt;&lt;title&gt;User Anonymous&lt;/title&gt;&lt;path d="M12 0c6.627 0 12 5.373 12 12s-5.373 12-12 12S0 18.627 0 12 5.373 0 12 0zm0 1.35C6.118 1.35 1.35 6.118 1.35 12c0 3.249 1.455 6.159 3.75 8.112V19.8l.005-.213A4.4 4.4 0 019.5 15.4l5.213.005A4.4 4.4 0 0118.9 19.8l.001.312A10.626 10.626 0 0022.65 12c0-5.882-4.768-10.65-10.65-10.65zm0 3.8a4.3 4.3 0 110 8.6 4.3 4.3 0 010-8.6z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://openai.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Pause video" class="ui-button relative inline-block px-16 xs:pt-9 xs:pb-10 lg:pt-10 lg:pb-12 h-44 lg:h-48 bg-inverse text-inverse hover-hover:hover:bg-primary hover-hover:hover:text-primary border border-primary hover-hover:hover:border-primary active:border-primary active:bg-primary active:text-primary f-ui-1 w-44 flex xs:px-0 justify-center md:w-auto md:px-16 z-[300] focus:before:border-inverse" type="button" aria-hidden="true"&gt;&lt;span class="flex items-center justify-center"&gt;&lt;svg data-v-67d7128c="" fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--pause400 a-icon--text a-icon--no-align flex mt-5 md:mt-0 f-ui-1 lg:mt-1 md:-ml-4" data-new="" style="width: 1em; height: 1em;"&gt;&lt;g data-v-67d7128c="" fill="currentColor"&gt;&lt;rect x="9.81" y="2" width="1.38" height="12"&gt;&lt;/rect&gt;&lt;rect x="4.81" y="2" width="1.38" height="12"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;/svg&gt;&lt;span class="ml-8 hidden md:inline f-ui-1"&gt;Pause video&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Play video" class="ui-button relative inline-block px-16 xs:pt-9 xs:pb-10 lg:pt-10 lg:pb-12 h-44 lg:h-48 bg-inverse text-inverse hover-hover:hover:bg-primary hover-hover:hover:text-primary border border-primary hover-hover:hover:border-primary active:border-primary active:bg-primary active:text-primary f-ui-1 w-44 flex xs:px-0 justify-center md:w-auto md:px-16 z-[300] focus:before:border-inverse" type="button" aria-hidden="true"&gt;&lt;span class="flex items-center justify-center"&gt;&lt;svg data-v-67d7128c="" fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--play400 a-icon--text a-icon--no-align flex mt-5 md:mt-0 f-ui-1 lg:mt-1 md:-ml-4" data-new="" style="width: 1em; height: 1em;"&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="2 2 14 8 2 14 2 2"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;span class="ml-8 hidden md:inline f-ui-1"&gt;Play video&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B62" t="b">
+        <v>1</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel1" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;API&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel1" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;API&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Close search panel" class="ui-link group f-ui-1 inline-block relative text-primary relative"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;!----&gt;&lt;span class="underline-transparent underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-text-primary"&gt;Close&lt;/span&gt;&lt;!----&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B64" t="b">
+        <v>1</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel4" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;Company&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel4" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;Company&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B65" t="b">
+        <v>1</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel2" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;ChatGPT&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel2" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;ChatGPT&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Search" class="ui-button relative inline-block px-16 xs:pt-9 xs:pb-10 lg:pt-10 lg:pb-12 h-44 lg:h-48 border border-primary text-primary hover-hover:hover:bg-inverse hover-hover:hover:text-inverse active:bg-inverse active:text-inverse md:block md:w-full xs:w-60 xs:border-0 md:border h-48 f-ui-1 f-ui-1 block absolute top-0 bottom-0 right-0 w-full lg:pt-11" type="submit"&gt;&lt;span class="flex items-center justify-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center justify-center w-full"&gt;Search&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B67" t="b">
+        <v>1</v>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel0" aria-expanded="false"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit underline-transparent"&gt;Research&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-down400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon fill="currentColor" points="8 10.98 3.51 6.49 4.49 5.51 8 9.02 11.51 5.51 12.49 6.49 8 10.98" data-v-67d7128c=""&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>&lt;button class="ui-link group f-ui-1 inline-block relative ui-link--inherit relative" id="navListLabel0" aria-expanded="true"&gt;&lt;span class="flex items-center"&gt;&lt;!--[--&gt;&lt;span class="flex items-center group"&gt;&lt;span class="f-ui-1 pb-4 leading-none underline-thickness-1 underline-offset-4 group-hover:underline group-hover:underline-inherit"&gt;Research&lt;/span&gt;&lt;svg fill="none" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 16 16" class="a-icon--chevron-up400 a-icon--text f-ui-1 a-icon--no-align flex" style="width:1em;height:1em;" data-new="" aria-hidden="true" data-v-67d7128c=""&gt;&lt;polygon data-v-67d7128c="" fill="currentColor" points="11.51 10.49 8 6.98 4.49 10.49 3.51 9.51 8 5.02 12.49 9.51 11.51 10.49"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;/span&gt;&lt;!--]--&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.bing.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>&lt;div class="cdxNudgeCloseBtn " role="button" aria-label="Close" title="Close" tabindex="0"&gt;&lt;svg aria-hidden="true" width="12" height="12" viewBox="0 0 12 12" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M0.806426 0.924754L0.861886 0.861947C1.10221 0.621627 1.48037 0.603141 1.74189 0.806487L1.8047 0.861947L5.99996 5.05669L10.1952 0.861947C10.4556 0.601601 10.8777 0.601601 11.138 0.861947C11.3984 1.1223 11.3984 1.54441 11.138 1.80476L6.94329 6.00002L11.138 10.1953C11.3784 10.4356 11.3968 10.8138 11.1935 11.0753L11.138 11.1381C10.8977 11.3784 10.5196 11.3969 10.258 11.1936L10.1952 11.1381L5.99996 6.94335L1.8047 11.1381C1.54435 11.3984 1.12224 11.3984 0.861886 11.1381C0.60154 10.8778 0.60154 10.4556 0.861886 10.1953L5.05663 6.00002L0.861886 1.80476C0.621566 1.56443 0.60308 1.18628 0.806426 0.924754Z" fill="#919191"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>&lt;div class="cdxNav cdxRightNav" role="button" aria-label="Next suggestion" title="Next suggestion" tabindex="0"&gt;&lt;svg aria-hidden="true" width="9" height="16" viewBox="0 0 9 16" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M0.29289 0.29289C-0.09763 0.68342 -0.09763 1.31658 0.29289 1.70711L6.5858 8L0.29289 14.2929C-0.09763 14.6834 -0.09763 15.3166 0.29289 15.7071C0.68342 16.0976 1.31658 16.0976 1.70711 15.7071L8.7071 8.7071C9.0976 8.3166 9.0976 7.6834 8.7071 7.2929L1.70711 0.29289C1.31658 -0.09763 0.68342 -0.09763 0.29289 0.29289Z" fill="#123BB6"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>&lt;a data-h="ID=HpApp,39127.1" class="rightNav " id="rightNavCaro" role="button" aria-label="More news" title="More news" aria-disabled="false" tabindex="0"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>&lt;div class="b_icon tooltip" role="button" tabindex="0" aria-label="Search using voice" data-sbtipx="Search using voice" data-tooltip="Search using voice" style="height: 100%;"&gt;&lt;svg width="17" height="24" viewBox="0 0 17 24" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M15.9 10.8C16.3556 10.8 16.7322 11.1386 16.7918 11.5778L16.8 11.7V12.3C16.8 16.5713 13.494 20.0705 9.3012 20.378L9.3 23.1C9.3 23.597 8.89704 24 8.4 24C7.94436 24 7.5678 23.6614 7.50816 23.2222L7.5 23.1V20.3782C3.39988 20.0779 0.147396 16.7256 0.00487175 12.5836L0 12.3V11.7C0 11.203 0.402948 10.8 0.9 10.8C1.35564 10.8 1.73219 11.1386 1.79178 11.5778L1.8 11.7V12.3C1.8 15.6924 4.48134 18.4585 7.84032 18.5947L8.1 18.6H8.7C12.0924 18.6 14.8585 15.9187 14.9947 12.5597L15 12.3V11.7C15 11.203 15.403 10.8 15.9 10.8ZM8.4 0C11.0509 0 13.2 2.14903 13.2 4.8V12C13.2 14.6509 11.0509 16.8 8.4 16.8C5.74903 16.8 3.6 14.6509 3.6 12V4.8C3.6 2.14903 5.74903 0 8.4 0ZM8.4 1.8C6.74316 1.8 5.4 3.14315 5.4 4.8V12C5.4 13.6568 6.74316 15 8.4 15C10.0568 15 11.4 13.6568 11.4 12V4.8C11.4 3.14315 10.0568 1.8 8.4 1.8Z" fill="#123BB6"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;div class="cdxNav cdxLeftNav" role="button" aria-label="Previous suggestion" title="Previous suggestion" tabindex="0"&gt;&lt;svg aria-hidden="true" width="9" height="16" viewBox="0 0 9 16" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path d="M8.7071 0.29289C9.0976 0.68342 9.0976 1.31658 8.7071 1.70711L2.41421 8L8.7071 14.2929C9.0976 14.6834 9.0976 15.3166 8.7071 15.7071C8.3166 16.0976 7.6834 16.0976 7.2929 15.7071L0.29289 8.7071C-0.09763 8.3166 -0.09763 7.6834 0.29289 7.2929L7.2929 0.29289C7.6834 -0.09763 8.3166 -0.09763 8.7071 0.29289Z" fill="#123BB6"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B75" t="b">
+        <v>1</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&lt;div id="sb_sbi" tabindex="0" role="button" data-scrtl="1" aria-label="Search using an image" aria-expanded="false" hsevt="1"&gt;&lt;img id="sbi_b" class=" rms_img" role="none" width="24" height="24" src="https://r.bing.com/rp/f21jlSMmEDN43OaavcdaB-7Phq0.svg" data-bm="3"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>&lt;div id="sb_sbi" tabindex="0" role="button" data-scrtl="1" aria-label="Search using an image" aria-expanded="true" hsevt="1"&gt;&lt;img id="sbi_b" class=" rms_img" role="none" width="24" height="24" src="https://r.bing.com/rp/f21jlSMmEDN43OaavcdaB-7Phq0.svg" data-bm="3"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.nytimes.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;button id="desktop-sections-button" data-testid="desktop-section-button" aria-haspopup="dialog" aria-expanded="false" aria-controls="mainList" class="css-jra1lo ea180rp2"&gt;&lt;span class="css-1dv1kvn"&gt;Section Navigation&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;rect x="1" y="3" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="7" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="11" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>&lt;button id="desktop-sections-button" data-testid="desktop-section-button" aria-haspopup="dialog" aria-expanded="true" aria-controls="mainList" class="css-jra1lo ea180rp2"&gt;&lt;span class="css-1dv1kvn"&gt;Section Navigation&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;rect x="1" y="3" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="7" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;rect x="1" y="11" fill="#333" width="14" height="2"&gt;&lt;/rect&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;button disabled="" type="button" aria-label="Previous" class="css-u9thtu" data-testid="Disappearing-Next" tabindex="-1"&gt;&lt;svg viewBox="0 0 26 26"&gt;&lt;circle cx="13" cy="13" r="12.5" stroke="var(--color-stroke-quaternary,#DFDFDF)"&gt;&lt;/circle&gt;&lt;path d="M10.3984 7.7998L15.5984 12.9998L10.3984 18.1998" stroke-width="1.5" fill="none"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[contains(@class, "playIcon-xxs-KwQHyTJf")][contains(@class, "playIconDefaults-r78KaMXm")][contains(@class, "playButtonMouseOver-2p5sfsla")][contains(@class, "transitionDefaults-2fpvWi31")][contains(@class, "[object")][contains(@class, "Object]")][@title="Play Video "Times/Siena Poll Finds Wide Disapproval of Biden on Gaza""][@aria-label="Play Video "Times/Siena Poll Finds Wide Disapproval of Biden on Gaza""] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;button class="playIcon-xxs-KwQHyTJf playIconDefaults-r78KaMXm playButtonMouseOver-2p5sfsla transitionDefaults-2fpvWi31 [object Object]" title="Play Video &amp;quot;Times/Siena Poll Finds Wide Disapproval of Biden on Gaza&amp;quot;" aria-label="Play Video &amp;quot;Times/Siena Poll Finds Wide Disapproval of Biden on Gaza&amp;quot;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;button aria-expanded="false" aria-controls="search-input" class="css-tkwi90 e1iflr850" data-testid="search-button"&gt;&lt;span class="css-1dv1kvn"&gt;SEARCH&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;path fill="#333" d="M11.3,9.2C11.7,8.4,12,7.5,12,6.5C12,3.5,9.5,1,6.5,1S1,3.5,1,6.5S3.5,12,6.5,12c1,0,1.9-0.3,2.7-0.7l3.3,3.3c0.3,0.3,0.7,0.4,1.1,0.4s0.8-0.1,1.1-0.4c0.6-0.6,0.6-1.5,0-2.1L11.3,9.2zM6.5,10.3c-2.1,0-3.8-1.7-3.8-3.8c0-2.1,1.7-3.8,3.8-3.8c2.1,0,3.8,1.7,3.8,3.8C10.3,8.6,8.6,10.3,6.5,10.3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>&lt;button aria-expanded="true" aria-controls="search-input" class="activeSearchButton css-tkwi90 e1iflr850" data-testid="search-button"&gt;&lt;span class="css-1dv1kvn"&gt;SEARCH&lt;/span&gt;&lt;svg aria-hidden="true" class="css-1fe7a5q" viewBox="0 0 16 16"&gt;&lt;path fill="#333" d="M11.3,9.2C11.7,8.4,12,7.5,12,6.5C12,3.5,9.5,1,6.5,1S1,3.5,1,6.5S3.5,12,6.5,12c1,0,1.9-0.3,2.7-0.7l3.3,3.3c0.3,0.3,0.7,0.4,1.1,0.4s0.8-0.1,1.1-0.4c0.6-0.6,0.6-1.5,0-2.1L11.3,9.2zM6.5,10.3c-2.1,0-3.8-1.7-3.8-3.8c0-2.1,1.7-3.8,3.8-3.8c2.1,0,3.8,1.7,3.8,3.8C10.3,8.6,8.6,10.3,6.5,10.3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;button class="vhs-plugin-controls-volume vhs-icon-volume-on" title="Mute" aria-label="Mute"&gt;        &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;button disabled="" type="button" aria-label="Next" class="css-1pvdjg1" data-testid="Disappearing-Next" tabindex="-1"&gt;&lt;svg viewBox="0 0 26 26"&gt;&lt;circle cx="13" cy="13" r="12.5" stroke="var(--color-stroke-quaternary,#DFDFDF)"&gt;&lt;/circle&gt;&lt;path d="M10.3984 7.7998L15.5984 12.9998L10.3984 18.1998" stroke-width="1.5" fill="none"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Next" class="css-1qle2ps" data-testid="Disappearing-Next" tabindex="-1"&gt;&lt;svg viewBox="0 0 26 26"&gt;&lt;circle cx="13" cy="13" r="12.5" stroke="var(--color-stroke-quaternary,#DFDFDF)"&gt;&lt;/circle&gt;&lt;path d="M10.3984 7.7998L15.5984 12.9998L10.3984 18.1998" stroke-width="1.5" fill="none"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Next" class="css-1qle2ps" data-testid="Disappearing-Next" tabindex="-1" disabled=""&gt;&lt;svg viewBox="0 0 26 26"&gt;&lt;circle cx="13" cy="13" r="12.5" stroke="var(--color-stroke-quaternary,#DFDFDF)"&gt;&lt;/circle&gt;&lt;path d="M10.3984 7.7998L15.5984 12.9998L10.3984 18.1998" stroke-width="1.5" fill="none"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>&lt;button class="vhs-plugin-controls-play vhs-icon-play" title="Play Video" aria-label="Play Video"&gt;      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>&lt;button class="vhs-plugin-controls-option vhs-plugin-controls-fullscreen vhs-icon-resize-full" title="Enter Fullscreen" aria-label="Enter Fullscreen"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 bTXTVH ScButtonIcon-sc-9yap0r-0 eSFFfM" aria-label="User Menu"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path fill-rule="evenodd" d="M5 7a5 5 0 1 1 6.192 4.857A2 2 0 0 0 13 13h1a3 3 0 0 1 3 3v2h-2v-2a1 1 0 0 0-1-1h-1a3.99 3.99 0 0 1-3-1.354A3.99 3.99 0 0 1 7 15H6a1 1 0 0 0-1 1v2H3v-2a3 3 0 0 1 3-3h1a2 2 0 0 0 1.808-1.143A5.002 5.002 0 0 1 5 7zm5 3a3 3 0 1 1 0-6 3 3 0 0 1 0 6z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 ScCoreButtonText-sc-ocjdkq-3 bTXTVH fuXDrj"&gt;&lt;div class="ScCoreButtonLabel-sc-s7h2b7-0 gPDjGr"&gt;&lt;div data-a-target="tw-core-button-label-text" class="Layout-sc-1xcs6mc-0 bFxzAY"&gt;&lt;div class="Layout-sc-1xcs6mc-0 cVmNmw"&gt;&lt;div class="Layout-sc-1xcs6mc-0 irAaUW"&gt;&lt;p aria-label="Show more" class="CoreText-sc-1txzju1-0"&gt;Show more&lt;/p&gt;&lt;/div&gt;&lt;div class="ScFigure-sc-wkgzod-0 dqNaAM tw-svg"&gt;&lt;svg width="2rem" height="2rem" viewBox="0 0 20 20"&gt;&lt;path d="M14.5 6.5 10 11 5.5 6.5 4 8l6 6 6-6-1.5-1.5z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="b">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>&lt;button data-a-target="user-menu-toggle" data-test-selector="user-menu__toggle" aria-label="User Menu"&gt;&lt;button class="ScCoreButton-sc-ocjdkq-0 bTXTVH ScButtonIcon-sc-9yap0r-0 eSFFfM" aria-label="User Menu"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path fill-rule="evenodd" d="M5 7a5 5 0 1 1 6.192 4.857A2 2 0 0 0 13 13h1a3 3 0 0 1 3 3v2h-2v-2a1 1 0 0 0-1-1h-1a3.99 3.99 0 0 1-3-1.354A3.99 3.99 0 0 1 7 15H6a1 1 0 0 0-1 1v2H3v-2a3 3 0 0 1 3-3h1a2 2 0 0 0 1.808-1.143A5.002 5.002 0 0 1 5 7zm5 3a3 3 0 1 1 0-6 3 3 0 0 1 0 6z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="b">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Fullscreen (f)" aria-haspopup="menu" data-a-target="player-fullscreen-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path d="M7 3H2v5h2V5h3V3zm11 5V3h-5v2h3v3h2zm-5 9v-2h3v-3h2v5h-5zm-9-5H2v5h5v-2H4v-3z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Exit Fullscreen (f)" aria-haspopup="menu" data-a-target="player-fullscreen-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path d="M8 8V3H6v3H2v2h6zm4 0h6V6h-4V3h-2v5zm0 9v-5h6v2h-4v3h-2zm-4-5H2v2h4v3h2v-5z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;button data-test-selector="StreamTitle" data-a-target="preview-card-title-link" tabindex="-1" lines="1" class="ScCoreLink-sc-16kq0mq-0 bldDUc Layout-sc-1xcs6mc-0 ScCoreLink-sc-bhsr9c-0 htMMdJ lfcZBe tw-link"&gt;&lt;h3 title="🟨LOSING MY MIND🟨" class="CoreText-sc-1txzju1-0 kBMZbI"&gt;🟨LOSING MY MIND🟨&lt;/h3&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/hjune</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Mute (m)" aria-haspopup="menu" data-a-target="player-mute-unmute-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M5 7l4.146-4.146a.5.5 0 01.854.353v13.586a.5.5 0 01-.854.353L5 13H4a2 2 0 01-2-2V9a2 2 0 012-2h1zM14 10a2 2 0 00-2-2v4a2 2 0 002-2z"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Unmute (m)" aria-haspopup="menu" data-a-target="player-mute-unmute-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;path d="M5 7l4.146-4.146a.5.5 0 01.854.353v13.586a.5.5 0 01-.854.353L5 13H4a2 2 0 01-2-2V9a2 2 0 012-2h1zM12 8.414L13.414 7l1.623 1.623L16.66 7l1.414 1.414-1.623 1.623 1.623 1.623-1.414 1.414-1.623-1.623-1.623 1.623L12 11.66l1.623-1.623L12 8.414z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>&lt;button data-test-selector="StreamTitle" data-a-target="preview-card-title-link" tabindex="-1" lines="1" class="ScCoreLink-sc-16kq0mq-0 bldDUc Layout-sc-1xcs6mc-0 ScCoreLink-sc-bhsr9c-0 htMMdJ lfcZBe tw-link"&gt;&lt;h3 title="MR. K MASTERMIND 🚨 NoPixel 4.0 LAUNCH! 🚨 !RPWeek" class="CoreText-sc-1txzju1-0 kBMZbI"&gt;MR. K MASTERMIND 🚨 NoPixel 4.0 LAUNCH! 🚨 !RPWeek&lt;/h3&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/hjune</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B96" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" t="b">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 bTXTVH ScButtonIcon-sc-9yap0r-0 eSFFfM" aria-label="More" data-a-target="ellipsis-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path d="M10 18a2 2 0 1 1 0-4 2 2 0 0 1 0 4zm0-6a2 2 0 1 1 0-4 2 2 0 0 1 0 4zM8 4a2 2 0 1 0 4 0 2 2 0 0 0-4 0z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B97" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" t="b">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 bTXTVH ScButtonIcon-sc-9yap0r-0 eSFFfM" aria-label="Prime offers" data-a-target="prime-offers-icon" data-target="prime-offers-icon"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScFigure-sc-wkgzod-0 bCFHWE tw-svg"&gt;&lt;svg width="100%" height="100%" viewBox="0 0 20 20" focusable="false" aria-hidden="true"&gt;&lt;path fill-rule="evenodd" d="M13.798 10.456 10 6.657l-3.798 3.799L4 8.805V13h12V8.805l-2.202 1.65zM18 5v8a2 2 0 0 1-2 2H4a2.002 2.002 0 0 1-2-2V5l4 3 4-4 4 4 4-3z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Settings" aria-haspopup="menu" data-a-target="player-settings-button"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M10 8a2 2 0 100 4 2 2 0 000-4z"&gt;&lt;/path&gt;&lt;path fill-rule="evenodd" d="M9 2h2a2.01 2.01 0 001.235 1.855l.53.22a2.01 2.01 0 002.185-.439l1.414 1.414a2.01 2.01 0 00-.439 2.185l.22.53A2.01 2.01 0 0018 9v2a2.01 2.01 0 00-1.855 1.235l-.22.53a2.01 2.01 0 00.44 2.185l-1.415 1.414a2.01 2.01 0 00-2.184-.439l-.531.22A2.01 2.01 0 0011 18H9a2.01 2.01 0 00-1.235-1.854l-.53-.22a2.009 2.009 0 00-2.185.438L3.636 14.95a2.009 2.009 0 00.438-2.184l-.22-.531A2.01 2.01 0 002 11V9c.809 0 1.545-.487 1.854-1.235l.22-.53a2.009 2.009 0 00-.438-2.185L5.05 3.636a2.01 2.01 0 002.185.438l.53-.22A2.01 2.01 0 009 2zm-4 8l1.464 3.536L10 15l3.535-1.464L15 10l-1.465-3.536L10 5 6.464 6.464 5 10z" clip-rule="evenodd"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>&lt;button data-test-selector="StreamTitle" data-a-target="preview-card-title-link" tabindex="-1" lines="1" class="ScCoreLink-sc-16kq0mq-0 bldDUc Layout-sc-1xcs6mc-0 ScCoreLink-sc-bhsr9c-0 htMMdJ lfcZBe tw-link"&gt;&lt;h3 title="BACK FROM DR 🌴 FANUM 🌴 WANUM 🌴 SICK (kinda) 🌴 REDDIT 🌴 D10 🌴 PO BOX OPENING?🌴 W STREAMER 🌴 THE TROUPE 🌴  !socials !pobox !D10" class="CoreText-sc-1txzju1-0 kBMZbI"&gt;BACK FROM DR 🌴 FANUM 🌴 WANUM 🌴 SICK (kinda) 🌴 REDDIT 🌴 D10 🌴 PO BOX OPENING?🌴 W STREAMER 🌴 THE TROUPE 🌴  !socials !pobox !D10&lt;/h3&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/hjune</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>&lt;button data-test-selector="StreamTitle" data-a-target="preview-card-title-link" tabindex="-1" lines="1" class="ScCoreLink-sc-16kq0mq-0 bldDUc Layout-sc-1xcs6mc-0 ScCoreLink-sc-bhsr9c-0 htMMdJ lfcZBe tw-link"&gt;&lt;h3 title="Cornwood - GTA RP" class="CoreText-sc-1txzju1-0 kBMZbI"&gt;Cornwood - GTA RP&lt;/h3&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.twitch.tv/hjune</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>&lt;button class="ScCoreButton-sc-ocjdkq-0 caieTg ScButtonIcon-sc-9yap0r-0 dOOPAe" aria-label="Play (space/k)" aria-haspopup="menu" data-a-target="player-play-pause-button" data-a-player-state="paused"&gt;&lt;div class="ButtonIconFigure-sc-1emm8lf-0 fjwcvR"&gt;&lt;div class="ScIconLayout-sc-1q25cff-0 cASLMj"&gt;&lt;div class="ScAspectRatio-sc-18km980-1 doeqbO tw-aspect"&gt;&lt;div class="ScAspectSpacer-sc-18km980-0 bIDIFh"&gt;&lt;/div&gt;&lt;svg width="100%" height="100%" version="1.1" viewBox="0 0 20 20" x="0px" y="0px" aria-hidden="true" focusable="false" class="ScIconSVG-sc-1q25cff-1 jpczqG"&gt;&lt;g&gt;&lt;path d="M5 17.066V2.934a.5.5 0 01.777-.416L17 10 5.777 17.482A.5.5 0 015 17.066z"&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>&lt;button id="suggestion-search-button" type="submit" aria-label="Submit Search" class="nav-search__search-submit searchform__submit"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--magnify" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M15.5 14h-.79l-.28-.27a6.5 6.5 0 0 0 1.48-5.34c-.47-2.78-2.79-5-5.59-5.34a6.505 6.505 0 0 0-7.27 7.27c.34 2.8 2.56 5.12 5.34 5.59a6.5 6.5 0 0 0 5.34-1.48l.27.28v.79l4.25 4.25c.41.41 1.08.41 1.49 0 .41-.41.41-1.08 0-1.49L15.5 14zm-6 0C7.01 14 5 11.99 5 9.5S7.01 5 9.5 5 14 7.01 14 9.5 11.99 14 9.5 14z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/find/?q=&amp;ref_=nv_sr_sm</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>&lt;div class="ipc-watchlist-ribbon ipc-focusable ipc-watchlist-ribbon--l ipc-watchlist-ribbon--baseAlt ipc-watchlist-ribbon--onImage ipc-poster__watchlist-ribbon ipc-poster__watchlist-ribbon" aria-label="add to watchlist" role="button" tabindex="0"&gt;&lt;svg class="ipc-watchlist-ribbon__bg" width="24px" height="34px" viewBox="0 0 24 34" xmlns="http://www.w3.org/2000/svg" role="presentation"&gt;&lt;polygon class="ipc-watchlist-ribbon__bg-ribbon" fill="#000000" points="24 0 0 0 0 32 12.2436611 26.2926049 24 31.7728343"&gt;&lt;/polygon&gt;&lt;polygon class="ipc-watchlist-ribbon__bg-hover" points="24 0 0 0 0 32 12.2436611 26.2926049 24 31.7728343"&gt;&lt;/polygon&gt;&lt;polygon class="ipc-watchlist-ribbon__bg-shadow" points="24 31.7728343 24 33.7728343 12.2436611 28.2926049 0 34 0 32 12.2436611 26.2926049"&gt;&lt;/polygon&gt;&lt;/svg&gt;&lt;div class="ipc-watchlist-ribbon__icon" role="presentation"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--add ipc-icon--inline" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path d="M18 13h-5v5c0 .55-.45 1-1 1s-1-.45-1-1v-5H6c-.55 0-1-.45-1-1s.45-1 1-1h5V6c0-.55.45-1 1-1s1 .45 1 1v5h5c.55 0 1 .45 1 1s-.45 1-1 1z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.imdb.com/registration/signin?u=%2Ftaskcompletion%2Fredeem%3Ftasktoken%3DeyJ0b2tlbklkZW50aWZpZXIiOiIxMzEtMzA1NDY2My05MzM3ODY5IiwidG9rZW5JZGVudGlmaWVyVHlwZSI6IlNFU1NJT05fSUQiLCJhY3Rpb25EYXRhIjp7InRhcmdldENvbnN0IjoidHQxOTYzNzA1MiIsInJhdGluZ1ZhbHVlIjpudWxsLCJwYWdlVHlwZSI6bnVsbCwic3ViUGFnZVR5cGUiOm51bGx9LCJhY3Rpb24iOiJhZGRUb1dhdGNobGlzdCIsInRpbWVzdGFtcCI6MTcwMzI2MzI1NTcxMSwicmV0dXJuVVJMIjoiLyJ9%26ref_%3Dhm_vi_wl_rbn_hero-video-1_1</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B106" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" t="b">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>&lt;label id="imdbHeader-navDrawerOpen" class="ipc-responsive-button ipc-btn--theme-baseAlt ipc-responsive-button--transition-l ipc-btn--on-textPrimary ipc-responsive-button--single-padding sc-jNnpTB dTBLoU hamburger__icon" role="button" tabindex="0" aria-label="Open Navigation Drawer" aria-disabled="false" for="imdbHeader-navDrawer"&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--menu ipc-responsive-button__icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M4 18h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zm0-5h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1s.45 1 1 1zM3 7c0 .55.45 1 1 1h16c.55 0 1-.45 1-1s-.45-1-1-1H4c-.55 0-1 .45-1 1z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;span class="ipc-responsive-button__text"&gt;Menu&lt;/span&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B107" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>&lt;label class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-base ipc-btn--theme-base ipc-btn--on-textPrimary ipc-text-button navbar__flyout__text-button-after-mobile searchCatSelector__opener searchform__categories nav-search-form__categories" role="button" tabindex="0" aria-label="All" aria-disabled="false" for="navbar-search-category-select"&gt;&lt;span class="ipc-btn__text"&gt;All&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--arrow-drop-down ipc-btn__icon ipc-btn__icon--post navbar__flyout__text-button-post-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M8.71 11.71l2.59 2.59c.39.39 1.02.39 1.41 0l2.59-2.59c.63-.63.18-1.71-.71-1.71H9.41c-.89 0-1.33 1.08-.7 1.71z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B108" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" t="b">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>&lt;label class="ipc-btn ipc-btn--single-padding ipc-btn--center-align-content ipc-btn--default-height ipc-btn--core-baseAlt ipc-btn--theme-baseAlt ipc-btn--on-textPrimary ipc-text-button navbar__flyout__text-button-after-mobile" role="button" tabindex="0" aria-label="Toggle language selector" aria-disabled="false" for="nav-language-selector"&gt;&lt;span class="ipc-btn__text"&gt;EN&lt;/span&gt;&lt;svg xmlns="http://www.w3.org/2000/svg" width="24" height="24" class="ipc-icon ipc-icon--arrow-drop-down ipc-btn__icon ipc-btn__icon--post navbar__flyout__text-button-post-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path fill="none" d="M0 0h24v24H0V0z"&gt;&lt;/path&gt;&lt;path d="M8.71 11.71l2.59 2.59c.39.39 1.02.39 1.41 0l2.59-2.59c.63-.63.18-1.71-.71-1.71H9.41c-.89 0-1.33 1.08-.7 1.71z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/label&gt;</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="b">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;div class="sc-57727bb1-7 csJerw swiper-button-next" tabindex="0" role="button" aria-label="Next slide"&gt;&lt;div class="sc-57727bb1-9 jQoqBQ swiper-buttons ipc-pager ipc-pager--visible ipc-pager--right ipc-pager--large" role="presentation"&gt;&lt;svg width="24" height="24" xmlns="http://www.w3.org/2000/svg" class="ipc-icon ipc-icon--chevron-right-inline ipc-icon--inline ipc-pager-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path d="M5.622.631A2.153 2.153 0 0 0 5 2.147c0 .568.224 1.113.622 1.515l8.249 8.34-8.25 8.34a2.16 2.16 0 0 0-.548 2.07c.196.74.768 1.317 1.499 1.515a2.104 2.104 0 0 0 2.048-.555l9.758-9.866a2.153 2.153 0 0 0 0-3.03L8.62.61C7.812-.207 6.45-.207 5.622.63z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B110" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" t="b">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;div class="sc-57727bb1-8 bcbJAq swiper-button-prev" tabindex="0" role="button" aria-label="Previous slide"&gt;&lt;div class="sc-57727bb1-9 jQoqBQ swiper-buttons ipc-pager ipc-pager--visible ipc-pager--left ipc-pager--large" role="presentation"&gt;&lt;svg width="24" height="24" xmlns="http://www.w3.org/2000/svg" class="ipc-icon ipc-icon--chevron-left-inline ipc-icon--inline ipc-pager-icon" viewBox="0 0 24 24" fill="currentColor" role="presentation"&gt;&lt;path d="M18.378 23.369c.398-.402.622-.947.622-1.516 0-.568-.224-1.113-.622-1.515l-8.249-8.34 8.25-8.34a2.16 2.16 0 0 0 .548-2.07A2.132 2.132 0 0 0 17.428.073a2.104 2.104 0 0 0-2.048.555l-9.758 9.866A2.153 2.153 0 0 0 5 12.009c0 .568.224 1.114.622 1.515l9.758 9.866c.808.817 2.17.817 2.998-.021z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>&lt;button class="quiz__close dcdbsde__r9af9t" title="Скрыть"&gt;&lt;svg height="20" width="20" class="dcdbsde__r9af9t"&gt;&lt;use xlink:href="#dc81cbd4c0b8.svg?sprite"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>&lt;button class="floors-v3__button-38 base-button__rootElement-12  base-button__l-2a  base-button__regular--M" aria-label="" tabindex="0"&gt;&lt;span class=" base-button__leftIconContainer-3f floors-v3__iconButton-21 base-button__leftContent-3l"&gt;&lt;svg viewBox="0 0 24 24" width="24" height="24"&gt;&lt;use xlink:href="#arrow_right_d9b7--react"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;span class=" base-button__childrenContent-DJ"&gt;&lt;a class="ad-link__adLink-MN" href="https://t.mail.ru/redir/AADi9wE7WyegILHekyjhMPJyAP-CcbnrLFG6gyAiWLIbB4yN-iA9bvu3eAZ3alalHaOoYhmA9EZ-T9fF-_twEt-kEP8r5qFo3KSP-Arhjc3ZVzWLlkiV_3M_uJGCQp_QL2uGCoDMa648tI0ZRpdf9RguF69CyBkgf4EtEOFWXcVErfqbIBwcaBzEBAAA1G-xCpjdNdMV-0VfxqOjrjeysu6offcNoz3cYoCiZxqvP50dr1x_AQv915tJT2U58Bcm-2Sq20yj9lX4h7hcAeCe05JAMHec3TFoHws4knub6XZYsk119IviGO7G9-TkDVDH9PsrzHpKnEtIbwuN_zB6L8Fp_R27t8KEiTYroGHfLdzyv3f6Dxm5LhyyUKsLf6WBdts5UrEwuHS7yWahr4sghFW40pSvsf0HJ8A27SNdkvlO4aoidPh-uwETiykcVw2BOVO9WiDrNibekjgmyTjdsd0lBNExqrvyrylaRa_ioYMzP_xH07P5WtmI5HvB-k53gvJdPmTCpH7C7ygYMLU0S4gR5WSuj_-b7z4zEcxM9bVUjbxX09CHK3V13IFa55MMosVZcVsaQdZyPclnoswPsaDIa7ehPJrFjKdsHKWTOSPwPFdkr6C2qqLeQ_ssFwbCep-MuZirs0tpSPisHE0VAqMLMhdITIxqmCT1e3urWLN6MMBxlzXL8txehjMz1Sc0NqXoy0Ym4sBiHqRXKu19fiTLfl6XCppsiNbXzHykCU8Bm2R6-kFUi-V1UV0JnDvK7sjWJhF0c3QT4stJJ6Ww5g-HJJmJtTKZUkj8_7jcjh-Vrbms2072ewOGLiXA4Thd9XuXchnz65xQg_VThmRGitYn1_EmjT7owahjle-J9QocB1D-A2PP16rs4hT1xlTegDOokyT8yVH7iAbJEB-22Z-vApIPFJM_PTRYlIQzvq1udw4qJGEhFk-sFGak9xZFJtgsIcEux1ShVp6V7ude0RW77lUSNwgXRe1tE8w5yCdBPnMBRfZ_5mjWrBi0i0St_Z9thnkd-MZ9ySRJbbNLE_-Ezq1Z58KIOIznEuqar0_j2NPsf4uezB-9282dM9ThHFIBV7zQFRfBa84bre6Qkda4OZi4LhNvG8sSAMn4CGBJwYYglKD73fgdbAAk0eoSdwqW3_s8-Zu9bmkLGh2NpOKKZhst0VwzAt-4fZcLwZXjV7WEDElheS68IVeZhV1IBrNVVUqoRzd48sVvy1TAO4WdJo2YAxDisC85hEOZx6NtMm_-FXViBFKm7qABI37S9RL_92ZXHG-sYVwTNF4V_l3KhXE-wtwg9o2UuELdYd2y2PyMHQFkrmos18K41Qkus4uqpafNzNNmlnlf_20wKaZzhlrYPbCHMegw1iv39I_030QjBderdVJ7mubMHti0UZFoJ7RiuK3YKxXA535cCyXdVTUYqzn2Ktjuv5um95s8adhIvvBB3q0xqDjf-C2wrCdciZgQ1LlTZAfucnEl1-lUVna_JcQr8YuZXcuj5FxngrcUyBej25Y_osFgr6vOZqsNR8EohW6mIm2xV2kKTozQE7tWAMAuhBx1QTlq2FfKFqwGDUMhPyUPejQi5_ES7G3V8y2Hzi1yC3GGGA_CFDI3_9nMtvEL-ZbkIKeNnzAUz9nuYaW35lm_7wYeSZ_A0B405ac3KqbvRSyuiFqacOOzmZ67Lu_pNpZ2IwYxccH58ePQKhWXoiqUuZ4FQQ8Je7fEDgRaiLRFwFjmw16gxGli3War7NlEthZwjllvJDMRhnq5a9J86IMADH37_mzci3JC1dwR8gPMx-UqjmrHDlkf4jUfyW3KDwHezoE:2VtzqxRkJxc" target="_blank" rel="noreferrer"&gt;&lt;/a&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;button class="floors-v3__button-38 base-button__rootElement-12  base-button__l-2a  base-button__regular--M" aria-label="" tabindex="0"&gt;&lt;span class=" base-button__leftIconContainer-3f floors-v3__iconButton-21 base-button__leftContent-3l"&gt;&lt;svg viewBox="0 0 24 24" width="24" height="24"&gt;&lt;use xlink:href="#arrow_right_d9b7--react"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;span class=" base-button__childrenContent-DJ"&gt;&lt;a class="ad-link__adLink-MN" href="https://t.mail.ru/redir/AADi9wFiuaUoNfr3F7NQ12op4YdjvE2DGVn0Y8GvdUTH3KmVFvs5u7VztSJ3GgWpSv3S7Gg_KNGoHjGPs7C0jofBQyQuzclnYES201iArR3DeYuLgiO8GQhAR_xna-RMWAAhUd9ciAkreJ3a1qezi0BcwZpOkYFu9QNwRA4CBsRff7FwSD8U5DvEBAAAu4h_u3X5G2gH6EoLgre7TiCIPgITPNkldaazHrCwKd_Vwv5XYt7Gz6D5iEU0bDweGRgsVfCWEnVBxSFMIPgLwlBeX_-JNWcKas6t4yUcn8n324oJMFlqBmEo9L-cv-E2bIlaoWFaYAVL8y_2nz17VIujioEgPrjIXQQK282N5iGDU2sGKX2mhfNl1IcQU6a3JR9lMSyYf-J4TduSm2uaINJpRbGup464KU4z13U6F9B2pcUTeDYei_5VLrW3YqUmxmCvm_TqMrNApyTliQIRqBdFcV194k0RCUwB6RUR6LTWekHq7q0a0MvgB6QI-_c7z-3lCJmF9JXD-1J3frta01-24Ib_LQAu5D-PeTLz-ef573_biy9SXVWEuzNOhi6VX6_eTY25ekfNTKIFzM42_QGqghjYFIx8E9qlxIknczx6GaK6Vs4cerfK4LhNz6lveD8544NYuqnq960ayH2AigChQaUQgruwnHOJzZMZ_CdJE63A1XWC9fZCU54XI3fPNFqqiOSsA2L7kqdAeZSADX6TmHfFaZKPD0sED-RFsLdB4rHMLAe9AHOXbzXgX1NsNAc7bO0OM8wUg09qQ1mtoz3MG2fPmWKE3tDMMPp7yxaviGVSBNiFjvrni0oAXzPgZyIpMqxesG_NHu6JpSWcEgprIGjeXvRuj5m4HR8Db3AamnJnV3VkIWtcjTRAKljrVMRtQ7p7ALiqHFpEogo-wrk87W9fns6l1QzF98S5f48TQAqbRuDxWsHxns9d0Ui_mTqbcZwD3dokb1UQRXBIkrOIgp99rTdqTjLm_4GCO6hYFdOyyn4mimaeLfB6xqUeRZWGv401_2wfLQKeMONCryjMdMXn-fhGkY6Aoin_-NTs1pzB_dVvpri_rQfZEGjKg2FZxjf3CwuKRDGNb0r3BSrQcvEONpW1kZBAe--wcQLFL3cWROoUQCikKYp76xkP8E2YVAw86XgFflWNyBktstUoD0LpcLdWwf_MPupDX9jFpaWLoOCtsqt_5FVMFlNPlGFfvbdG2988-CE2VtTnr3de8rPPv9w0Si5-71iYPcAW2FKqWGsV5CInQOj9Sp6ULyMIK8n2spAriZmIv3n-S15GPiZMSfdC11lViF-jynYX-cPUdQPSVVTXNmnLz2hLR-vXtLMd4xShohC3ZmPdFoZyCpGpBW6R04gau-KcyHVuTQcPUSKLvfqJkyejWLFEBzHPnN6LMziPnIT3c29Uh6CEcveuhuuOFupl1TFL_59QUGJ0M1EOo94Gk9bY5GW3Uc6zmubUDFZJmH8h7D4JN05iBoKcggt56QGKjZ-o_UhtQW2MpUYNoiz0V5XGv17RDf6o7JtKjCb8Fe8lk4GzzZXxaxfzogtCdhEYLpjEE32bqJlmAAfqM_y3FcLo4jXLdpxwOZiuwKBiXUzsqT_a-q-R9lxOgPrFFII3mc5Cr37ZJI_98TNoikmiQkHVkl3ZQOH58BdDPDOikMBLoP1-AOUvDxsOFrqV6V_7mmaT7oHlFdPHIIxNzIUlwra8B_9BpyjFyxCjkFAS1W2X0c6LR2hD6oh7-wKjs9hy4jGr1Phx6dw6kL_ZGDndIe6eVC-JMr9Zn5JpMuX8CBYfoiV6D-yAv3v__n5Cx4VcrYtotbM:2VtzqxRkJxc" target="_blank" rel="noreferrer"&gt;&lt;/a&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>&lt;button class=" base-button__rootElement-12  base-button__l-2a  base-button__media-3q" type="button" tabindex="0"&gt;&lt;span class=" base-button__leftIconContainer-3f  base-button__leftContent-3l"&gt;&lt;svg viewBox="0 0 24 24" width="24" height="24"&gt;&lt;use xlink:href="#articles_e75e--react"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;span class=" base-button__childrenContent-DJ"&gt;Читать&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://mail.ru/</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" t="b">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;button class="ph-project svelte-fxwh2g" data-click-counter="66843940, 61021872" aria-expanded="false"&gt;&lt;div class="ph-project__all-projects-text svelte-fxwh2g"&gt;Все проекты&lt;/div&gt; &lt;svg width="14" height="14" viewBox="0 0 14 14" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path fill-rule="evenodd" clip-rule="evenodd" d="M0 1.735C0 1.047 0 .703.162.455A1 1 0 0 1 .454.161C.704 0 1.047 0 1.735 0s1.032 0 1.28.162a1 1 0 0 1 .293.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292C0 2.767 0 2.423 0 1.735ZM0 7c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293c.25-.162.593-.162 1.281-.162s1.032 0 1.28.162a1 1 0 0 1 .293.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292C0 8.032 0 7.688 0 7Zm.162 3.984C0 11.233 0 11.577 0 12.264c0 .689 0 1.033.162 1.282a1 1 0 0 0 .292.292c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292c.162-.25.162-.593.162-1.281s0-1.032-.162-1.281a1 1 0 0 0-.292-.292c-.249-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Zm5.103-9.249c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293C5.968 0 6.312 0 7 0c.689 0 1.033 0 1.282.162a1 1 0 0 1 .292.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.25.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.249-.162-.593-.162-1.281Zm.162 3.984c-.162.25-.162.593-.162 1.281s0 1.032.162 1.28a1 1 0 0 0 .292.293c.249.162.593.162 1.28.162.689 0 1.033 0 1.282-.162a1 1 0 0 0 .292-.292c.162-.249.162-.593.162-1.281s0-1.032-.162-1.28a1 1 0 0 0-.292-.293c-.25-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Zm-.162 6.546c0-.688 0-1.032.162-1.281a1 1 0 0 1 .292-.292c.249-.162.593-.162 1.28-.162.689 0 1.033 0 1.282.162a1 1 0 0 1 .292.292c.162.249.162.593.162 1.28 0 .689 0 1.033-.162 1.282a1 1 0 0 1-.292.292C8.03 14 7.688 14 7 14s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.25-.162-.593-.162-1.281ZM10.692.455c-.162.248-.162.592-.162 1.28 0 .688 0 1.032.162 1.28a1 1 0 0 0 .292.293c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292C14 2.767 14 2.423 14 1.735s0-1.032-.162-1.28a1 1 0 0 0-.292-.293C13.297 0 12.953 0 12.265 0s-1.032 0-1.28.162a1 1 0 0 0-.293.292ZM10.53 7c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293c.25-.162.593-.162 1.281-.162s1.032 0 1.28.162a1 1 0 0 1 .293.292C14 5.97 14 6.312 14 7s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.249-.162-.593-.162-1.281Zm.162 3.984c-.162.249-.162.593-.162 1.28 0 .689 0 1.033.162 1.282a1 1 0 0 0 .292.292c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292c.162-.25.162-.593.162-1.281s0-1.032-.162-1.281a1 1 0 0 0-.292-.292c-.249-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Z" fill="#A5A7AD"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>&lt;button class="ph-project svelte-fxwh2g ph-project_open" data-click-counter="66843940, 61021872" aria-expanded="true"&gt;&lt;div class="ph-project__all-projects-text svelte-fxwh2g"&gt;Все проекты&lt;/div&gt; &lt;svg width="14" height="14" viewBox="0 0 14 14" fill="none" xmlns="http://www.w3.org/2000/svg"&gt;&lt;path fill-rule="evenodd" clip-rule="evenodd" d="M0 1.735C0 1.047 0 .703.162.455A1 1 0 0 1 .454.161C.704 0 1.047 0 1.735 0s1.032 0 1.28.162a1 1 0 0 1 .293.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292C0 2.767 0 2.423 0 1.735ZM0 7c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293c.25-.162.593-.162 1.281-.162s1.032 0 1.28.162a1 1 0 0 1 .293.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292C0 8.032 0 7.688 0 7Zm.162 3.984C0 11.233 0 11.577 0 12.264c0 .689 0 1.033.162 1.282a1 1 0 0 0 .292.292c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292c.162-.25.162-.593.162-1.281s0-1.032-.162-1.281a1 1 0 0 0-.292-.292c-.249-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Zm5.103-9.249c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293C5.968 0 6.312 0 7 0c.689 0 1.033 0 1.282.162a1 1 0 0 1 .292.292c.162.25.162.593.162 1.281s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.25.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.249-.162-.593-.162-1.281Zm.162 3.984c-.162.25-.162.593-.162 1.281s0 1.032.162 1.28a1 1 0 0 0 .292.293c.249.162.593.162 1.28.162.689 0 1.033 0 1.282-.162a1 1 0 0 0 .292-.292c.162-.249.162-.593.162-1.281s0-1.032-.162-1.28a1 1 0 0 0-.292-.293c-.25-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Zm-.162 6.546c0-.688 0-1.032.162-1.281a1 1 0 0 1 .292-.292c.249-.162.593-.162 1.28-.162.689 0 1.033 0 1.282.162a1 1 0 0 1 .292.292c.162.249.162.593.162 1.28 0 .689 0 1.033-.162 1.282a1 1 0 0 1-.292.292C8.03 14 7.688 14 7 14s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.25-.162-.593-.162-1.281ZM10.692.455c-.162.248-.162.592-.162 1.28 0 .688 0 1.032.162 1.28a1 1 0 0 0 .292.293c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292C14 2.767 14 2.423 14 1.735s0-1.032-.162-1.28a1 1 0 0 0-.292-.293C13.297 0 12.953 0 12.265 0s-1.032 0-1.28.162a1 1 0 0 0-.293.292ZM10.53 7c0-.688 0-1.032.162-1.28a1 1 0 0 1 .292-.293c.25-.162.593-.162 1.281-.162s1.032 0 1.28.162a1 1 0 0 1 .293.292C14 5.97 14 6.312 14 7s0 1.032-.162 1.28a1 1 0 0 1-.292.293c-.249.162-.593.162-1.281.162s-1.032 0-1.28-.162a1 1 0 0 1-.293-.292c-.162-.249-.162-.593-.162-1.281Zm.162 3.984c-.162.249-.162.593-.162 1.28 0 .689 0 1.033.162 1.282a1 1 0 0 0 .292.292c.25.162.593.162 1.281.162s1.032 0 1.28-.162a1 1 0 0 0 .293-.292c.162-.25.162-.593.162-1.281s0-1.032-.162-1.281a1 1 0 0 0-.292-.292c-.249-.162-.593-.162-1.281-.162s-1.032 0-1.28.162a1 1 0 0 0-.293.292Z" fill="#A5A7AD"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B118" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" t="b">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Меню" aria-haspopup="false" aria-expanded="false" class="zen-ui-button-icon _size_m _theme_black _view-role_withoutBgHover floors-v3__kebabBtn-1J"&gt;&lt;span class="zen-ui-button-icon__content"&gt;&lt;span class="zen-ui-button-icon__icon"&gt;&lt;svg class="zen-ui-generic-svg zen-ui-card-block-icon-view _theme_black _view-type_default" width="16" height="16" viewBox="0 0 24 24"&gt;&lt;use x="0" y="0" width="24" height="24" class="zen-ui-generic-svg__use" xlink:href="#dots_vertical_298c--inline"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/span&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B119" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" t="b">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>&lt;button class="quiz__start dcdbsde__r9af9t"&gt;&lt;span class="dcdbsde__r9af9t"&gt;Начать тест&lt;/span&gt; &lt;svg height="20" width="20" class="dcdbsde__r9af9t"&gt;&lt;use xlink:href="#spinner_20.svg?sprite"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: The result of the xpath expression ".." is: [object HTMLDocument]. It should be an element.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>&lt;div class="cmplanguage" id="cmplanguage" title="Language: en" role="button" draggable="false" tabindex="0"&gt;&lt;img class="cmplangicon" src="//cdn.consentmanager.net/delivery/flags/en.gif" width="16" height="11" aria-hidden="true" alt="Language: en" title="Language: en" data-cmp-ab="1" loading="lazy"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>&lt;button class="zen-ui-video-video-controls__sound-redesign-button" aria-label="Включить звук"&gt;&lt;svg class="zen-ui-generic-svg zen-ui-video-svg-icon _display_inline zen-ui-video-video-controls__sound-redesign-icon" width="24" height="24" viewBox="0 0 24 24"&gt;&lt;use x="0" y="0" width="24" height="24" class="zen-ui-generic-svg__use" xlink:href="#sound-false_be5a--inline"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Включить звук" type="button" class="zen-ui-video-video-mute-toggle__button _is-muted"&gt;&lt;svg class="zen-ui-generic-svg zen-ui-video-svg-icon _display_block" width="24" height="24" viewBox="0 0 24 24"&gt;&lt;use x="0" y="0" width="24" height="24" class="zen-ui-generic-svg__use" xlink:href="#unmute-button_1210--inline"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.naver.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>&lt;button id="ke_kbd_btn" type="button" class="btn_keyboard" aria-pressed="false"&gt; &lt;span class="keybord_text"&gt; &lt;span class="blind"&gt;입력도구&lt;/span&gt; &lt;/span&gt; &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>&lt;button id="ke_kbd_btn" type="button" class="btn_keyboard" aria-pressed="true"&gt; &lt;span class="keybord_text"&gt; &lt;span class="blind"&gt;입력도구&lt;/span&gt; &lt;/span&gt; &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[@type="submit"][contains(@class, "btn_search")][@onclick="window.nclk_v2(this,"sch.action")"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>&lt;button type="submit" class="btn_search" onclick="window.nclk_v2(this,&amp;quot;sch.action&amp;quot;)"&gt; &lt;span class="ico_btn_search_svg"&gt; &lt;svg id="search-btn" viewBox="0 0 50 50" xmlns="http://www.w3.org/2000/svg" class="ico_btn_search type_color" style="fill: #ae626c"&gt; &lt;path d="M22.13.5c11.378 0 20.632 9.256 20.632 20.63 0 4.699-1.566 9.155-4.439 12.782l10.164 10.165a2.41 2.41 0 0 1-1.706 4.115 2.412 2.412 0 0 1-1.706-.705L33.31 35.719a2.41 2.41 0 0 1 0-3.41 15.71 15.71 0 0 0 4.628-11.178c0-8.718-7.09-15.808-15.807-15.808-8.718 0-15.808 7.09-15.808 15.808 0 7.15 4.817 13.43 11.714 15.273a2.41 2.41 0 0 1 1.705 2.954 2.41 2.41 0 0 1-2.95 1.705C7.788 38.658 1.5 30.46 1.5 21.131 1.5 9.756 10.756.5 22.13.5zm4.716 34.746a3.483 3.483 0 1 1 0 6.966 3.483 3.483 0 0 1 0-6.966z"&gt;&lt;/path&gt; &lt;/svg&gt; &lt;/span&gt; &lt;span class="blind"&gt;검색&lt;/span&gt; &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B127" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" t="b">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="DailyBoardView-module__btn_refresh___YFJ90"&gt;&lt;span class="blind"&gt;새로고침&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="ContentPagingView-module__btn_prev___JaBFN"&gt;&lt;span class="blind"&gt;이전 페이지&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="ContentPagingView-module__btn_view_list___j7eNR" role="radio" aria-checked="false"&gt;&lt;span class="blind"&gt;리스트형&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B130" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="ContentPagingView-module__btn_view_thumb___zZhgR" role="radio" aria-checked="true"&gt;&lt;span class="blind"&gt;썸네일형&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B131" t="b">
+        <v>1</v>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="DailyBoardView-module__btn_info___Vnd0i" aria-expanded="false" aria-pressed="false"&gt;&lt;span class="blind"&gt;정보 더보기&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="DailyBoardView-module__btn_info___Vnd0i" aria-expanded="true" aria-pressed="true"&gt;&lt;span class="blind"&gt;정보 더보기&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B132" t="b">
+        <v>0</v>
+      </c>
+      <c r="C132" t="b">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="ContentPagingView-module__btn_next___ZBhby"&gt;&lt;span class="blind"&gt;다음 페이지&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B133" t="b">
+        <v>0</v>
+      </c>
+      <c r="C133" t="b">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="FeedView-module__btn_more___zGfeT"&gt;펼쳐보기&lt;i class="FeedView-module__ico_plus___dMU_U"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B134" t="b">
+        <v>1</v>
+      </c>
+      <c r="C134" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_talk" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;톡&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_talk" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;톡&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B135" t="b">
+        <v>1</v>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_notify" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;알림&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="btn_notify" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;알림&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B136" t="b">
+        <v>1</v>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;button id="topAsideButton" type="button" class="btn_menu" aria-haspopup="menu" aria-expanded="false"&gt;&lt;span class="blind"&gt;확장 영역&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>&lt;button id="topAsideButton" type="button" class="btn_menu" aria-haspopup="menu" aria-expanded="true"&gt;&lt;span class="blind"&gt;확장 영역&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B137" t="b">
+        <v>1</v>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>&lt;button id="nautocomplete" type="button" class="btn_arrow" data-atcmp-element=""&gt; &lt;span class="blind"&gt;자동완성/최근검색어펼치기&lt;/span&gt; &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>&lt;button id="nautocomplete" type="button" class="btn_arrow" data-atcmp-element="" aria-pressed="true"&gt; &lt;span class="blind"&gt;자동완성/최근검색어펼치기&lt;/span&gt; &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://zoom.us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B140" t="b">
+        <v>1</v>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewResources" data-toggle="dropdown" aria-expanded="false"&gt;Resources&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewResources" data-toggle="dropdown" aria-expanded="false"&gt;Resources&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B141" t="b">
+        <v>1</v>
+      </c>
+      <c r="C141" t="b">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewSolutions" data-toggle="dropdown" aria-expanded="false"&gt;Solutions&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewSolutions" data-toggle="dropdown" aria-expanded="true"&gt;Solutions&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B142" t="b">
+        <v>1</v>
+      </c>
+      <c r="C142" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewProducts" data-toggle="dropdown" aria-expanded="false"&gt;Products&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>&lt;button id="btnNewProducts" data-toggle="dropdown" aria-expanded="true"&gt;Products&lt;span class="whiteBarArrow arrow"&gt;&lt;img alt="" src="https://st1.zoom.us/static/6.3.17955/image/icon/icon-arrow-down-blue.svg"&gt;&lt;/span&gt;
+&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: The result of the xpath expression ".." is: [object HTMLDocument]. It should be an element.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>&lt;button id="solvvy-lazy-button" class="solvvy-lazy-button" aria-label="Chat with bot" title="Chat with bot"&gt;  &lt;div class="svg-icon widget-icon"&gt;    &lt;svg xmlns="http://www.w3.org/2000/svg" fill="none" viewBox="0 0 16 16"&gt;      &lt;mask height="16" width="14" y="0" x="1" maskUnits="userSpaceOnUse" style="mask-type:alpha" id="mask0_4_176"&gt;        &lt;path fill="#000001" d="M15 6.99999C15 3.10079 11.8118 -0.0538043 7.90011 0.000695695C4.18261 0.0524957 1.05229 3.1831 1.00069 6.9006C0.948592 10.6511 3.8468 13.7364 7.5226 13.984C7.7889 14.0019 8.00051 14.2098 8.00051 14.4766V15.4931C8.00051 15.8314 8.33412 16.0853 8.65322 15.973C12.3483 14.6725 15.0001 11.1399 15 6.99999ZM8.00011 3.49999C8.88411 3.49999 9.60012 4.2163 9.60012 5.1C9.60012 5.9837 8.88411 6.70001 8.00011 6.70001C7.11611 6.70001 6.40011 5.9837 6.40011 5.1C6.40011 4.2163 7.11611 3.49999 8.00011 3.49999ZM10.0421 10.4755C10.0151 10.4809 9.98811 10.4858 9.96111 10.4892C9.90811 10.4963 9.8551 10.4999 9.8001 10.4999H6.20009C5.53709 10.4999 5.00011 9.96279 5.00011 9.29989C5.00011 8.30579 6.20011 7.4999 8.00011 7.4999C9.10911 7.4999 9.9901 7.80579 10.5031 8.27279C10.8231 8.56429 11.0001 8.91809 11.0001 9.29989C11.0001 9.87979 10.5891 10.3637 10.0421 10.4755Z"&gt;&lt;/path&gt;      &lt;/mask&gt;      &lt;g mask="url(#mask0_4_176)"&gt;        &lt;rect fill="#FFFFFF" height="16" width="16"&gt;&lt;/rect&gt;      &lt;/g&gt;    &lt;/svg&gt;  &lt;/div&gt;  &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B144" t="b">
+        <v>0</v>
+      </c>
+      <c r="C144" t="b">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>&lt;button class="onetrust-close-btn-handler ot-close-icon banner-close-button" aria-label="Close"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>&lt;div class="swiper-button-next" tabindex="0" role="button" aria-label="scroll right" aria-controls="swiper-wrapper-9211c7e348c4d618" aria-disabled="false"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B146" t="b">
+        <v>1</v>
+      </c>
+      <c r="C146" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>&lt;button data-toggle="dropdown" id="newBtnHostMeeting" class="joinHost" aria-expanded="false" data-on-event="send,event,product,click-nav-hostmeeting,Header Nav Host a Meeting"&gt;Host &lt;span class="arrow"&gt;&lt;img alt="" src="https://st3.zoom.us/static/6.3.17955/image/icon/icon-arrow-down.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>&lt;button data-toggle="dropdown" id="newBtnHostMeeting" class="joinHost" aria-expanded="false" data-on-event="send,event,product,click-nav-hostmeeting,Header Nav Host a Meeting"&gt;Host &lt;span class="arrow flip"&gt;&lt;img alt="" src="https://st3.zoom.us/static/6.3.17955/image/icon/icon-arrow-down.svg"&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.globo.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B149" t="b">
+        <v>1</v>
+      </c>
+      <c r="C149" t="b">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>&lt;button id="menu-toggle" type="button" aria-label="Menu" aria-expanded="false" data-tracking-disabled="true"&gt;&lt;img class="menu-icon" src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/header_menu_svgs/menu-button.svg" width="18" height="18" aria-hidden="true"&gt;&lt;span&gt;Menu&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>&lt;button id="menu-toggle" type="button" aria-label="Menu" aria-expanded="true" data-tracking-disabled="true"&gt;&lt;img class="menu-icon" src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/header_menu_svgs/menu-button.svg" width="18" height="18" aria-hidden="true"&gt;&lt;span&gt;Menu&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B150" t="b">
+        <v>1</v>
+      </c>
+      <c r="C150" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="touro" aria-label="touro"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Touro&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/taurus.svg" width="34" height="26" alt="Ícone Touro"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="touro" aria-label="touro"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Touro&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/taurus.svg" width="34" height="26" alt="Ícone Touro"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>&lt;button class="media-control-button skip-button skip-button--left skip-button--start_over skip-button--hidden media-control-element" data-skip-button=""&gt;&lt;svg viewBox="0 0 24 24" xmlns="http://www.w3.org/2000/svg" aria-hidden="true"&gt;     &lt;g fill="none" fill-rule="evenodd"&gt;        &lt;path d="M0 0h24v24H0z"&gt;&lt;/path&gt;        &lt;path d="M11.5 18V6L3 12l8.5 6zm.5-6l8.5 6V6L12 12z" fill="#FFF"&gt;&lt;/path&gt;    &lt;/g&gt;&lt;/svg&gt;&lt;span class="skip-button__label"&gt;Assistir do início&lt;/span&gt;&lt;style class="clappr-style"&gt;.clappr-player#wp3-player-1 .media-control .skip-button {  display: flex;  align-items: center;  position: absolute;  bottom: -8px;  right: 0;  width: auto;  height: auto;  border-radius: 4px;  background-color: #333;  margin: 0 12px;  pointer-events: auto;  z-index: 400;  will-change: opacity, transform;  transition: visibility 0.3s ease, opacity 0.3s ease;}.clappr-player#wp3-player-1 .media-control .skip-button__label {  font-family: "opensans-regular", sans-serif;  font-size: 14px;  font-weight: normal;  font-style: normal;  font-stretch: normal;  line-height: 1.14;  letter-spacing: normal;  color: #eeeeee;}.clappr-player#wp3-player-1 .media-control .skip-button:hover, .clappr-player#wp3-player-1 .media-control .skip-button:focus {  background-color: #eeeeee;  box-shadow: 0 4px 8px rgba(0, 0, 0, 0.5);}.clappr-player#wp3-player-1 .media-control .skip-button:hover .skip-button__label, .clappr-player#wp3-player-1 .media-control .skip-button:focus .skip-button__label {  color: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button:hover svg path[fill], .clappr-player#wp3-player-1 .media-control .skip-button:focus svg path[fill] {  fill: #111111 !important;}.clappr-player#wp3-player-1 .media-control .skip-button--hidden {  visibility: hidden;  opacity: 0;}.clappr-player#wp3-player-1 .media-control .skip-button--left {  right: auto;  left: 0;}.clappr-player#wp3-player-1 .media-control .skip-button svg {  width: 24px;  height: 24px;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button, .clappr-player#wp3-player-1 .media-control .skip-button--start_over {  padding: 6px 12px;  background-color: #eee;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg, .clappr-player#wp3-player-1 .media-control .skip-button--start_over svg {  margin-top: 2px;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg path[fill], .clappr-player#wp3-player-1 .media-control .skip-button--start_over svg path[fill] {  fill: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button .skip-button__label, .clappr-player#wp3-player-1 .media-control .skip-button--start_over .skip-button__label {  color: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button:hover, .clappr-player#wp3-player-1 .media-control .skip-button--live_button:focus, .clappr-player#wp3-player-1 .media-control .skip-button--start_over:hover, .clappr-player#wp3-player-1 .media-control .skip-button--start_over:focus {  background-color: #cecece;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg {  transform: rotate(180deg);  margin-left: 5px;}.clappr-player#wp3-player-1 .media-control .skip-button--start_over svg {  margin-right: 5px;}.clappr-player#wp3-player-1 .media-control.touch .skip-button--sticky {  transform: translateY(0px);}.clappr-player#wp3-player-1 .media-control.touch .skip-button--force-transform-animation {  transition: transform 0.3s ease;}.clappr-player#wp3-player-1 .media-control-hide .skip-button--sticky {  opacity: 1 !important;  pointer-events: auto !important;}.clappr-player#wp3-player-1 .media-control-hide.touch .skip-button--sticky {  transform: translateY(52px);}.clappr-player#wp3-player-1 .media-control-hide.touch.w360 .skip-button--sticky {  transform: translateY(60px);}.clappr-player#wp3-player-1 .media-control.volume-modal--visible.touch .skip-button, .clappr-player#wp3-player-1 .media-control.thumb-preview-modal--visible.touch .skip-button {  opacity: 0.5;}.clappr-player#wp3-player-1 .media-control.volume-modal--visible .skip-button, .clappr-player#wp3-player-1 .media-control.thumb-preview-modal--visible .skip-button {  opacity: 0.5;  z-index: 100;}.clappr-player#wp3-player-1 .media-control.settings-modal--visible .skip-button {  visibility: hidden;  opacity: 0;}.clappr-player#wp3-player-1 .media-control.ad .skip-button {  visibility: hidden;  opacity: 0;}&lt;/style&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B152" t="b">
+        <v>1</v>
+      </c>
+      <c r="C152" t="b">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="leao" aria-label="leao"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Leão&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/leo.svg" width="28" height="26" alt="Ícone Leão"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="leao" aria-label="leao"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Leão&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/leo.svg" width="28" height="26" alt="Ícone Leão"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>&lt;button class="media-control-button media-control-element" data-fullscreen=""&gt;&lt;svg viewBox="0 0 24 24" xmlns="http://www.w3.org/2000/svg"&gt;    &lt;g fill="none" fill-rule="evenodd"&gt;        &lt;path d="M0 0h24v24H0z"&gt;&lt;/path&gt;        &lt;path d="M19 21h-4v-2h4v-4h2v6h-2zm0-18h2v6h-2V5h-4V3h4zM5 19h4v2H3v-6h2v4zM5 3h4v2H5v4H3V3h2z" fill="#FFF"&gt;&lt;/path&gt;    &lt;/g&gt;&lt;/svg&gt;&lt;span class="visually-hidden"&gt;Tela cheia&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B154" t="b">
+        <v>1</v>
+      </c>
+      <c r="C154" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="sagitario" aria-label="sagitario"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Sagitário&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/sagittarius.svg" width="29" height="26" alt="Ícone Sagitário"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="sagitario" aria-label="sagitario"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Sagitário&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/sagittarius.svg" width="29" height="26" alt="Ícone Sagitário"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" t="b">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>&lt;button class="cookie-banner-lgpd_accept-button" style="background-color:#0069de"&gt;Prosseguir&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B156" t="b">
+        <v>1</v>
+      </c>
+      <c r="C156" t="b">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="aquario" aria-label="aquario"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Aquário&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/aquarius.svg" width="29" height="26" alt="Ícone Aquário"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="aquario" aria-label="aquario"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Aquário&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/aquarius.svg" width="29" height="26" alt="Ícone Aquário"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>&lt;button class="drawer-icon media-control-button media-control-element" data-volume=""&gt;&lt;svg viewBox="0 0 24 24" xmlns="http://www.w3.org/2000/svg"&gt;    &lt;g fill="none" fill-rule="evenodd"&gt;        &lt;path d="M0 0h24v24H0z"&gt;&lt;/path&gt;        &lt;path d="M16.5 12c0-1.77-1.02-3.29-2.5-4.03v2.21l2.45 2.45c.03-.2.05-.41.05-.63zm2.5 0c0 .94-.2 1.82-.54 2.64l1.51 1.51C20.63 14.91 21 13.5 21 12c0-4.28-2.99-7.86-7-8.77v2.06c2.89.86 5 3.54 5 6.71zM4.27 3L3 4.27 7.73 9H3v6h4l5 5v-6.73l4.25 4.25c-.67.52-1.42.93-2.25 1.18v2.06c1.38-.31 2.63-.95 3.69-1.81L19.73 21 21 19.73l-9-9L4.27 3zM12 4L9.91 6.09 12 8.18V4z" fill="#FFF"&gt;&lt;/path&gt;    &lt;/g&gt;&lt;/svg&gt;&lt;span class="visually-hidden"&gt;Ativar som&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B158" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="capricornio" aria-label="capricornio"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Capricórnio&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/capricorn.svg" width="28" height="26" alt="Ícone Capricórnio"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="capricornio" aria-label="capricornio"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Capricórnio&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/capricorn.svg" width="28" height="26" alt="Ícone Capricórnio"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>&lt;button class="media-control-button skip-button skip-button--live_button skip-button--hidden media-control-element" data-skip-button=""&gt;&lt;span class="skip-button__label"&gt;Assistir agora&lt;/span&gt;&lt;svg viewBox="0 0 24 24" xmlns="http://www.w3.org/2000/svg" aria-hidden="true"&gt;     &lt;g fill="none" fill-rule="evenodd"&gt;        &lt;path d="M0 0h24v24H0z"&gt;&lt;/path&gt;        &lt;path d="M11.5 18V6L3 12l8.5 6zm.5-6l8.5 6V6L12 12z" fill="#FFF"&gt;&lt;/path&gt;    &lt;/g&gt;&lt;/svg&gt;&lt;style class="clappr-style"&gt;.clappr-player#wp3-player-1 .media-control .skip-button {  display: flex;  align-items: center;  position: absolute;  bottom: -8px;  right: 0;  width: auto;  height: auto;  border-radius: 4px;  background-color: #333;  margin: 0 12px;  pointer-events: auto;  z-index: 400;  will-change: opacity, transform;  transition: visibility 0.3s ease, opacity 0.3s ease;}.clappr-player#wp3-player-1 .media-control .skip-button__label {  font-family: "opensans-regular", sans-serif;  font-size: 14px;  font-weight: normal;  font-style: normal;  font-stretch: normal;  line-height: 1.14;  letter-spacing: normal;  color: #eeeeee;}.clappr-player#wp3-player-1 .media-control .skip-button:hover, .clappr-player#wp3-player-1 .media-control .skip-button:focus {  background-color: #eeeeee;  box-shadow: 0 4px 8px rgba(0, 0, 0, 0.5);}.clappr-player#wp3-player-1 .media-control .skip-button:hover .skip-button__label, .clappr-player#wp3-player-1 .media-control .skip-button:focus .skip-button__label {  color: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button:hover svg path[fill], .clappr-player#wp3-player-1 .media-control .skip-button:focus svg path[fill] {  fill: #111111 !important;}.clappr-player#wp3-player-1 .media-control .skip-button--hidden {  visibility: hidden;  opacity: 0;}.clappr-player#wp3-player-1 .media-control .skip-button--left {  right: auto;  left: 0;}.clappr-player#wp3-player-1 .media-control .skip-button svg {  width: 24px;  height: 24px;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button, .clappr-player#wp3-player-1 .media-control .skip-button--start_over {  padding: 6px 12px;  background-color: #eee;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg, .clappr-player#wp3-player-1 .media-control .skip-button--start_over svg {  margin-top: 2px;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg path[fill], .clappr-player#wp3-player-1 .media-control .skip-button--start_over svg path[fill] {  fill: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button .skip-button__label, .clappr-player#wp3-player-1 .media-control .skip-button--start_over .skip-button__label {  color: #111111;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button:hover, .clappr-player#wp3-player-1 .media-control .skip-button--live_button:focus, .clappr-player#wp3-player-1 .media-control .skip-button--start_over:hover, .clappr-player#wp3-player-1 .media-control .skip-button--start_over:focus {  background-color: #cecece;}.clappr-player#wp3-player-1 .media-control .skip-button--live_button svg {  transform: rotate(180deg);  margin-left: 5px;}.clappr-player#wp3-player-1 .media-control .skip-button--start_over svg {  margin-right: 5px;}.clappr-player#wp3-player-1 .media-control.touch .skip-button--sticky {  transform: translateY(0px);}.clappr-player#wp3-player-1 .media-control.touch .skip-button--force-transform-animation {  transition: transform 0.3s ease;}.clappr-player#wp3-player-1 .media-control-hide .skip-button--sticky {  opacity: 1 !important;  pointer-events: auto !important;}.clappr-player#wp3-player-1 .media-control-hide.touch .skip-button--sticky {  transform: translateY(52px);}.clappr-player#wp3-player-1 .media-control-hide.touch.w360 .skip-button--sticky {  transform: translateY(60px);}.clappr-player#wp3-player-1 .media-control.volume-modal--visible.touch .skip-button, .clappr-player#wp3-player-1 .media-control.thumb-preview-modal--visible.touch .skip-button {  opacity: 0.5;}.clappr-player#wp3-player-1 .media-control.volume-modal--visible .skip-button, .clappr-player#wp3-player-1 .media-control.thumb-preview-modal--visible .skip-button {  opacity: 0.5;  z-index: 100;}.clappr-player#wp3-player-1 .media-control.settings-modal--visible .skip-button {  visibility: hidden;  opacity: 0;}.clappr-player#wp3-player-1 .media-control.ad .skip-button {  visibility: hidden;  opacity: 0;}&lt;/style&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>&lt;button class="push-web-notification__button--reject"&gt; &lt;span&gt;Agora não&lt;label&gt; &lt;/label&gt;&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B161" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" t="b">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="peixes" aria-label="peixes"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Peixes&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/pisces.svg" width="28" height="26" alt="Ícone Peixes"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="peixes" aria-label="peixes"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Peixes&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/pisces.svg" width="28" height="26" alt="Ícone Peixes"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B162" t="b">
+        <v>1</v>
+      </c>
+      <c r="C162" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="gemeos" aria-label="gemeos"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Gêmeos&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/gemini.svg" width="31" height="26" alt="Ícone Gêmeos"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="gemeos" aria-label="gemeos"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Gêmeos&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/gemini.svg" width="31" height="26" alt="Ícone Gêmeos"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B163" t="b">
+        <v>1</v>
+      </c>
+      <c r="C163" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper " data-tracking-label="libra" aria-label="libra"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Libra&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/libra.svg" width="29" height="26" alt="Ícone Libra"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>&lt;button class="horoscope__sign-list__wrapper active" data-tracking-label="libra" aria-label="libra"&gt;&lt;div class="horoscope__sign-list__sign__tooltip"&gt;Libra&lt;/div&gt;&lt;div class="horoscope__sign-list__sign"&gt;&lt;img src="https://s3.glbimg.com/v1/AUTH_fd78dc4be9404a2e92b908ade306e9e6/prod/widgets_svgs/horoscopo_svgs/libra.svg" width="29" height="26" alt="Ícone Libra"&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add Dyson V11 Extra Cordless Vacuum Cleaner | Iron | Open Box to your watch list" tabindex="-1"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add Pioneer Elite Elite VSX-LX505 9.2 Channel Network AV Receiver w/ Warranty Bundle to your watch list" tabindex="-1"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add Apple iPhone 13 Pro Max A2484 128GB Network Unlocked Very Good to your watch list"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add PUMA Men's Astro Kick Sneakers to your watch list" tabindex="-1"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add AKG N5005 Reference Class 5-driver Configuration In-Ear Headphones to your watch list" tabindex="-1"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>1</v>
+      </c>
+      <c r="C171" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Pause Banner Carousel" class="carousel__playback"&gt;&lt;svg class="icon icon--pause-24" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-pause-24"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Play Banner Carousel" class="carousel__playback"&gt;&lt;svg aria-hidden="true" class="icon icon--play-24" focusable="false"&gt;&lt;use href="#icon-play-24"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>&lt;button class="carousel__control carousel__control--next" type="button" aria-label="Go to next banner" id="s0-1-0-39-1-3-4-0[1]-2-@match-media-0-@ebay-carousel-next"&gt;&lt;svg class="icon icon--chevron-right-12" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-chevron-right-12"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" t="b">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>&lt;button class="carousel__control carousel__control--next" type="button" aria-label="Go to the next slide, Today's Deals – All With Free Shipping - Carousel" id="s0-1-0-39-1-3-4-0[6]-2-@match-media-0-@ebay-carousel-next"&gt;&lt;svg class="icon icon--chevron-right-12" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-chevron-right-12"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add Bose SoundLink Flex SE Bluetooth Waterproof Speaker, Certified Refurbished to your watch list" tabindex="-1"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>&lt;input type="submit" class="btn btn-prim gh-spr" id="gh-btn" value="Search"&gt;</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://www.ebay.com/n/all-categories?_from=R40&amp;_trksid=p4432023.m570.l1313&amp;_nkw=&amp;_sacat=0</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn btn--tertiary" type="button" aria-label="Add Apple iPad 9th Generation 10.2 Retina Display 64GB Wi-Fi SILVER TouchScreen to your watch list"&gt;&lt;svg class="vlp-merch-watch-unselected icon icon--save-16" focusable="false" aria-hidden="true"&gt;&lt;use xlink:href="#hp-icon-save-16"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>1</v>
+      </c>
+      <c r="C177" t="b">
+        <v>0</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>&lt;button class="carousel__control carousel__control--prev" type="button" aria-label="Go to the previous slide, Today's Deals – All With Free Shipping - Carousel"&gt;&lt;svg class="icon icon--chevron-left-12" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-chevron-left-12"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>&lt;button class="carousel__control carousel__control--prev" type="button" aria-label="Go to the previous slide, Today's Deals – All With Free Shipping - Carousel" aria-disabled="true"&gt;&lt;svg class="icon icon--chevron-left-12" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-chevron-left-12"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>&lt;button class="gh-control ghn-b gh-eb-li-a" aria-expanded="false" aria-controls="gh-eb-Alerts-o"&gt;&lt;i id="gh-Alerts-i" class="gh-sprRetina"&gt;Notification&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>&lt;button class="gh-control ghn-b gh-eb-li-a" aria-expanded="true" aria-controls="gh-eb-Alerts-o"&gt;&lt;i id="gh-Alerts-i" class="gh-sprRetina"&gt;Notification&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>1</v>
+      </c>
+      <c r="C179" t="b">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>&lt;button id="gh-shop-a" aria-expanded="false" class="gh-control" aria-controls="gh-sbc-o"&gt; Shop by category&lt;i id="gh-shop-ei" class="gh-sprRetina"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>&lt;button id="gh-shop-a" aria-expanded="true" class="gh-control" aria-controls="gh-sbc-o"&gt; Shop by category&lt;i id="gh-shop-ei" class="gh-sprRetina"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>0</v>
+      </c>
+      <c r="C180" t="b">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>&lt;button class="carousel__control carousel__control--prev" type="button" aria-label="Go to previous banner"&gt;&lt;svg class="icon icon--chevron-left-12" focusable="false" aria-hidden="true"&gt;&lt;use href="#icon-chevron-left-12"&gt;&lt;/use&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.instructure.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183" t="b">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>&lt;button class="onetrust-close-btn-handler banner-close-button ot-close-icon" aria-label="Close"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>&lt;input data-drupal-selector="edit-submit-solr-search" type="submit" id="edit-submit-solr-search" value="Apply" class="button js-form-submit form-submit"&gt;</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" t="b">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Clear search field text" class="absolute bn bg-transparent h-100 right-2" style="padding:0 0.75rem;cursor:pointer;opacity:0" type="reset" tabindex="-1" aria-hidden="true"&gt;&lt;i class="ld ld-Close" style="font-size:1rem;vertical-align:-0.175em;width:1rem;height:1rem;box-sizing:content-box"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/account/login?vid=oaoh&amp;tid=0&amp;returnUrl=%2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="flex items-center no-underline desktop-header-trigger lh-title b ph3 white pointer sans-serif bg-transparent ba b--transparent" style="border-radius:100px;height:48px;transition:all 100ms cubic-bezier(0.77, 0, 0.175, 1)" aria-haspopup="true" aria-expanded="false"&gt;&lt;i class="ld ld-Services pr2" style="font-size:1rem;vertical-align:-0.175em;width:1rem;height:1rem;box-sizing:content-box" aria-hidden="true"&gt;&lt;/i&gt;Services&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>&lt;button class="w_hhLG w_XK4d w_jDfj" type="button"&gt;Shop now&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/shop/gift-finder?facet=fulfillment_speed%3A2+days&amp;athcpid=d589c159-00ca-43a8-bb39-60a8941e8836&amp;athpgid=AthenaGlassHomePageDesktopV1&amp;athznid=athenaModuleZone&amp;athmtid=AthenaWalmartPlusEarlyAccessDuringEvent&amp;athtvid=1&amp;athena=true&amp;athstid=CS100&amp;athguid=AJ8630_nmf7X4y5r7Qd0-nxR0Vb4LOVG8oMq&amp;athwpid=1</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="flex items-center no-underline desktop-header-trigger lh-title b ph3 white pointer sans-serif bg-transparent ba b--transparent" style="border-radius:100px;height:48px;transition:all 100ms cubic-bezier(0.77, 0, 0.175, 1)" aria-haspopup="true" aria-expanded="false"&gt;&lt;i class="ld ld-Grid pr2" style="font-size:1rem;vertical-align:-0.175em;width:1rem;height:1rem;box-sizing:content-box" aria-hidden="true"&gt;&lt;/i&gt;Departments&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="bn bg-transparent br2 flex flex-column items-center pa0 pointer relative sans-serif pa3 justify-center white hover-bg-dark-primary" style="border-radius:100px;transition:all 100ms cubic-bezier(0.77, 0, 0.175, 1);height:48px" id="cart-button-header" data-automation-id="cart-button-header" aria-label="Cart contains 0 items Total Amount $0.00"&gt;&lt;i class="ld ld-Cart mr1 white" style="font-size:1.5rem;vertical-align:-0.25em;width:24px;height:24px;box-sizing:content-box"&gt;&lt;/i&gt;&lt;span class="w_nHwa w_r_kp w_Vhrw w_uS24 absolute " id="cart-badge" style="left: 50%; bottom: 60%; padding: 0px 4px;"&gt;0&lt;/span&gt;&lt;span class="db nowrap" style="font-size: 0.625rem; height: 10px;"&gt;$0.00&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>https://www.walmart.com/cart</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>1</v>
+      </c>
+      <c r="C194" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>&lt;button class="w_hhLG w_DZvO w_0_LY pa0 no-underline flex-auto flex-none-m white hover-white" type="button" data-automation-id="fulfillment-banner" tabindex="0" aria-expanded="false"&gt;&lt;div class="flex items-center content-start flex-auto flex-none-m"&gt;&lt;div class="flex items-center truncate fl"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-ad46/k2-_0a671c38-d307-447c-835e-7904ab143c26.v1.png" width="26" height="26" aria-hidden="true" class="mr2 br-100 v-btm"&gt;&lt;span class="f6 pointer b"&gt;&lt;span class="dn"&gt;How do you want your items?&lt;/span&gt;&lt;span class=""&gt;How do you want your items?&lt;/span&gt;&lt;/span&gt;&lt;i class="ld ld-ChevronDown ml2 dn db-m" aria-hidden="true" style="font-size: 1rem; vertical-align: -0.175em; width: 16px; height: 16px; box-sizing: content-box;"&gt;&lt;/i&gt;&lt;span class="mh2 db-m" aria-hidden="true"&gt;|&lt;/span&gt;&lt;div class="dn dn-m db"&gt;11226&lt;/div&gt;&lt;div class="db-m truncate dn db-m"&gt;&lt;div class="flex items-center"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-40c5/k2-_f5224bb5-3493-47da-a046-7f816ac1730e.v1.png" width="16" height="16" aria-hidden="true" class="db-m dn"&gt;&lt;span class="mw-none-m mh2-m truncate" data-qm-mask="true"&gt;Brooklyn, 11226&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="flex items-center truncate"&gt;&lt;div class="db-m truncate dn db-m"&gt;&lt;div class="flex items-center"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-cc5a/k2-_cb966ffb-2cf6-4a8d-869c-27d99919cb16.v1.png" width="16" height="20" aria-hidden="true" class="db-m dn"&gt;&lt;span class="mw-none-m mh2-m truncate"&gt;Bayonne Supercenter&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;i class="ld ld-ChevronDown ml2 dn-m db" style="font-size: 1rem; vertical-align: -0.175em; width: 1rem; height: 1rem; box-sizing: content-box;"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>&lt;button class="w_hhLG w_DZvO w_0_LY pa0 no-underline flex-auto flex-none-m white hover-white" type="button" data-automation-id="fulfillment-banner" tabindex="0" aria-expanded="true"&gt;&lt;div class="flex items-center content-start flex-auto flex-none-m justify-center"&gt;&lt;div class="flex items-center truncate fl"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-ad46/k2-_0a671c38-d307-447c-835e-7904ab143c26.v1.png" width="26" height="26" aria-hidden="true" class="mr2 br-100 v-btm dn db-m"&gt;&lt;span class="f6 pointer b"&gt;&lt;span class="dn db dn-m"&gt;How do you want your items?&lt;/span&gt;&lt;span class="dn db-m"&gt;How do you want your items?&lt;/span&gt;&lt;/span&gt;&lt;i class="ld ld-ChevronUp ml2 dn db-m" aria-hidden="true" style="font-size: 1rem; vertical-align: -0.175em; width: 16px; height: 16px; box-sizing: content-box;"&gt;&lt;/i&gt;&lt;span class="mh2 db-m dn" aria-hidden="true"&gt;|&lt;/span&gt;&lt;div class="dn dn-m"&gt;11226&lt;/div&gt;&lt;div class="db-m truncate dn db-m dn"&gt;&lt;div class="flex items-center"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-40c5/k2-_f5224bb5-3493-47da-a046-7f816ac1730e.v1.png" width="16" height="16" aria-hidden="true" class="db-m dn"&gt;&lt;span class="mw-none-m mh2-m truncate" data-qm-mask="true"&gt;Brooklyn, 11226&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div class="flex items-center truncate"&gt;&lt;div class="db-m truncate dn db-m dn"&gt;&lt;div class="flex items-center"&gt;&lt;img loading="lazy" alt=" " src="https://i5.walmartimages.com/dfw/4ff9c6c9-cc5a/k2-_cb966ffb-2cf6-4a8d-869c-27d99919cb16.v1.png" width="16" height="20" aria-hidden="true" class="db-m dn"&gt;&lt;span class="mw-none-m mh2-m truncate"&gt;Bayonne Supercenter&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;i class="ld ld-ChevronUp ml2 dn-m db" style="font-size: 1rem; vertical-align: -0.175em; width: 1rem; height: 1rem; box-sizing: content-box;"&gt;&lt;/i&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.paypal.com/us/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>0</v>
+      </c>
+      <c r="C197" t="b">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>&lt;button id="bannerDeclineButton" aria-label="decline" class="ccpaCookieBanner_bottom-button" pa-marked="1"&gt;No, I decline&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+      <c r="C198" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>&lt;button id="acceptAllButton" class="ccpaCookieBanner_top-button" pagename="Digital Wallets, Money Management, and More | PayPal US|acceptcookies" pa-marked="1"&gt;Yes, I accept&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Tries: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>&lt;div aria-disabled="false" class="CCY S9z eEj iyn oCZ Tbt L4E e8F BG7" role="button" tabindex="0"&gt;&lt;div class="KS5 hs0 mQ8 un8 C9i TB_" style="height: 100%;"&gt;&lt;div class="tBJ dyH iFc sAJ O2T zDA IZT H2s"&gt;Create a free business account&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>1</v>
+      </c>
+      <c r="C202" t="b">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>&lt;button class="RCK Hsu USg adn CCY NTm KhY iyn oRi lnZ wsz YbY" tabindex="0" type="button"&gt;&lt;div class="RCK Hsu USg adn CCY NTm KhY iyn S9z Vxj aZc Zr3 hA- Il7 Jrn hNT BG7 hDj _O1 KS5 mQ8 Tbt L4E"&gt;&lt;div class="tBJ dyH iFc sAJ xnr tg7 H2s"&gt;Log in&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>&lt;button class="RCK Hsu USg adn CCY NTm KhY oRi lnZ wsz YbY" tabindex="0" type="button"&gt;&lt;div class="RCK Hsu USg adn CCY NTm KhY S9z Vxj aZc Zr3 hA- Il7 Jrn hNT BG7 hDj _O1 KS5 mQ8 Tbt L4E"&gt;&lt;div class="tBJ dyH iFc sAJ xnr tg7 H2s"&gt;Log in&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" t="b">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 2" style="background: rgb(225, 225, 225); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 2" style="background: rgb(97, 140, 123); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>1</v>
+      </c>
+      <c r="C204" t="b">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>&lt;button class="RCK Hsu USg adn CCY NTm KhY iyn oRi lnZ wsz YbY" tabindex="0" type="button"&gt;&lt;div class="RCK Hsu USg adn CCY NTm KhY iyn S9z Vxj aZc Zr3 hA- a_A gpV hNT BG7 hDj _O1 KS5 mQ8 Tbt L4E"&gt;&lt;div class="tBJ dyH iFc sAJ O2T tg7 H2s"&gt;Sign up&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>&lt;button class="RCK Hsu USg adn CCY NTm KhY oRi lnZ wsz YbY" tabindex="0" type="button"&gt;&lt;div class="RCK Hsu USg adn CCY NTm KhY S9z Vxj aZc Zr3 hA- a_A gpV hNT BG7 hDj _O1 KS5 mQ8 Tbt L4E"&gt;&lt;div class="tBJ dyH iFc sAJ O2T tg7 H2s"&gt;Sign up&lt;/div&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>1</v>
+      </c>
+      <c r="C205" t="b">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 4" style="background: rgb(225, 225, 225); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 4" style="background: rgb(64, 122, 87); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>1</v>
+      </c>
+      <c r="C206" t="b">
+        <v>1</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>&lt;div aria-disabled="false" class="CCY S9z eEj iyn e8F BG7" role="button" tabindex="0"&gt;&lt;div class="INd Jea KS5 RDc hjj mQ8 zI7 iyn Hsu" style="background: rgb(156, 3, 67); width: 48px; height: 48px;"&gt;&lt;svg class="gUZ NUb U9O kVc" height="20" width="20" viewBox="0 0 24 24" aria-label="Scroll up" role="img"&gt;&lt;path d="M21.75 19.5c-.58 0-1.15-.22-1.59-.65L12 10.79l-8.16 8.06c-.88.87-2.3.87-3.18 0a2.21 2.21 0 0 1 0-3.15L12 4.5l11.34 11.2c.88.87.88 2.28 0 3.15-.44.43-1.01.65-1.59.65"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>&lt;div aria-disabled="false" class="CCY S9z eEj e8F BG7" role="button" tabindex="0"&gt;&lt;div class="INd Jea KS5 RDc hjj mQ8 zI7 iyn Hsu" style="background: rgb(156, 3, 67); width: 48px; height: 48px;"&gt;&lt;svg class="gUZ NUb U9O kVc" height="20" width="20" viewBox="0 0 24 24" aria-label="Scroll up" role="img"&gt;&lt;path d="M21.75 19.5c-.58 0-1.15-.22-1.59-.65L12 10.79l-8.16 8.06c-.88.87-2.3.87-3.18 0a2.21 2.21 0 0 1 0-3.15L12 4.5l11.34 11.2c.88.87.88 2.28 0 3.15-.44.43-1.01.65-1.59.65"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Failed - Element Click Intercepted</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="" class="active" tabindex="-1" type="button" style="border: 0px; height: 40px; display: block; border-radius: 20px; -webkit-font-smoothing: antialiased; padding: 0px 0px 0px 8px; font-size: 15px; font-weight: normal; cursor: pointer; margin-top: 0px; vertical-align: middle; text-align: left; background-clip: padding-box; background-color: rgb(24, 119, 242); position: absolute; transition: opacity 0.2s linear 0s; width: 100%;"&gt;&lt;div class="hs0 un8 C9i TB_"&gt;&lt;div class="INd urM xvE zI7 iyn Hsu" style="padding: 4px 3px 3px; height: 24px; width: 24px;"&gt;&lt;svg class="gUZ Bp9" height="19" width="19" viewBox="0 0 24 24" aria-label="facebook" role="img"&gt;&lt;path d="m17.75 3.984-2.312.001c-1.811 0-2.163.842-2.163 2.077v2.724h4.323l-.563 4.267h-3.76V24H8.769V13.053H5V8.786h3.769V5.64C8.769 1.988 11.05 0 14.383 0c1.596 0 2.967.116 3.367.168v3.816z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;span style="color: rgb(255, 255, 255); display: inline-block; font-family: -apple-system, BlinkMacSystemFont, &amp;quot;Segoe UI&amp;quot;, Roboto, Oxygen-Sans, Ubuntu, Cantarell, &amp;quot;Fira Sans&amp;quot;, &amp;quot;Droid Sans&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;ヒラギノ角ゴ Pro W3&amp;quot;, &amp;quot;Hiragino Kaku Gothic Pro&amp;quot;, メイリオ, Meiryo, &amp;quot;ＭＳ Ｐゴシック&amp;quot;, Arial, sans-serif; font-size: 16px; font-weight: bold; letter-spacing: 0.1px; line-height: 15px; margin-right: 24px; margin-left: 15px; padding-top: 4px; text-align: center; vertical-align: text-bottom; -webkit-font-smoothing: auto; white-space: normal; width: 88%;"&gt;Continue with Facebook&lt;/span&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" t="b">
+        <v>1</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Continue creating your Pinterest account" class="red SignupButton active" type="submit" style="border: 0px; height: 40px; display: inline-block; border-radius: 20px; -webkit-font-smoothing: antialiased; padding: 0px 18px; font-size: 15px; font-weight: bold; cursor: pointer; margin-top: 8px; vertical-align: middle; text-align: center; background-color: rgb(230, 0, 35); color: rgb(255, 255, 255); width: 100%;"&gt;&lt;div class="zI7 iyn Hsu"&gt;Continue&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>&lt;div aria-disabled="false" class="CCY S9z eEj iyn Tbt L4E e8F BG7" role="button" tabindex="0"&gt;&lt;div class="KS5 hs0 mQ8 un8 P29 TB_"&gt;&lt;div class="xuA"&gt;&lt;div class="tBJ dyH iFc sAJ O2T zDA IZT H2s"&gt;Here’s how it works&lt;/div&gt;&lt;/div&gt;&lt;div class="xuA"&gt;&lt;svg class="gUZ R19 U9O kVc" height="12" width="12" viewBox="0 0 24 24" aria-label="arrow down icon" role="img"&gt;&lt;path d="M12 19.5.66 8.29c-.88-.86-.88-2.27 0-3.14.88-.87 2.3-.87 3.18 0L12 13.21l8.16-8.06c.88-.87 2.3-.87 3.18 0 .88.87.88 2.28 0 3.14L12 19.5z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/#search</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>1</v>
+      </c>
+      <c r="C210" t="b">
+        <v>1</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 3" style="background: rgb(225, 225, 225); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="Dot 3" style="background: rgb(0, 118, 211); display: inline-block; padding: 5px; height: 10px; border-radius: 50px; margin: 6px; outline: none; border-style: none;"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>&lt;button aria-label="" class="active" data-test-id="login-signup-toggle" type="button" style="background: none; border: none; padding: 0px; text-align: left; display: block; color: rgb(51, 51, 51); margin-left: 5px; font-weight: bold;"&gt;Log in&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>&lt;div aria-disabled="false" class="CCY S9z eEj iyn e8F BG7" role="button" tabindex="0"&gt;&lt;div data-test-id="page-scroll-arrow" class="INd Jea KS5 RDc mQ8 zI7 iyn Hsu" style="background: rgb(194, 139, 0); width: 48px; height: 48px;"&gt;&lt;svg class="gUZ PLa U9O kVc" height="20" width="20" viewBox="0 0 24 24" aria-label="Scroll down" role="img"&gt;&lt;path d="M12 19.5.66 8.29c-.88-.86-.88-2.27 0-3.14.88-.87 2.3-.87 3.18 0L12 13.21l8.16-8.06c.88-.87 2.3-.87 3.18 0 .88.87.88 2.28 0 3.14L12 19.5z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://www.pinterest.com/#search</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-6234b193-3 sc-6234b193-4 eEuwSR ebRiiD"&gt;&lt;svg viewBox="0 0 32 32" width="20" height="20" category="actions" icon="search" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="m30.6 28.1-8.3-8.3c1.5-2 2.4-4.4 2.4-7.2C24.7 6 19.6 1 13 1S1.4 6.1 1.4 12.7 6.5 24.3 13 24.3c2.3 0 4.4-.6 6.2-1.8l8.5 8.5 2.9-2.9zM4 12.6c0-5.2 3.9-9.1 9-9.1s9 3.9 9 9.1c0 5.2-3.9 9.1-9 9.1s-9-3.9-9-9.1z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>1</v>
+      </c>
+      <c r="C216" t="b">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="right-arrow" class="sc-a94f77d9-4 jjNkgp"&gt;&lt;svg viewBox="0 0 32 32" width="1em" height="1em" category="arrows" icon="chevron-right" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="M21.6 14.3 5.5 31h6.4l14.6-15L11.9 1H5.5l16.1 16.7v-3.4z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>&lt;button data-testid="right-arrow" class="sc-a94f77d9-4 jIDgya" disabled=""&gt;&lt;svg viewBox="0 0 32 32" width="1em" height="1em" category="arrows" icon="chevron-right" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="M21.6 14.3 5.5 31h6.4l14.6-15L11.9 1H5.5l16.1 16.7v-3.4z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="See more" class="sc-e7e81c1a-2 sc-e7e81c1a-4 cwgEbN jXdITb"&gt;&lt;span data-testid="button-text" class="sc-e7e81c1a-1 fIUYn"&gt;See more&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/news/world-europe-67781387</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Register" class="sc-e7e81c1a-2 sc-e7e81c1a-3 gOZVQz hzniYP"&gt;&lt;span data-testid="button-text" class="sc-e7e81c1a-1 fIUYn"&gt;Register&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://account.bbc.com/register?realm=%2F&amp;clientId=Account&amp;action=register&amp;ptrt=https%3A%2F%2Fwww.bbc.com%2F&amp;userOrigin=BBCS_BBC&amp;isCasso=false&amp;redirectUri=https%3A%2F%2Fsession.bbc.com%2Fsession%2Fcallback%3Frealm%3D%2F&amp;service=IdRegisterService&amp;nonce=PYpocgzb-KCx9BKWimRpuPhsiNfr0NCDs1l8</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" aria-label="Sign In" class="sc-e7e81c1a-2 sc-e7e81c1a-5 gOZVQz hHTYlw"&gt;&lt;span data-testid="button-text" class="sc-e7e81c1a-1 fIUYn"&gt;Sign In&lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://www.bbc.com/</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://account.bbc.com/auth?realm=%2F&amp;clientId=Account&amp;ptrt=https%3A%2F%2Fwww.bbc.com%2F&amp;userOrigin=BBCS_BBC&amp;isCasso=false&amp;action=sign-in&amp;redirectUri=https%3A%2F%2Fsession.bbc.com%2Fsession%2Fcallback%3Frealm%3D%2F&amp;service=IdSignInService&amp;nonce=2MJqQbo5-i-aeHaocoDCpz-9r3YKR7HUFZbY</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>1</v>
+      </c>
+      <c r="C220" t="b">
+        <v>1</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-6234b193-3 eEuwSR"&gt;&lt;svg viewBox="0 0 32 32" width="20" height="20" category="actions" icon="list-view-text" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="M1 7.5h30V1.9H1v5.6zm0 22.6h30v-5.6H1v5.6zm0-11.3h30v-5.6H1v5.6z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>&lt;button class="sc-6234b193-3 gpajqe"&gt;&lt;svg viewBox="0 0 32 32" width="20" height="20" category="actions" icon="close" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="m30 4.6-2.8-2.8L2 27.4l2.8 2.8L30 4.6zM4.8 1.8 1.9 4.7l25.2 25.5 2.9-2.9L4.8 1.8z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>1</v>
+      </c>
+      <c r="C221" t="b">
+        <v>1</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="sc-4a432b83-2 jRjKac"&gt;BBC in other languages&lt;div class="sc-4a432b83-3 eGYAuR"&gt;&lt;svg viewBox="0 0 32 32" width="1em" height="1em" category="arrows" icon="arrow-down" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="M26.7 12.6 16 23.2 5.3 12.6V8.8h21.4v3.8z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="sc-4a432b83-2 jRjKac"&gt;BBC in other languages&lt;div class="sc-4a432b83-3 eGYAuR"&gt;&lt;svg viewBox="0 0 32 32" width="1em" height="1em" category="arrows" icon="arrow-up" class="sc-2c06e71a-0 fsMljb"&gt;&lt;path d="M26.7 19.4 16 8.8 5.3 19.4v3.7h21.4v-3.7z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.homedepot.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Failed - Not Interactable</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="sui-inline-flex sui-items-center sui-justify-center sui-border-none sui-border-0 focus-visible:sui-bg-button-focus focus-visible:sui-outline-none focus-visible:sui-fill-primary sui-h-8 sui-w-8 hover:sui-fill-brand sui-fill-primary" data-testid="header-back-arrow-button"&gt;&lt;svg class="sui-inline-block sui-align-baseline sui-fill-inherit sui-w-6 sui-h-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="ArrowBackIcon"&gt;&lt;path d="M18.729 1.604 8.444 12l10.284 10.396-1.6 1.582L5.28 12 17.13.02l1.6 1.583Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>1</v>
+      </c>
+      <c r="C225" t="b">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="tabpanel-1" class="tabs__item--6jqsz" type="button" value="1"&gt;Power Tools&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="tabpanel-1" class="tabs__item--6jqsz tabs__item--selected--6jqsz" type="button" value="1"&gt;Power Tools&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>1</v>
+      </c>
+      <c r="C226" t="b">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="tabpanel-3" class="tabs__item--6jqsz" type="button" value="3"&gt;Garden Center&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="tabpanel-3" class="tabs__item--6jqsz tabs__item--selected--6jqsz" type="button" value="3"&gt;Christmas Decorations&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" t="b">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>&lt;button aria-controls="tabpanel-0" class="tabs__item--6jqsz tabs__item--selected--6jqsz" type="button" value="0"&gt;All&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>1</v>
+      </c>
+      <c r="C228" t="b">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-primary" data-testid="header-button-DIY" aria-label="open drawer to view DIY"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="HammerIcon"&gt;&lt;path d="M7.875 0H6.75v1.5H0v9h6.75V12h1.5v12h2.25V12h3v12h2.25V12h1.5V9.75H24V8.625c0-1.808-1.24-3.993-3.787-5.673C17.637 1.252 13.654 0 7.875 0ZM15 9.75H9V2.267c4.833.15 8.011 1.267 9.974 2.563 1.374.906 2.128 1.876 2.491 2.67H15v2.25Zm-8.25-1.5h-4.5v-4.5h4.5v4.5Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;DIY&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-brand sui-text-brand" data-testid="header-button-DIY" aria-label="open drawer to view DIY"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="HammerIcon"&gt;&lt;path d="M7.875 0H6.75v1.5H0v9h6.75V12h1.5v12h2.25V12h3v12h2.25V12h1.5V9.75H24V8.625c0-1.808-1.24-3.993-3.787-5.673C17.637 1.252 13.654 0 7.875 0ZM15 9.75H9V2.267c4.833.15 8.011 1.267 9.974 2.563 1.374.906 2.128 1.876 2.491 2.67H15v2.25Zm-8.25-1.5h-4.5v-4.5h4.5v4.5Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;DIY&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>1</v>
+      </c>
+      <c r="C229" t="b">
+        <v>1</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-gap-2 sui-fill-primary lg:sui-w-[16.7rem]" data-testid="my-store-button" aria-label="Open drawer to view my store"&gt;&lt;svg class="sui-inline-block sui-align-baseline sui-fill-inherit sui-w-4 sui-h-4" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="StoreIcon"&gt;&lt;path d="M15.75 9v2.25h-7.5V9h7.5Z"&gt;&lt;/path&gt;&lt;path d="M3.33 4.08C5.449 1.96 8.752.75 12 .75s6.551 1.21 8.67 3.33l.33.329V6.75h3V22.5H0V6.75h3V4.409l.33-.33Zm1.92 1.282V9h-3v11.25H9V15h6v5.25h6.75V9h-3V5.362C17.1 3.91 14.574 3 12 3s-5.1.91-6.75 2.362Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-0 sui-max-w-[12.8rem] lg:sui-max-w-[8.9rem]"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Mill Basin&lt;/p&gt;&lt;/div&gt;&lt;p class="sui-font-bold sui-text-base sui-leading-normal sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-text-danger"&gt;6AM&lt;/p&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-gap-2 sui-fill-brand sui-text-brand lg:sui-w-[16.7rem]" data-testid="my-store-button" aria-label="Open drawer to view my store"&gt;&lt;svg class="sui-inline-block sui-align-baseline sui-fill-inherit sui-w-4 sui-h-4" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="StoreIcon"&gt;&lt;path d="M15.75 9v2.25h-7.5V9h7.5Z"&gt;&lt;/path&gt;&lt;path d="M3.33 4.08C5.449 1.96 8.752.75 12 .75s6.551 1.21 8.67 3.33l.33.329V6.75h3V22.5H0V6.75h3V4.409l.33-.33Zm1.92 1.282V9h-3v11.25H9V15h6v5.25h6.75V9h-3V5.362C17.1 3.91 14.574 3 12 3s-5.1.91-6.75 2.362Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-0 sui-max-w-[12.8rem] lg:sui-max-w-[8.9rem]"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Mill Basin&lt;/p&gt;&lt;/div&gt;&lt;p class="sui-font-bold sui-text-base sui-leading-normal sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-text-success"&gt;10PM&lt;/p&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="carousel__prev"&gt;&lt;svg class="carousel__prev-button" viewBox="0 0 12 21" version="1.1" xmlns="http://www.w3.org/2000/svg" xmlns:xlink="http://www.w3.org/1999/xlink" xmlnssketch="http://www.bohemiancoding.com/sketch/ns"&gt;&lt;defs&gt;&lt;/defs&gt;&lt;g id="Page-1" stroke="none" stroke-width="1" fill="none" fill-rule="evenodd" sketchtype="MSPage"&gt;&lt;path d="M3.35738643,4.0642103 L3.35738643,3.09586423 L17.8582152,3.09586423 L17.8582152,5.03255637 L5.28304981,5.03255637 L5.28304981,17.6355953 L3.35738643,17.6355953 L3.35738643,4.0642103 Z" id="back-arrow" fill="#F96302" sketchtype="MSShapeGroup" transform="translate(10.607801, 10.365730) rotate(-45.000000) translate(-10.607801, -10.365730) "&gt;&lt;/path&gt;&lt;/g&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>1</v>
+      </c>
+      <c r="C231" t="b">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-primary" data-testid="header-button-Account" aria-label="open drawer to view Account"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="ProfileIcon"&gt;&lt;path d="M12 0a6 6 0 0 0-6 6v1.5c0 1.825.815 3.46 2.101 4.56A9.752 9.752 0 0 0 2.25 21v3H4.5v-3a7.5 7.5 0 0 1 15 0v3h2.25v-3a9.752 9.752 0 0 0-5.851-8.94A5.987 5.987 0 0 0 18 7.5V6a6 6 0 0 0-6-6Zm0 11.25A3.75 3.75 0 0 1 8.25 7.5V6a3.75 3.75 0 1 1 7.5 0v1.5A3.75 3.75 0 0 1 12 11.25Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Me&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-brand sui-text-brand" data-testid="header-button-Account" aria-label="open drawer to view Account"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="ProfileIcon"&gt;&lt;path d="M12 0a6 6 0 0 0-6 6v1.5c0 1.825.815 3.46 2.101 4.56A9.752 9.752 0 0 0 2.25 21v3H4.5v-3a7.5 7.5 0 0 1 15 0v3h2.25v-3a9.752 9.752 0 0 0-5.851-8.94A5.987 5.987 0 0 0 18 7.5V6a6 6 0 0 0-6-6Zm0 11.25A3.75 3.75 0 0 1 8.25 7.5V6a3.75 3.75 0 1 1 7.5 0v1.5A3.75 3.75 0 0 1 12 11.25Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Me&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" t="b">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>&lt;button type="submit" class="sui-btn sui-btn-primary sui-btn-primary-focus sui-w-full sm:sui-w-fit sui-btn-primary-active sui-btn-primary-hover sui-font-bold sui-text-base sui-leading-normal sui-tracking-normal sui-normal-case sui-line-clamp-unset " data-testid="FooterEmailButton"&gt;GO&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="sui-inline-flex sui-items-center sui-justify-center sui-border-none sui-border-0 focus-visible:sui-bg-button-focus focus-visible:sui-outline-none focus-visible:sui-fill-primary sui-h-11 sui-w-11 hover:sui-fill-brand sui-fill-primary" aria-label="Previous slide"&gt;&lt;svg class="sui-inline-block sui-align-baseline sui-fill-inherit sui-w-4 sui-h-4" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="ArrowBackIcon"&gt;&lt;path d="M18.729 1.604 8.444 12l10.284 10.396-1.6 1.582L5.28 12 17.13.02l1.6 1.583Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>True? - Local DOM Change</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" t="b">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>&lt;a class="sui-font-regular sui-text-base sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-text-primary focus-visible:sui-bg-focus focus-visible:sui-outline-none sui-underline"&gt;Change Store&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>self.initial_DOM</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>self.after_DOM</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>1</v>
+      </c>
+      <c r="C235" t="b">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-primary" data-testid="header-button-Services" aria-label="open drawer to view Services"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="DrillIcon"&gt;&lt;path d="M14.25 0H3.284L0 3.284v7.204l2.828.008-.857 6.004H0V24h13.5v-4.688l-3.679-2.758.577-6.054h3.852V9h3.091L19.5 6.841V6.39l4.505-.02-.01-2.25-4.495.02v-.481L17.341 1.5H14.25V0ZM12 2.25v6H9.375c-.58 0-1.065.441-1.12 1.018L7.566 16.5H4.244l.995-6.966a1.125 1.125 0 0 0-1.11-1.284L2.25 8.245V4.216L4.216 2.25H12Zm4.409 4.5H14.25v-3h2.159l.841.841v1.318l-.841.841Zm-14.159 15v-3H9l2.25 1.688v1.312h-9Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Services&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="focus-visible:sui-outline focus-visible:sui-outline-2 focus-visible:sui-outline-button-focus sui-flex sui-items-center sui-text-center hover:sui-fill-brand hover:sui-no-underline hover:sui-text-brand sui-flex-col sui-w-16 sui-fill-brand sui-text-brand" data-testid="header-button-Services" aria-label="open drawer to view Services"&gt;&lt;svg class="sui-h-4 sui-w-4 lg:sui-h-6 lg:sui-w-6" viewBox="0 0 24 24" focusable="false" aria-hidden="true" data-testid="DrillIcon"&gt;&lt;path d="M14.25 0H3.284L0 3.284v7.204l2.828.008-.857 6.004H0V24h13.5v-4.688l-3.679-2.758.577-6.054h3.852V9h3.091L19.5 6.841V6.39l4.505-.02-.01-2.25-4.495.02v-.481L17.341 1.5H14.25V0ZM12 2.25v6H9.375c-.58 0-1.065.441-1.12 1.018L7.566 16.5H4.244l.995-6.966a1.125 1.125 0 0 0-1.11-1.284L2.25 8.245V4.216L4.216 2.25H12Zm4.409 4.5H14.25v-3h2.159l.841.841v1.318l-.841.841Zm-14.159 15v-3H9l2.25 1.688v1.312h-9Z"&gt;&lt;/path&gt;&lt;/svg&gt;&lt;div class="sui-min-fit sui-mt-1"&gt;&lt;p class="sui-font-regular sui-text-base sui-leading-tight sui-tracking-normal sui-normal-case sui-line-clamp-unset sui-truncate"&gt;Services&lt;/p&gt;&lt;/div&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>&lt;div class="swiper-button-next" tabindex="0" role="button" aria-label="Go to slide 6" aria-controls="swiper-wrapper-3106f23a78b1fa434" aria-disabled="false"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.breitbart.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>1</v>
+      </c>
+      <c r="C239" t="b">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>&lt;div id="MT" role="button" tabindex="-1" aria-label="Menu"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>&lt;div id="MT" role="button" tabindex="-1" aria-label="Menu" class="active"&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[contains(@class, "onetrust-close-btn-handler")][contains(@class, "onetrust-close-btn-ui")][contains(@class, "banner-close-button")][contains(@class, "ot-close-icon")][@style="background-image: url("https://cdn.cookielaw.org/logos/static/ot_close.svg");"][@aria-label="Close"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>&lt;button class="onetrust-close-btn-handler onetrust-close-btn-ui banner-close-button ot-close-icon" style="background-image: url(&amp;quot;https://cdn.cookielaw.org/logos/static/ot_close.svg&amp;quot;);" aria-label="Close"&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://github.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>1</v>
+      </c>
+      <c r="C243" t="b">
+        <v>1</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;        Solutions        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;&lt;/svg&gt;      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Product
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>True - Redirect</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>&lt;button tabindex="-1" type="button" data-view-component="true" class="Button--secondary Button--medium Button"&gt;  &lt;span class="Button-content"&gt;      &lt;span class="Button-visual Button-leadingVisual"&gt;        &lt;svg aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-heart"&gt;    &lt;path d="m8 14.25.345.666a.75.75 0 0 1-.69 0l-.008-.004-.018-.01a7.152 7.152 0 0 1-.31-.17 22.055 22.055 0 0 1-3.434-2.414C2.045 10.731 0 8.35 0 5.5 0 2.836 2.086 1 4.25 1 5.797 1 7.153 1.802 8 3.02 8.847 1.802 10.203 1 11.75 1 13.914 1 16 2.836 16 5.5c0 2.85-2.045 5.231-3.885 6.818a22.066 22.066 0 0 1-3.744 2.584l-.018.01-.006.003h-.002ZM4.25 2.5c-1.336 0-2.75 1.164-2.75 3 0 2.15 1.58 4.144 3.365 5.682A20.58 20.58 0 0 0 8 13.393a20.58 20.58 0 0 0 3.135-2.211C12.92 9.644 14.5 7.65 14.5 5.5c0-1.836-1.414-3-2.75-3-1.373 0-2.609.986-3.029 2.456a.749.749 0 0 1-1.442 0C6.859 3.486 5.623 2.5 4.25 2.5Z"&gt;&lt;/path&gt;&lt;/svg&gt;      &lt;/span&gt;    &lt;span class="Button-label"&gt;Sponsor&lt;/span&gt;  &lt;/span&gt;&lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>https://github.com/</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://github.com/</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[contains(@class, "btn-mktg")][contains(@class, "width-full")][contains(@class, "width-md-auto")][contains(@class, "mb-3")][contains(@class, "mb-md-0")][contains(@class, "rounded-md-left-0")][contains(@class, "home-campaign-signup-button")][contains(@class, "btn-signup-mktg")][@data-analytics-event="{"category":"Home campaign","action":"click to Sign up for GitHub","label":"ref_page:/;ref_cta:Sign up for GitHub;ref_loc:footer"}"][@type="submit"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn-mktg width-full width-md-auto mb-3 mb-md-0 rounded-md-left-0 home-campaign-signup-button btn-signup-mktg" data-analytics-event="{&amp;quot;category&amp;quot;:&amp;quot;Home campaign&amp;quot;,&amp;quot;action&amp;quot;:&amp;quot;click to Sign up for GitHub&amp;quot;,&amp;quot;label&amp;quot;:&amp;quot;ref_page:/;ref_cta:Sign up for GitHub;ref_loc:footer&amp;quot;}" type="submit"&gt;  Sign up for GitHub    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>1</v>
+      </c>
+      <c r="C246" t="b">
+        <v>1</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="header-search-button placeholder input-button form-control d-flex flex-1 flex-self-stretch flex-items-center no-wrap width-full py-0 pl-2 pr-0 text-left border-0 box-shadow-none" data-target="qbsearch-input.inputButton" placeholder="Search or jump to..." data-hotkey="s,/" autocapitalize="off" data-action="click:qbsearch-input#handleExpand"&gt;        &lt;div class="mr-2 color-fg-muted"&gt;          &lt;svg aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-search"&gt;    &lt;path d="M10.68 11.74a6 6 0 0 1-7.922-8.982 6 6 0 0 1 8.982 7.922l3.04 3.04a.749.749 0 0 1-.326 1.275.749.749 0 0 1-.734-.215ZM11.5 7a4.499 4.499 0 1 0-8.997 0A4.499 4.499 0 0 0 11.5 7Z"&gt;&lt;/path&gt;&lt;/svg&gt;        &lt;/div&gt;        &lt;span class="flex-1" data-target="qbsearch-input.inputButtonText"&gt;Search or jump to...&lt;/span&gt;          &lt;div class="d-flex" data-target="qbsearch-input.hotkeyIndicator"&gt;            &lt;svg xmlns="http://www.w3.org/2000/svg" width="22" height="20" aria-hidden="true" class="mr-1"&gt;&lt;path fill="none" stroke="#979A9C" opacity=".4" d="M3.5.5h12c1.7 0 3 1.3 3 3v13c0 1.7-1.3 3-3 3h-12c-1.7 0-3-1.3-3-3v-13c0-1.7 1.3-3 3-3z"&gt;&lt;/path&gt;&lt;path fill="#979A9C" d="M11.8 6L8 15.1h-.9L10.8 6h1z"&gt;&lt;/path&gt;&lt;/svg&gt;          &lt;/div&gt;      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="header-search-button placeholder input-button form-control d-flex flex-1 flex-self-stretch flex-items-center no-wrap width-full py-0 pl-2 pr-0 text-left border-0 box-shadow-none" data-target="qbsearch-input.inputButton" placeholder="Search or jump to..." data-hotkey="s,/" autocapitalize="off" data-action="click:qbsearch-input#handleExpand"&gt;
+        &lt;div class="mr-2 color-fg-muted"&gt;
+          &lt;svg aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-search"&gt;
+    &lt;path d="M10.68 11.74a6 6 0 0 1-7.922-8.982 6 6 0 0 1 8.982 7.922l3.04 3.04a.749.749 0 0 1-.326 1.275.749.749 0 0 1-.734-.215ZM11.5 7a4.499 4.499 0 1 0-8.997 0A4.499 4.499 0 0 0 11.5 7Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+        &lt;/div&gt;
+        &lt;span class="flex-1" data-target="qbsearch-input.inputButtonText"&gt;Search or jump to...&lt;/span&gt;
+          &lt;div class="d-flex" data-target="qbsearch-input.hotkeyIndicator"&gt;
+            &lt;svg xmlns="http://www.w3.org/2000/svg" width="22" height="20" aria-hidden="true" class="mr-1"&gt;&lt;path fill="none" stroke="#979A9C" opacity=".4" d="M3.5.5h12c1.7 0 3 1.3 3 3v13c0 1.7-1.3 3-3 3h-12c-1.7 0-3-1.3-3-3v-13c0-1.7 1.3-3 3-3z"&gt;&lt;/path&gt;&lt;path fill="#979A9C" d="M11.8 6L8 15.1h-.9L10.8 6h1z"&gt;&lt;/path&gt;&lt;/svg&gt;
+          &lt;/div&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>1</v>
+      </c>
+      <c r="C247" t="b">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;        Open Source        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;&lt;/svg&gt;      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Product
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>1</v>
+      </c>
+      <c r="C248" t="b">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="false"&gt;        Product        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;&lt;/svg&gt;      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="HeaderMenu-link border-0 width-full width-lg-auto px-0 px-lg-2 py-3 py-lg-2 no-wrap d-flex flex-items-center flex-justify-between js-details-target" aria-expanded="true"&gt;
+        Product
+        &lt;svg opacity="0.5" aria-hidden="true" height="16" viewBox="0 0 16 16" version="1.1" width="16" data-view-component="true" class="octicon octicon-chevron-down HeaderMenu-icon ml-1"&gt;
+    &lt;path d="M12.78 5.22a.749.749 0 0 1 0 1.06l-4.25 4.25a.749.749 0 0 1-1.06 0L3.22 6.28a.749.749 0 1 1 1.06-1.06L8 8.939l3.72-3.719a.749.749 0 0 1 1.06 0Z"&gt;&lt;/path&gt;
+&lt;/svg&gt;
+      &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>1</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="Link--secondary underline-on-hover border-0 p-0 color-bg-transparent" data-action="click:cookie-consent-link#showConsentManagement"&gt;      Manage cookies    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="Link--secondary underline-on-hover border-0 p-0 color-bg-transparent" data-action="click:cookie-consent-link#showConsentManagement"&gt;
+      Manage cookies
+    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>True - outerHTML change</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>1</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="Link--secondary underline-on-hover border-0 p-0 color-bg-transparent" data-action="click:cookie-consent-link#showConsentManagement"&gt;      Do not share my personal information    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>&lt;button type="button" class="Link--secondary underline-on-hover border-0 p-0 color-bg-transparent" data-action="click:cookie-consent-link#showConsentManagement"&gt;
+      Manage cookies
+    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Tries: 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Message: invalid selector: Unable to locate an element with the xpath expression //button[contains(@class, "btn-mktg")][contains(@class, "width-full")][contains(@class, "width-md-auto")][contains(@class, "mb-3")][contains(@class, "mb-md-0")][contains(@class, "rounded-md-left-0")][contains(@class, "home-campaign-signup-button")][contains(@class, "btn-signup-mktg")][@data-analytics-event="{"category":"Home campaign","action":"click to Sign up for GitHub","label":"ref_page:/;ref_cta:Sign up for GitHub;ref_loc:hero"}"][@type="submit"] because of the following error:</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>&lt;button class="btn-mktg width-full width-md-auto mb-3 mb-md-0 rounded-md-left-0 home-campaign-signup-button btn-signup-mktg" data-analytics-event="{&amp;quot;category&amp;quot;:&amp;quot;Home campaign&amp;quot;,&amp;quot;action&amp;quot;:&amp;quot;click to Sign up for GitHub&amp;quot;,&amp;quot;label&amp;quot;:&amp;quot;ref_page:/;ref_cta:Sign up for GitHub;ref_loc:hero&amp;quot;}" type="submit"&gt;  Sign up for GitHub    &lt;/button&gt;</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;ASPHODELCHIC Women Pearl Evening Bag Bride Beaded Clutch Purse Cream White for Wedding Party&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/51z11hOM4eL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="UMREN Bling Full Glitter Knotted Handbag for Women Crystal Rhinestone Hobo Dumpling Bag Diamond Evening Clutch Crossbody Bag"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>StaleElementReferenceException</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>&lt;input id="nav-search-submit-button" type="submit" class="nav-input nav-progressive-attribute" value="Go" tabindex="0"&gt;</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>&lt;div class="imageAnchor--21TeS" title="Miuco Women Knotted Handbag Sparkly Rhinestone Hobo Dumpling Bag Diamond Glitter Evening Clutch Purse" data-id="ImageAnchor" role="button" tabindex="0"&gt;&lt;img class="responsive-image_lazyImg__2NuGN responsive-image_visible__3_4CF responsive-image_responsiveImg__OZBqH" srcset="https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX160_QL100_AC_SCLZZZZZZZ_.jpg, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX240_QL100_AC_SCLZZZZZZZ_.jpg 1.5x, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX320_QL100_AC_SCLZZZZZZZ_.jpg 2x, https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX480_QL100_AC_SCLZZZZZZZ_.jpg 3x" src="https://images-na.ssl-images-amazon.com/images/I/512AnEuEUnL._SX160_QL100_AC_SCLZZZZZZZ_.jpg" alt="Miuco Women Knotted Handbag Sparkly Rhinestone Hobo Dumpling Bag Diamond Glitter Evening Clutch Purse"&gt;&lt;div class="imageOverlay--eK9PK"&gt;&lt;/div&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>&lt;a class="scroll-carousel_carouselControl__Id0y9 scroll-carousel_carouselHorizontalControl__1gDln scroll-carousel_feedLeft__2VUPq" data-id="carouselControlFeedPrev"&gt;&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;Fuiuwhs Its My Birthday Dress for Women Birthday Sequin Shirt Dress Letter Graphic Print Half Sleeve Dress&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Element not found using the specified XPath.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>&lt;div class="title--3qM6_ title--X01QH titleAnchor--2TGNn doubleLinesTitle--ATRHO tripleLinesTitle--1Z3xO" data-id="TileTitle" role="button" tabindex="0"&gt;CHARMING TAILOR Clutch Evening Bag Elegant Pleated Satin Formal Handbag Simple Classy Purse for Women&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Tries: 3</t>
         </is>
       </c>
     </row>
